--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/revoltech/wi-angular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="993" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,8 +24,11 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="352">
   <si>
     <t>Code</t>
   </si>
@@ -973,9 +981,6 @@
     <t>curve_interactive_baseline_edit_16x16</t>
   </si>
   <si>
-    <t>curve_splice_16x16</t>
-  </si>
-  <si>
     <t>curve_splice_interactive_16x16</t>
   </si>
   <si>
@@ -1049,6 +1054,48 @@
   </si>
   <si>
     <t>sand_32x32</t>
+  </si>
+  <si>
+    <t>unlock1_32x32</t>
+  </si>
+  <si>
+    <t>multi_mineral_solver_16x16</t>
+  </si>
+  <si>
+    <t>clay_volume_16x16</t>
+  </si>
+  <si>
+    <t>edit_curve_text_32x32</t>
+  </si>
+  <si>
+    <t>curve_convolution_16x16</t>
+  </si>
+  <si>
+    <t>curve_deconvolution_16x16</t>
+  </si>
+  <si>
+    <t>formation_resistivity_16x16</t>
+  </si>
+  <si>
+    <t>badhole_coal_salt_16x16</t>
+  </si>
+  <si>
+    <t>python_program_16x16</t>
+  </si>
+  <si>
+    <t>pca_analysis_16x16</t>
+  </si>
+  <si>
+    <t>curve_alias_32x32</t>
+  </si>
+  <si>
+    <t>family_edit_32x32</t>
+  </si>
+  <si>
+    <t>tri_tracks_blank_16x16</t>
+  </si>
+  <si>
+    <t>cureve_splice_16x16</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1594,12 +1641,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1624,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1635,7 +1682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1646,7 +1693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1676,15 +1723,15 @@
       <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1766,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1748,7 +1795,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1780,7 +1827,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -1812,7 +1859,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1844,7 +1891,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2.1</v>
       </c>
@@ -1876,7 +1923,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -1902,7 +1949,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -1928,7 +1975,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -1957,7 +2004,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1968,7 +2015,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1979,7 +2026,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1990,7 +2037,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="21"/>
@@ -2001,7 +2048,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="21"/>
@@ -2012,7 +2059,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2023,7 +2070,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="22"/>
@@ -2034,7 +2081,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2045,7 +2092,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2056,7 +2103,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -2067,7 +2114,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2078,7 +2125,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -2089,7 +2136,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2114,14 +2161,14 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>290</v>
       </c>
@@ -2132,14 +2179,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -2151,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -2163,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -2178,7 +2225,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -2190,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
@@ -2205,14 +2252,14 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
@@ -2221,7 +2268,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>WellHeaderModal</v>
@@ -2230,7 +2277,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>DepthConversionModal</v>
@@ -2239,7 +2286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CurveAliasModal</v>
@@ -2248,7 +2295,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>FamilyEditModal</v>
@@ -2257,7 +2304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Input/OutputModal</v>
@@ -2266,7 +2313,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIModal</v>
@@ -2275,7 +2322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>
@@ -2284,7 +2331,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASModal</v>
@@ -2293,7 +2340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASModal</v>
@@ -2302,7 +2349,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderModal</v>
@@ -2311,7 +2358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2320,7 +2367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderModal</v>
@@ -2329,7 +2376,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopModal</v>
@@ -2338,7 +2385,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIModal</v>
@@ -2347,7 +2394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIModal</v>
@@ -2356,7 +2403,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASModal</v>
@@ -2365,7 +2412,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASModal</v>
@@ -2374,7 +2421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataModal</v>
@@ -2383,7 +2430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2392,7 +2439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderModal</v>
@@ -2401,7 +2448,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopModal</v>
@@ -2410,14 +2457,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A65" si="1">SUBSTITUTE(CONCATENATE(B32,"Modal")," ","")</f>
         <v>BlankLogplotModal</v>
@@ -2426,7 +2473,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>TrippleComboModal</v>
@@ -2435,7 +2482,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>DensityNeutronModal</v>
@@ -2444,7 +2491,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>ResistivitySonicModal</v>
@@ -2453,7 +2500,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>3TracksBlankModal</v>
@@ -2462,7 +2509,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>InputCurveModal</v>
@@ -2471,7 +2518,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>Litho+Syn.CurveModal</v>
@@ -2480,7 +2527,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>Syn.CurveModal</v>
@@ -2489,7 +2536,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>CrossPlotModal</v>
@@ -2498,7 +2545,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>BlankCrossPlotModal</v>
@@ -2507,7 +2554,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>SonicPHI_TOTALModal</v>
@@ -2516,7 +2563,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>NeutronDensityModal</v>
@@ -2525,7 +2572,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>NeutronGammaModal</v>
@@ -2534,7 +2581,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>SonicGammaModal</v>
@@ -2543,7 +2590,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronSonicModal</v>
@@ -2552,7 +2599,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>DenityGammaModal</v>
@@ -2561,7 +2608,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronRtModal</v>
@@ -2570,7 +2617,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>DensitySonicModal</v>
@@ -2579,7 +2626,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>DensityRtModal</v>
@@ -2588,7 +2635,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>SonicDensityModal</v>
@@ -2597,7 +2644,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>SonicRtModal</v>
@@ -2606,7 +2653,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>RtRx0Modal</v>
@@ -2615,7 +2662,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>PickettModal</v>
@@ -2624,7 +2671,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>HistogramModal</v>
@@ -2633,7 +2680,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>BlankHistogramModal</v>
@@ -2642,7 +2689,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>PHI_TOTALModal</v>
@@ -2651,7 +2698,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>GammaRayModal</v>
@@ -2660,7 +2707,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>NeutronModal</v>
@@ -2669,7 +2716,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>DensityModal</v>
@@ -2678,7 +2725,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>HistogramMoreModal</v>
@@ -2687,7 +2734,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>SonicModal</v>
@@ -2696,7 +2743,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>SallowResistivityModal</v>
@@ -2705,7 +2752,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>DeepResistivityModal</v>
@@ -2714,7 +2761,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>MSFLHistogramModal</v>
@@ -2723,14 +2770,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">SUBSTITUTE(CONCATENATE(B67,"Modal")," ","")</f>
         <v>AddCurveModal</v>
@@ -2739,7 +2786,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveEditModal</v>
@@ -2748,7 +2795,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveBaselineShiftModal</v>
@@ -2757,7 +2804,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurveModal</v>
@@ -2766,7 +2813,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurvesModal</v>
@@ -2775,7 +2822,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveSplitModal</v>
@@ -2784,7 +2831,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>MergeCurvesModal</v>
@@ -2793,7 +2840,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>CurvesHeaderModal</v>
@@ -2802,7 +2849,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>FillDataGapsModal</v>
@@ -2811,7 +2858,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>CurveFilterModal</v>
@@ -2820,7 +2867,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>CurveConvolutionModal</v>
@@ -2829,7 +2876,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>CurveDeconvolutionModal</v>
@@ -2838,7 +2885,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>CurveDerivativeModal</v>
@@ -2847,7 +2894,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>CurveRescaleModal</v>
@@ -2856,7 +2903,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>CurveComrarisonModal</v>
@@ -2865,7 +2912,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>CurveAverageModal</v>
@@ -2874,7 +2921,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FormationResistivityModal</v>
@@ -2883,7 +2930,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Badhole/Coal/SaltModal</v>
@@ -2892,7 +2939,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2901,7 +2948,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2910,7 +2957,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>UserProgramModal</v>
@@ -2919,7 +2966,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>PythonProgramModal</v>
@@ -2928,7 +2975,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>CalculationModal</v>
@@ -2937,7 +2984,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>TVDConversionModal</v>
@@ -2946,7 +2993,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>PCAAnalysisModal</v>
@@ -2955,7 +3002,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Multi-LinearRegressionModal</v>
@@ -2964,7 +3011,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>NeuralNetworkModal</v>
@@ -2973,14 +3020,14 @@
         <v>248</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" ref="A95:A116" si="3">SUBSTITUTE(CONCATENATE(B95,"Modal")," ","")</f>
         <v>EditZonesModal</v>
@@ -2989,7 +3036,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
         <v>InputCurvesModal</v>
@@ -2998,7 +3045,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
         <v>InputFuidModal</v>
@@ -3007,7 +3054,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
         <v>BuildMineralParametersModal</v>
@@ -3016,7 +3063,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
         <v>InputMineralZonesModal</v>
@@ -3025,7 +3072,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
         <v>Multi-MineralSolverModal</v>
@@ -3034,7 +3081,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
         <v>ClayMineralsVolumeModal</v>
@@ -3043,7 +3090,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
         <v>Fracture-VugPorosityModal</v>
@@ -3052,7 +3099,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
         <v>OpenPorosityModal</v>
@@ -3061,7 +3108,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>SecondaryPorosityModal</v>
@@ -3070,7 +3117,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
         <v>FracturePorosityModal</v>
@@ -3079,7 +3126,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
         <v>FilteringFractureModal</v>
@@ -3088,7 +3135,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
         <v>Micro&amp;MacroPorosityModal</v>
@@ -3097,7 +3144,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
         <v>WaterSaturationModal</v>
@@ -3106,7 +3153,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
         <v>PermeabilityModal</v>
@@ -3115,7 +3162,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3124,7 +3171,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
         <v>FilteringModal</v>
@@ -3133,7 +3180,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
         <v>ClasticModal</v>
@@ -3142,7 +3189,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
         <v>BasicAnalysisModal</v>
@@ -3151,7 +3198,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
         <v>ClayVolumeModal</v>
@@ -3160,7 +3207,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
         <v>Porosity&amp;WaterSaturationModal</v>
@@ -3169,7 +3216,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3178,14 +3225,14 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f>SUBSTITUTE(CONCATENATE(B118,"Modal")," ","")</f>
         <v>AboutModal</v>
@@ -3194,7 +3241,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f>SUBSTITUTE(CONCATENATE(B119,"Modal")," ","")</f>
         <v>UnlockModal</v>
@@ -3217,9 +3264,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3233,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -3245,7 +3292,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -3256,7 +3303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -3267,7 +3314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -3278,7 +3325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -3289,7 +3336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
@@ -3300,7 +3347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1.6</v>
       </c>
@@ -3333,20 +3380,20 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3381,11 +3428,11 @@
         <v>299</v>
       </c>
       <c r="L1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3415,7 +3462,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -3456,7 +3503,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -3497,7 +3544,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -3538,7 +3585,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -3579,7 +3626,7 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -3621,7 +3668,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -3657,11 +3704,11 @@
         <v>300</v>
       </c>
       <c r="L8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -3697,11 +3744,11 @@
         <v>300</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -3741,7 +3788,7 @@
       </c>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2.1</v>
       </c>
@@ -3781,7 +3828,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2.2000000000000002</v>
       </c>
@@ -3821,7 +3868,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2.2999999999999998</v>
       </c>
@@ -3861,7 +3908,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>3</v>
       </c>
@@ -3897,7 +3944,7 @@
       </c>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>3.1</v>
       </c>
@@ -3948,22 +3995,22 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3998,10 +4045,10 @@
         <v>299</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4030,7 +4077,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -4070,7 +4117,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -4110,7 +4157,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -4150,7 +4197,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -4165,10 +4212,12 @@
         <f t="shared" si="1"/>
         <v>Button</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>curve-alias-32x32</v>
       </c>
       <c r="G6" t="s">
         <v>59</v>
@@ -4188,7 +4237,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
@@ -4203,10 +4252,12 @@
         <f t="shared" si="1"/>
         <v>Button</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>family-edit-32x32</v>
       </c>
       <c r="G7" t="s">
         <v>60</v>
@@ -4226,7 +4277,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
@@ -4261,7 +4312,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>2.1</v>
       </c>
@@ -4302,7 +4353,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>65</v>
       </c>
@@ -4338,10 +4389,10 @@
         <v>300</v>
       </c>
       <c r="L10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>68</v>
       </c>
@@ -4377,10 +4428,10 @@
         <v>300</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
@@ -4416,10 +4467,10 @@
         <v>300</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4455,10 +4506,10 @@
         <v>300</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4494,10 +4545,10 @@
         <v>300</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>78</v>
       </c>
@@ -4533,10 +4584,10 @@
         <v>300</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>81</v>
       </c>
@@ -4572,10 +4623,10 @@
         <v>300</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>84</v>
       </c>
@@ -4611,10 +4662,10 @@
         <v>300</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>86</v>
       </c>
@@ -4655,7 +4706,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
@@ -4691,10 +4742,10 @@
         <v>300</v>
       </c>
       <c r="L19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4730,10 +4781,10 @@
         <v>300</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>94</v>
       </c>
@@ -4769,10 +4820,10 @@
         <v>300</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>97</v>
       </c>
@@ -4808,10 +4859,10 @@
         <v>300</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>99</v>
       </c>
@@ -4847,10 +4898,10 @@
         <v>300</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>101</v>
       </c>
@@ -4886,10 +4937,10 @@
         <v>300</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -4925,10 +4976,10 @@
         <v>300</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -4944,7 +4995,7 @@
         <v>Button</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
@@ -4964,10 +5015,10 @@
         <v>300</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -4978,7 +5029,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -4989,7 +5040,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="24"/>
       <c r="C31" s="21"/>
@@ -5000,7 +5051,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="21"/>
@@ -5011,7 +5062,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="21"/>
@@ -5022,7 +5073,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="21"/>
@@ -5033,7 +5084,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="21"/>
@@ -5044,7 +5095,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="21"/>
@@ -5055,7 +5106,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="21"/>
@@ -5066,7 +5117,7 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="21"/>
@@ -5077,7 +5128,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="21"/>
@@ -5088,7 +5139,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="21"/>
@@ -5099,7 +5150,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="21"/>
@@ -5110,7 +5161,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="21"/>
@@ -5121,7 +5172,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="21"/>
@@ -5132,7 +5183,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="21"/>
@@ -5143,7 +5194,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="21"/>
@@ -5154,7 +5205,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="21"/>
@@ -5165,7 +5216,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="21"/>
@@ -5176,7 +5227,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
@@ -5187,7 +5238,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="21"/>
@@ -5198,7 +5249,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="21"/>
@@ -5209,7 +5260,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="21"/>
@@ -5220,7 +5271,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="21"/>
@@ -5231,7 +5282,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="21"/>
@@ -5242,7 +5293,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="21"/>
@@ -5253,7 +5304,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="21"/>
@@ -5264,7 +5315,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -5275,7 +5326,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -5286,7 +5337,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -5297,7 +5348,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -5308,7 +5359,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -5329,21 +5380,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:L28"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5378,10 +5429,10 @@
         <v>299</v>
       </c>
       <c r="L1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -5410,7 +5461,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -5450,7 +5501,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -5490,7 +5541,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -5530,7 +5581,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -5570,7 +5621,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>1.5</v>
       </c>
@@ -5611,7 +5662,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -5627,11 +5678,11 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
-        <v>project-new-16x16</v>
+        <v>tri-tracks-blank-16x16</v>
       </c>
       <c r="G8" t="s">
         <v>116</v>
@@ -5647,10 +5698,10 @@
         <v>300</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -5686,10 +5737,10 @@
         <v>300</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>119</v>
       </c>
@@ -5725,10 +5776,10 @@
         <v>300</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>121</v>
       </c>
@@ -5764,10 +5815,10 @@
         <v>300</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>123</v>
       </c>
@@ -5803,10 +5854,10 @@
         <v>300</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -5841,10 +5892,10 @@
         <v>300</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>2.1</v>
       </c>
@@ -5884,7 +5935,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -5924,7 +5975,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -5964,7 +6015,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>2.4</v>
       </c>
@@ -6004,7 +6055,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>2.5</v>
       </c>
@@ -6044,7 +6095,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2.6</v>
       </c>
@@ -6085,7 +6136,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
@@ -6121,10 +6172,10 @@
         <v>300</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>137</v>
       </c>
@@ -6160,10 +6211,10 @@
         <v>300</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>139</v>
       </c>
@@ -6199,10 +6250,10 @@
         <v>300</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>142</v>
       </c>
@@ -6238,10 +6289,10 @@
         <v>300</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>145</v>
       </c>
@@ -6277,10 +6328,10 @@
         <v>300</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>148</v>
       </c>
@@ -6316,10 +6367,10 @@
         <v>300</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>151</v>
       </c>
@@ -6355,10 +6406,10 @@
         <v>300</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>154</v>
       </c>
@@ -6394,10 +6445,10 @@
         <v>300</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>157</v>
       </c>
@@ -6433,10 +6484,10 @@
         <v>300</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>3</v>
       </c>
@@ -6471,7 +6522,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>3.1</v>
       </c>
@@ -6511,7 +6562,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>3.2</v>
       </c>
@@ -6551,7 +6602,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>3.3</v>
       </c>
@@ -6591,7 +6642,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>3.4</v>
       </c>
@@ -6631,7 +6682,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>3.5</v>
       </c>
@@ -6671,7 +6722,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>3.6</v>
       </c>
@@ -6712,7 +6763,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>170</v>
       </c>
@@ -6748,10 +6799,10 @@
         <v>300</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>173</v>
       </c>
@@ -6787,10 +6838,10 @@
         <v>300</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>176</v>
       </c>
@@ -6826,10 +6877,10 @@
         <v>300</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>179</v>
       </c>
@@ -6865,10 +6916,10 @@
         <v>300</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -6879,7 +6930,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -6890,7 +6941,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -6901,7 +6952,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -6912,7 +6963,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -6923,7 +6974,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -6934,7 +6985,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -6945,7 +6996,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -6956,7 +7007,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -6967,7 +7018,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -6978,7 +7029,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -6989,7 +7040,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -7000,7 +7051,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -7011,7 +7062,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -7022,7 +7073,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -7033,7 +7084,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -7044,7 +7095,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -7055,7 +7106,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -7066,7 +7117,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -7077,7 +7128,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -7088,7 +7139,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -7099,7 +7150,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -7110,7 +7161,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -7121,7 +7172,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -7132,7 +7183,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -7143,7 +7194,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -7154,7 +7205,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -7165,7 +7216,7 @@
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="20"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -7176,7 +7227,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="20"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -7187,7 +7238,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -7198,7 +7249,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -7209,7 +7260,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -7220,7 +7271,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="20"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -7231,7 +7282,7 @@
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -7242,7 +7293,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="20"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -7253,7 +7304,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="20"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -7264,7 +7315,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="20"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -7275,7 +7326,7 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="20"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -7286,7 +7337,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -7297,7 +7348,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -7308,7 +7359,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -7319,7 +7370,7 @@
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -7330,7 +7381,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -7341,7 +7392,7 @@
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -7352,7 +7403,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="20"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -7363,7 +7414,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -7374,7 +7425,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="20"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -7385,7 +7436,7 @@
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -7396,7 +7447,7 @@
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="20"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -7407,7 +7458,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="20"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -7418,7 +7469,7 @@
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -7429,7 +7480,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="20"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -7440,7 +7491,7 @@
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="20"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -7451,7 +7502,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="20"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -7462,7 +7513,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="20"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -7473,7 +7524,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="20"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -7484,7 +7535,7 @@
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="20"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -7495,7 +7546,7 @@
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="20"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -7506,7 +7557,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="20"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -7517,7 +7568,7 @@
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="20"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -7528,7 +7579,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="20"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -7539,7 +7590,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="20"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -7550,7 +7601,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="20"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -7561,7 +7612,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="20"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -7572,7 +7623,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="20"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -7583,7 +7634,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="20"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -7594,7 +7645,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="20"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -7605,7 +7656,7 @@
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="20"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -7616,7 +7667,7 @@
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="20"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -7627,7 +7678,7 @@
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="20"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -7638,7 +7689,7 @@
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="20"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -7649,7 +7700,7 @@
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="20"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -7660,7 +7711,7 @@
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="20"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -7671,7 +7722,7 @@
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="20"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -7682,7 +7733,7 @@
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="20"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -7693,7 +7744,7 @@
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="20"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -7704,7 +7755,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="20"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -7715,7 +7766,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="20"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -7726,205 +7777,205 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D119" s="1" t="str">
         <f t="shared" ref="D119:D152" si="7">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D120" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D121" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D122" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D123" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D124" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D125" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D126" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D127" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D128" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D132" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D133" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D134" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D135" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D136" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D137" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D138" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D139" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D140" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D141" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D142" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D143" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D144" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D145" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D146" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D147" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D148" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D149" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D150" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D151" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D152" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7940,21 +7991,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7989,10 +8041,10 @@
         <v>299</v>
       </c>
       <c r="L1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8021,10 +8073,10 @@
         <v>300</v>
       </c>
       <c r="L2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>183</v>
       </c>
@@ -8064,7 +8116,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>186</v>
       </c>
@@ -8079,9 +8131,12 @@
         <f t="shared" ref="D4" si="2">REPLACE(C4, 1, 2, "")</f>
         <v>Button</v>
       </c>
+      <c r="E4" t="s">
+        <v>341</v>
+      </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F32" si="3">SUBSTITUTE(E4,"_","-")</f>
-        <v/>
+        <v>edit-curve-text-32x32</v>
       </c>
       <c r="G4" t="s">
         <v>187</v>
@@ -8101,7 +8156,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>188</v>
       </c>
@@ -8142,7 +8197,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>191</v>
       </c>
@@ -8182,7 +8237,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>193</v>
       </c>
@@ -8222,7 +8277,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>195</v>
       </c>
@@ -8262,7 +8317,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>197</v>
       </c>
@@ -8303,7 +8358,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>200</v>
       </c>
@@ -8319,11 +8374,11 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
-        <v>curve-splice-16x16</v>
+        <v>cureve-splice-16x16</v>
       </c>
       <c r="G10" t="s">
         <v>201</v>
@@ -8343,7 +8398,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>202</v>
       </c>
@@ -8359,7 +8414,7 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
@@ -8383,7 +8438,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -8399,7 +8454,7 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
@@ -8423,7 +8478,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>205</v>
       </c>
@@ -8463,7 +8518,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>208</v>
       </c>
@@ -8503,7 +8558,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>211</v>
       </c>
@@ -8543,7 +8598,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>214</v>
       </c>
@@ -8559,11 +8614,11 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
-        <v>project-new-16x16</v>
+        <v>curve-convolution-16x16</v>
       </c>
       <c r="G16" t="s">
         <v>215</v>
@@ -8583,7 +8638,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>216</v>
       </c>
@@ -8599,11 +8654,11 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
-        <v>project-new-16x16</v>
+        <v>curve-deconvolution-16x16</v>
       </c>
       <c r="G17" t="s">
         <v>217</v>
@@ -8623,7 +8678,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>218</v>
       </c>
@@ -8663,7 +8718,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>221</v>
       </c>
@@ -8703,7 +8758,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>224</v>
       </c>
@@ -8743,7 +8798,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>227</v>
       </c>
@@ -8783,7 +8838,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>230</v>
       </c>
@@ -8799,11 +8854,11 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
-        <v>project-new-16x16</v>
+        <v>formation-resistivity-16x16</v>
       </c>
       <c r="G22" t="s">
         <v>231</v>
@@ -8823,7 +8878,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>232</v>
       </c>
@@ -8839,11 +8894,11 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
-        <v>project-new-16x16</v>
+        <v>badhole-coal-salt-16x16</v>
       </c>
       <c r="G23" t="s">
         <v>233</v>
@@ -8863,7 +8918,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>61</v>
       </c>
@@ -8896,10 +8951,10 @@
         <v>300</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>235</v>
       </c>
@@ -8915,7 +8970,7 @@
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="3"/>
@@ -8939,7 +8994,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>86</v>
       </c>
@@ -8955,7 +9010,7 @@
         <v>Button</v>
       </c>
       <c r="E26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="3"/>
@@ -8979,7 +9034,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>237</v>
       </c>
@@ -8995,11 +9050,11 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="3"/>
-        <v>project-new-16x16</v>
+        <v>python-program-16x16</v>
       </c>
       <c r="G27" t="s">
         <v>238</v>
@@ -9019,7 +9074,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>239</v>
       </c>
@@ -9053,10 +9108,10 @@
         <v>300</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>241</v>
       </c>
@@ -9072,7 +9127,7 @@
         <v>Button</v>
       </c>
       <c r="E29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="3"/>
@@ -9096,7 +9151,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>243</v>
       </c>
@@ -9112,11 +9167,11 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="3"/>
-        <v>project-new-16x16</v>
+        <v>pca-analysis-16x16</v>
       </c>
       <c r="G30" t="s">
         <v>244</v>
@@ -9136,7 +9191,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>245</v>
       </c>
@@ -9152,7 +9207,7 @@
         <v>Button</v>
       </c>
       <c r="E31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="3"/>
@@ -9176,7 +9231,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>247</v>
       </c>
@@ -9192,7 +9247,7 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="3"/>
@@ -9216,7 +9271,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -9229,7 +9284,7 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -9242,7 +9297,7 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -9255,7 +9310,7 @@
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -9268,7 +9323,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -9281,7 +9336,7 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -9294,7 +9349,7 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -9307,7 +9362,7 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -9320,7 +9375,7 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -9333,7 +9388,7 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -9346,7 +9401,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -9359,7 +9414,7 @@
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -9372,7 +9427,7 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -9385,7 +9440,7 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -9398,7 +9453,7 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -9411,7 +9466,7 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -9424,7 +9479,7 @@
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -9437,7 +9492,7 @@
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -9450,7 +9505,7 @@
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -9463,7 +9518,7 @@
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -9476,7 +9531,7 @@
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -9489,7 +9544,7 @@
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -9502,7 +9557,7 @@
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -9515,7 +9570,7 @@
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -9528,7 +9583,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -9541,7 +9596,7 @@
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -9554,7 +9609,7 @@
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -9567,7 +9622,7 @@
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -9580,7 +9635,7 @@
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -9593,7 +9648,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -9606,7 +9661,7 @@
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -9619,7 +9674,7 @@
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -9632,7 +9687,7 @@
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -9645,7 +9700,7 @@
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -9668,21 +9723,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9717,10 +9772,10 @@
         <v>299</v>
       </c>
       <c r="L1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -9749,10 +9804,10 @@
         <v>300</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -9792,7 +9847,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -9832,7 +9887,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -9872,7 +9927,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -9888,7 +9943,7 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -9912,7 +9967,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -9928,7 +9983,7 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -9952,7 +10007,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -9968,11 +10023,11 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>project-new-16x16</v>
+        <v>multi-mineral-solver-16x16</v>
       </c>
       <c r="G8" t="s">
         <v>257</v>
@@ -9992,7 +10047,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1.7</v>
       </c>
@@ -10008,7 +10063,7 @@
         <v>Button</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -10032,7 +10087,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>1.8</v>
       </c>
@@ -10048,7 +10103,7 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -10072,7 +10127,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1.9</v>
       </c>
@@ -10088,7 +10143,7 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -10112,7 +10167,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>216</v>
       </c>
@@ -10128,7 +10183,7 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -10152,7 +10207,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>218</v>
       </c>
@@ -10168,7 +10223,7 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -10192,7 +10247,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>221</v>
       </c>
@@ -10208,7 +10263,7 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -10232,7 +10287,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>224</v>
       </c>
@@ -10248,7 +10303,7 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -10272,7 +10327,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>227</v>
       </c>
@@ -10312,7 +10367,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>230</v>
       </c>
@@ -10328,7 +10383,7 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -10352,7 +10407,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>232</v>
       </c>
@@ -10392,7 +10447,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>268</v>
       </c>
@@ -10432,7 +10487,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33">
         <v>2</v>
       </c>
@@ -10465,10 +10520,10 @@
         <v>300</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>2.1</v>
       </c>
@@ -10484,7 +10539,7 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -10508,7 +10563,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -10524,11 +10579,11 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>project-new-16x16</v>
+        <v>clay-volume-16x16</v>
       </c>
       <c r="G22" t="s">
         <v>272</v>
@@ -10548,7 +10603,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -10588,7 +10643,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>2.4</v>
       </c>
@@ -10628,19 +10683,19 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -10658,7 +10713,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -10676,7 +10731,7 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="21"/>
@@ -10694,7 +10749,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="21"/>
@@ -10712,7 +10767,7 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="21"/>
@@ -10730,7 +10785,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="21"/>
@@ -10748,7 +10803,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="21"/>
@@ -10766,7 +10821,7 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="24"/>
       <c r="C34" s="21"/>
@@ -10784,7 +10839,7 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="24"/>
       <c r="C35" s="21"/>
@@ -10802,7 +10857,7 @@
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="24"/>
       <c r="C36" s="21"/>
@@ -10820,7 +10875,7 @@
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="24"/>
       <c r="C37" s="21"/>
@@ -10835,7 +10890,7 @@
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
       <c r="B38" s="24"/>
       <c r="C38" s="21"/>
@@ -10850,7 +10905,7 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
       <c r="B39" s="24"/>
       <c r="C39" s="21"/>
@@ -10865,7 +10920,7 @@
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
       <c r="B40" s="24"/>
       <c r="C40" s="21"/>
@@ -10880,7 +10935,7 @@
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="24"/>
       <c r="C41" s="21"/>
@@ -10895,7 +10950,7 @@
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="24"/>
       <c r="C42" s="21"/>
@@ -10910,7 +10965,7 @@
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="24"/>
       <c r="C43" s="21"/>
@@ -10925,7 +10980,7 @@
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="24"/>
       <c r="C44" s="21"/>
@@ -10940,7 +10995,7 @@
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
       <c r="B45" s="24"/>
       <c r="C45" s="21"/>
@@ -10955,7 +11010,7 @@
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="24"/>
       <c r="C46" s="22"/>
@@ -10970,7 +11025,7 @@
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
       <c r="B47" s="24"/>
       <c r="C47" s="21"/>
@@ -10985,7 +11040,7 @@
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
@@ -11000,7 +11055,7 @@
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="24"/>
       <c r="C49" s="21"/>
@@ -11015,7 +11070,7 @@
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
       <c r="B50" s="24"/>
       <c r="C50" s="21"/>
@@ -11030,7 +11085,7 @@
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -11055,16 +11110,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11099,10 +11156,10 @@
         <v>299</v>
       </c>
       <c r="L1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -11131,7 +11188,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>183</v>
       </c>
@@ -11167,10 +11224,10 @@
         <v>300</v>
       </c>
       <c r="L3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -11206,10 +11263,10 @@
         <v>300</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -11224,9 +11281,12 @@
         <f t="shared" ref="D5" si="4">REPLACE(C5, 1, 2, "")</f>
         <v>Button</v>
       </c>
+      <c r="E5" t="s">
+        <v>338</v>
+      </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>unlock1-32x32</v>
       </c>
       <c r="G5" t="s">
         <v>280</v>
@@ -11242,10 +11302,10 @@
         <v>300</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -11257,7 +11317,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11269,7 +11329,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -11281,7 +11341,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="21"/>
@@ -11293,7 +11353,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="21"/>
@@ -11305,7 +11365,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="21"/>
@@ -11317,7 +11377,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="21"/>
@@ -11329,7 +11389,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
@@ -11354,13 +11414,13 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11395,7 +11455,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -11424,7 +11484,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -11456,7 +11516,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -11488,7 +11548,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -11520,7 +11580,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2.1</v>
       </c>
@@ -11549,7 +11609,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11562,7 +11622,7 @@
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -11575,7 +11635,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -11588,7 +11648,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -11601,7 +11661,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -11614,7 +11674,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -11627,7 +11687,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -11640,7 +11700,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -11653,7 +11713,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/revoltech/wi-angular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents_local\Workspace\WellInsight\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="993" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1032,9 +1032,6 @@
     <t>height-auto</t>
   </si>
   <si>
-    <t>project_new_16x16</t>
-  </si>
-  <si>
     <t>width-290 width-868</t>
   </si>
   <si>
@@ -1096,12 +1093,15 @@
   </si>
   <si>
     <t>cureve_splice_16x16</t>
+  </si>
+  <si>
+    <t>export_well_top_16x16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1367,6 +1367,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1634,19 +1637,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1706,9 +1709,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="RibbonBlock!A1" display="RibbonBlock"/>
-    <hyperlink ref="B3" location="ExplorerBlock!A1" display="ExplorerBlock"/>
-    <hyperlink ref="B4" location="WorkingBlock!A1" display="WorkingBlock"/>
+    <hyperlink ref="B2" location="RibbonBlock!A1" display="RibbonBlock" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="ExplorerBlock!A1" display="ExplorerBlock" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="WorkingBlock!A1" display="WorkingBlock" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1716,22 +1719,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2.1</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -2015,7 +2018,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -2026,7 +2029,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2037,7 +2040,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="21"/>
@@ -2048,7 +2051,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="21"/>
@@ -2059,7 +2062,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2070,7 +2073,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="22"/>
@@ -2081,7 +2084,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2092,7 +2095,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2103,7 +2106,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -2114,7 +2117,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2125,7 +2128,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -2136,7 +2139,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2154,21 +2157,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>290</v>
       </c>
@@ -2179,14 +2182,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -2198,7 +2201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -2210,7 +2213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -2225,7 +2228,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -2237,7 +2240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
@@ -2252,14 +2255,14 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
@@ -2268,7 +2271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>WellHeaderModal</v>
@@ -2277,7 +2280,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>DepthConversionModal</v>
@@ -2286,7 +2289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CurveAliasModal</v>
@@ -2295,7 +2298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>FamilyEditModal</v>
@@ -2304,7 +2307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Input/OutputModal</v>
@@ -2313,7 +2316,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIModal</v>
@@ -2322,7 +2325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>
@@ -2331,7 +2334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASModal</v>
@@ -2340,7 +2343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASModal</v>
@@ -2349,7 +2352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderModal</v>
@@ -2358,7 +2361,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2367,7 +2370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderModal</v>
@@ -2376,7 +2379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopModal</v>
@@ -2385,7 +2388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIModal</v>
@@ -2394,7 +2397,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIModal</v>
@@ -2403,7 +2406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASModal</v>
@@ -2412,7 +2415,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASModal</v>
@@ -2421,7 +2424,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataModal</v>
@@ -2430,7 +2433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2439,7 +2442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderModal</v>
@@ -2448,7 +2451,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopModal</v>
@@ -2457,14 +2460,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A65" si="1">SUBSTITUTE(CONCATENATE(B32,"Modal")," ","")</f>
         <v>BlankLogplotModal</v>
@@ -2473,7 +2476,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>TrippleComboModal</v>
@@ -2482,7 +2485,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>DensityNeutronModal</v>
@@ -2491,7 +2494,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>ResistivitySonicModal</v>
@@ -2500,7 +2503,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>3TracksBlankModal</v>
@@ -2509,7 +2512,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>InputCurveModal</v>
@@ -2518,7 +2521,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>Litho+Syn.CurveModal</v>
@@ -2527,7 +2530,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>Syn.CurveModal</v>
@@ -2536,7 +2539,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>CrossPlotModal</v>
@@ -2545,7 +2548,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>BlankCrossPlotModal</v>
@@ -2554,7 +2557,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>SonicPHI_TOTALModal</v>
@@ -2563,7 +2566,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>NeutronDensityModal</v>
@@ -2572,7 +2575,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>NeutronGammaModal</v>
@@ -2581,7 +2584,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>SonicGammaModal</v>
@@ -2590,7 +2593,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronSonicModal</v>
@@ -2599,7 +2602,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>DenityGammaModal</v>
@@ -2608,7 +2611,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronRtModal</v>
@@ -2617,7 +2620,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>DensitySonicModal</v>
@@ -2626,7 +2629,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>DensityRtModal</v>
@@ -2635,7 +2638,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>SonicDensityModal</v>
@@ -2644,7 +2647,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>SonicRtModal</v>
@@ -2653,7 +2656,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>RtRx0Modal</v>
@@ -2662,7 +2665,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>PickettModal</v>
@@ -2671,7 +2674,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>HistogramModal</v>
@@ -2680,7 +2683,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>BlankHistogramModal</v>
@@ -2689,7 +2692,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>PHI_TOTALModal</v>
@@ -2698,7 +2701,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>GammaRayModal</v>
@@ -2707,7 +2710,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>NeutronModal</v>
@@ -2716,7 +2719,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>DensityModal</v>
@@ -2725,7 +2728,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>HistogramMoreModal</v>
@@ -2734,7 +2737,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>SonicModal</v>
@@ -2743,7 +2746,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>SallowResistivityModal</v>
@@ -2752,7 +2755,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>DeepResistivityModal</v>
@@ -2761,7 +2764,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>MSFLHistogramModal</v>
@@ -2770,14 +2773,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">SUBSTITUTE(CONCATENATE(B67,"Modal")," ","")</f>
         <v>AddCurveModal</v>
@@ -2786,7 +2789,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveEditModal</v>
@@ -2795,7 +2798,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveBaselineShiftModal</v>
@@ -2804,7 +2807,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurveModal</v>
@@ -2813,7 +2816,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurvesModal</v>
@@ -2822,7 +2825,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveSplitModal</v>
@@ -2831,7 +2834,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>MergeCurvesModal</v>
@@ -2840,7 +2843,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>CurvesHeaderModal</v>
@@ -2849,7 +2852,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>FillDataGapsModal</v>
@@ -2858,7 +2861,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>CurveFilterModal</v>
@@ -2867,7 +2870,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>CurveConvolutionModal</v>
@@ -2876,7 +2879,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>CurveDeconvolutionModal</v>
@@ -2885,7 +2888,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>CurveDerivativeModal</v>
@@ -2894,7 +2897,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>CurveRescaleModal</v>
@@ -2903,7 +2906,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>CurveComrarisonModal</v>
@@ -2912,7 +2915,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>CurveAverageModal</v>
@@ -2921,7 +2924,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FormationResistivityModal</v>
@@ -2930,7 +2933,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Badhole/Coal/SaltModal</v>
@@ -2939,7 +2942,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2948,7 +2951,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2957,7 +2960,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>UserProgramModal</v>
@@ -2966,7 +2969,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>PythonProgramModal</v>
@@ -2975,7 +2978,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>CalculationModal</v>
@@ -2984,7 +2987,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>TVDConversionModal</v>
@@ -2993,7 +2996,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>PCAAnalysisModal</v>
@@ -3002,7 +3005,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Multi-LinearRegressionModal</v>
@@ -3011,7 +3014,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>NeuralNetworkModal</v>
@@ -3020,14 +3023,14 @@
         <v>248</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" ref="A95:A116" si="3">SUBSTITUTE(CONCATENATE(B95,"Modal")," ","")</f>
         <v>EditZonesModal</v>
@@ -3036,7 +3039,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
         <v>InputCurvesModal</v>
@@ -3045,7 +3048,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
         <v>InputFuidModal</v>
@@ -3054,7 +3057,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
         <v>BuildMineralParametersModal</v>
@@ -3063,7 +3066,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
         <v>InputMineralZonesModal</v>
@@ -3072,7 +3075,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
         <v>Multi-MineralSolverModal</v>
@@ -3081,7 +3084,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
         <v>ClayMineralsVolumeModal</v>
@@ -3090,7 +3093,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
         <v>Fracture-VugPorosityModal</v>
@@ -3099,7 +3102,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
         <v>OpenPorosityModal</v>
@@ -3108,7 +3111,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>SecondaryPorosityModal</v>
@@ -3117,7 +3120,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
         <v>FracturePorosityModal</v>
@@ -3126,7 +3129,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
         <v>FilteringFractureModal</v>
@@ -3135,7 +3138,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
         <v>Micro&amp;MacroPorosityModal</v>
@@ -3144,7 +3147,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
         <v>WaterSaturationModal</v>
@@ -3153,7 +3156,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
         <v>PermeabilityModal</v>
@@ -3162,7 +3165,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3171,7 +3174,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
         <v>FilteringModal</v>
@@ -3180,7 +3183,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
         <v>ClasticModal</v>
@@ -3189,7 +3192,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
         <v>BasicAnalysisModal</v>
@@ -3198,7 +3201,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
         <v>ClayVolumeModal</v>
@@ -3207,7 +3210,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
         <v>Porosity&amp;WaterSaturationModal</v>
@@ -3216,7 +3219,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3225,14 +3228,14 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>SUBSTITUTE(CONCATENATE(B118,"Modal")," ","")</f>
         <v>AboutModal</v>
@@ -3241,7 +3244,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>SUBSTITUTE(CONCATENATE(B119,"Modal")," ","")</f>
         <v>UnlockModal</v>
@@ -3257,16 +3260,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -3292,7 +3295,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
@@ -3347,7 +3350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1.6</v>
       </c>
@@ -3360,12 +3363,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="ProjectTab!A1" display="ProjectTab"/>
-    <hyperlink ref="B4" location="WellTab!A1" display="WellTab"/>
-    <hyperlink ref="B5" location="DataAnalysisTab!A1" display="DataAnalysisTab"/>
-    <hyperlink ref="B6" location="DataProcessingTab!A1" display="DataProcessingTab"/>
-    <hyperlink ref="B7" location="PetrophysicsTab!A1" display="PetrophysicsTab"/>
-    <hyperlink ref="B8" location="HelpTab!A1" display="HelpTab"/>
+    <hyperlink ref="B3" location="ProjectTab!A1" display="ProjectTab" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" location="WellTab!A1" display="WellTab" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" location="DataAnalysisTab!A1" display="DataAnalysisTab" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B6" location="DataProcessingTab!A1" display="DataProcessingTab" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" location="PetrophysicsTab!A1" display="PetrophysicsTab" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B8" location="HelpTab!A1" display="HelpTab" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3373,27 +3376,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3432,7 +3435,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3462,7 +3465,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -3503,7 +3506,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -3544,7 +3547,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -3585,7 +3588,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -3626,7 +3629,7 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -3668,7 +3671,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -3708,7 +3711,7 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -3748,7 +3751,7 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -3788,7 +3791,7 @@
       </c>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2.1</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2.2000000000000002</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2.2999999999999998</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>3</v>
       </c>
@@ -3944,7 +3947,7 @@
       </c>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>3.1</v>
       </c>
@@ -3991,26 +3994,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>Button</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
@@ -4237,7 +4240,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>Button</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
@@ -4277,7 +4280,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2.1</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>65</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>68</v>
       </c>
@@ -4431,7 +4434,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>78</v>
       </c>
@@ -4587,7 +4590,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>81</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>84</v>
       </c>
@@ -4665,7 +4668,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>86</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>94</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>97</v>
       </c>
@@ -4862,7 +4865,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>99</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>101</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -4995,11 +4998,11 @@
         <v>Button</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
-        <v>project-new-16x16</v>
+        <v>export-well-top-16x16</v>
       </c>
       <c r="G26" t="s">
         <v>105</v>
@@ -5018,7 +5021,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -5029,7 +5032,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -5040,7 +5043,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="24"/>
       <c r="C31" s="21"/>
@@ -5051,7 +5054,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="21"/>
@@ -5062,7 +5065,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="21"/>
@@ -5073,7 +5076,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="21"/>
@@ -5084,7 +5087,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="21"/>
@@ -5095,7 +5098,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="21"/>
@@ -5106,7 +5109,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="21"/>
@@ -5117,7 +5120,7 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="21"/>
@@ -5128,7 +5131,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="21"/>
@@ -5139,7 +5142,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="21"/>
@@ -5150,7 +5153,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="21"/>
@@ -5161,7 +5164,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="21"/>
@@ -5172,7 +5175,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="21"/>
@@ -5183,7 +5186,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="21"/>
@@ -5194,7 +5197,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="21"/>
@@ -5205,7 +5208,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="21"/>
@@ -5216,7 +5219,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="21"/>
@@ -5227,7 +5230,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
@@ -5238,7 +5241,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="21"/>
@@ -5249,7 +5252,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="21"/>
@@ -5260,7 +5263,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="21"/>
@@ -5271,7 +5274,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="21"/>
@@ -5282,7 +5285,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="21"/>
@@ -5293,7 +5296,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="21"/>
@@ -5304,7 +5307,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="21"/>
@@ -5315,7 +5318,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -5326,7 +5329,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -5337,7 +5340,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -5348,7 +5351,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -5359,7 +5362,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -5377,24 +5380,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -5461,7 +5464,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -5541,7 +5544,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -5621,7 +5624,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1.5</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -5678,7 +5681,7 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
@@ -5701,7 +5704,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -5740,7 +5743,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>119</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>121</v>
       </c>
@@ -5818,7 +5821,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>123</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -5895,7 +5898,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2.1</v>
       </c>
@@ -5935,7 +5938,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -6015,7 +6018,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2.4</v>
       </c>
@@ -6055,7 +6058,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2.5</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2.6</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
@@ -6175,7 +6178,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>137</v>
       </c>
@@ -6214,7 +6217,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>139</v>
       </c>
@@ -6253,7 +6256,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>142</v>
       </c>
@@ -6292,7 +6295,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>145</v>
       </c>
@@ -6331,7 +6334,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>148</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>151</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>154</v>
       </c>
@@ -6448,7 +6451,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>157</v>
       </c>
@@ -6487,7 +6490,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>3</v>
       </c>
@@ -6522,7 +6525,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>3.1</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>3.2</v>
       </c>
@@ -6602,7 +6605,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>3.3</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>3.4</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>3.5</v>
       </c>
@@ -6722,7 +6725,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>3.6</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>170</v>
       </c>
@@ -6802,7 +6805,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>173</v>
       </c>
@@ -6841,7 +6844,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>176</v>
       </c>
@@ -6880,7 +6883,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>179</v>
       </c>
@@ -6919,7 +6922,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -6930,7 +6933,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -6941,7 +6944,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -6952,7 +6955,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -6963,7 +6966,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -6974,7 +6977,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -6985,7 +6988,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -6996,7 +6999,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -7007,7 +7010,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -7018,7 +7021,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -7029,7 +7032,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -7040,7 +7043,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -7051,7 +7054,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -7062,7 +7065,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -7073,7 +7076,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -7084,7 +7087,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -7095,7 +7098,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -7106,7 +7109,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -7117,7 +7120,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -7128,7 +7131,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -7139,7 +7142,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -7150,7 +7153,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -7161,7 +7164,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -7172,7 +7175,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -7183,7 +7186,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -7194,7 +7197,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -7205,7 +7208,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -7216,7 +7219,7 @@
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -7227,7 +7230,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -7238,7 +7241,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -7249,7 +7252,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -7260,7 +7263,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -7271,7 +7274,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -7282,7 +7285,7 @@
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -7293,7 +7296,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -7304,7 +7307,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -7315,7 +7318,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -7326,7 +7329,7 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -7337,7 +7340,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -7348,7 +7351,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -7359,7 +7362,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -7370,7 +7373,7 @@
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -7381,7 +7384,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -7392,7 +7395,7 @@
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -7403,7 +7406,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -7414,7 +7417,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -7425,7 +7428,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -7436,7 +7439,7 @@
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -7447,7 +7450,7 @@
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -7458,7 +7461,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -7469,7 +7472,7 @@
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -7480,7 +7483,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -7491,7 +7494,7 @@
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -7502,7 +7505,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -7513,7 +7516,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -7524,7 +7527,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -7535,7 +7538,7 @@
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -7546,7 +7549,7 @@
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -7557,7 +7560,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -7568,7 +7571,7 @@
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -7579,7 +7582,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -7590,7 +7593,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -7601,7 +7604,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -7612,7 +7615,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="20"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -7623,7 +7626,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="20"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -7634,7 +7637,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -7645,7 +7648,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="20"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -7656,7 +7659,7 @@
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="20"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -7667,7 +7670,7 @@
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="20"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -7678,7 +7681,7 @@
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="20"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -7689,7 +7692,7 @@
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="20"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -7700,7 +7703,7 @@
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="20"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -7711,7 +7714,7 @@
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="20"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -7722,7 +7725,7 @@
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -7733,7 +7736,7 @@
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -7744,7 +7747,7 @@
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="20"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -7755,7 +7758,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="20"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -7766,7 +7769,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -7777,205 +7780,205 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D119" s="1" t="str">
         <f t="shared" ref="D119:D152" si="7">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D120" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D121" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D122" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D123" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D124" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D125" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D126" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D127" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D128" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7988,25 +7991,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8044,7 +8047,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8073,10 +8076,10 @@
         <v>300</v>
       </c>
       <c r="L2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>183</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>186</v>
       </c>
@@ -8132,7 +8135,7 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F32" si="3">SUBSTITUTE(E4,"_","-")</f>
@@ -8156,7 +8159,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>188</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>191</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>193</v>
       </c>
@@ -8277,7 +8280,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>195</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>197</v>
       </c>
@@ -8358,7 +8361,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>200</v>
       </c>
@@ -8374,7 +8377,7 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
@@ -8398,7 +8401,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>202</v>
       </c>
@@ -8438,7 +8441,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -8478,7 +8481,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>205</v>
       </c>
@@ -8518,7 +8521,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>208</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>211</v>
       </c>
@@ -8598,7 +8601,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>214</v>
       </c>
@@ -8614,7 +8617,7 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -8638,7 +8641,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>216</v>
       </c>
@@ -8654,7 +8657,7 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
@@ -8678,7 +8681,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>218</v>
       </c>
@@ -8718,7 +8721,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>221</v>
       </c>
@@ -8758,7 +8761,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>224</v>
       </c>
@@ -8798,7 +8801,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>227</v>
       </c>
@@ -8838,7 +8841,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>230</v>
       </c>
@@ -8854,7 +8857,7 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
@@ -8878,7 +8881,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>232</v>
       </c>
@@ -8894,7 +8897,7 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
@@ -8918,7 +8921,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>61</v>
       </c>
@@ -8951,10 +8954,10 @@
         <v>300</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>235</v>
       </c>
@@ -8994,7 +8997,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>86</v>
       </c>
@@ -9034,7 +9037,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>237</v>
       </c>
@@ -9050,7 +9053,7 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="3"/>
@@ -9074,7 +9077,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>239</v>
       </c>
@@ -9108,10 +9111,10 @@
         <v>300</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>241</v>
       </c>
@@ -9127,7 +9130,7 @@
         <v>Button</v>
       </c>
       <c r="E29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="3"/>
@@ -9151,7 +9154,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>243</v>
       </c>
@@ -9167,7 +9170,7 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="3"/>
@@ -9191,7 +9194,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>245</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>247</v>
       </c>
@@ -9247,7 +9250,7 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="3"/>
@@ -9271,7 +9274,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -9284,7 +9287,7 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -9297,7 +9300,7 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -9310,7 +9313,7 @@
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -9323,7 +9326,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -9336,7 +9339,7 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -9349,7 +9352,7 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -9362,7 +9365,7 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -9375,7 +9378,7 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -9388,7 +9391,7 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -9401,7 +9404,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -9414,7 +9417,7 @@
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -9427,7 +9430,7 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -9440,7 +9443,7 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -9453,7 +9456,7 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -9466,7 +9469,7 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -9479,7 +9482,7 @@
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -9492,7 +9495,7 @@
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -9505,7 +9508,7 @@
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -9518,7 +9521,7 @@
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -9531,7 +9534,7 @@
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -9544,7 +9547,7 @@
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -9557,7 +9560,7 @@
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -9570,7 +9573,7 @@
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -9583,7 +9586,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -9596,7 +9599,7 @@
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -9609,7 +9612,7 @@
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -9622,7 +9625,7 @@
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -9635,7 +9638,7 @@
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -9648,7 +9651,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -9661,7 +9664,7 @@
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -9674,7 +9677,7 @@
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -9687,7 +9690,7 @@
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -9700,7 +9703,7 @@
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -9720,24 +9723,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9775,7 +9778,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -9804,10 +9807,10 @@
         <v>300</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -9847,7 +9850,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -9887,7 +9890,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -9927,7 +9930,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -9967,7 +9970,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -10007,7 +10010,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -10023,7 +10026,7 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -10047,7 +10050,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1.7</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1.8</v>
       </c>
@@ -10127,7 +10130,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1.9</v>
       </c>
@@ -10167,7 +10170,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>216</v>
       </c>
@@ -10207,7 +10210,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>218</v>
       </c>
@@ -10247,7 +10250,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>221</v>
       </c>
@@ -10287,7 +10290,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>224</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>227</v>
       </c>
@@ -10367,7 +10370,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>230</v>
       </c>
@@ -10407,7 +10410,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>232</v>
       </c>
@@ -10447,7 +10450,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>268</v>
       </c>
@@ -10487,7 +10490,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>2</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2.1</v>
       </c>
@@ -10539,7 +10542,7 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -10563,7 +10566,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -10579,7 +10582,7 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -10603,7 +10606,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>2.4</v>
       </c>
@@ -10683,19 +10686,19 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -10713,7 +10716,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -10731,7 +10734,7 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="21"/>
@@ -10749,7 +10752,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="21"/>
@@ -10767,7 +10770,7 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="21"/>
@@ -10785,7 +10788,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="21"/>
@@ -10803,7 +10806,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="21"/>
@@ -10821,7 +10824,7 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="24"/>
       <c r="C34" s="21"/>
@@ -10839,7 +10842,7 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="24"/>
       <c r="C35" s="21"/>
@@ -10857,7 +10860,7 @@
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="24"/>
       <c r="C36" s="21"/>
@@ -10875,7 +10878,7 @@
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="24"/>
       <c r="C37" s="21"/>
@@ -10890,7 +10893,7 @@
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="24"/>
       <c r="C38" s="21"/>
@@ -10905,7 +10908,7 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="24"/>
       <c r="C39" s="21"/>
@@ -10920,7 +10923,7 @@
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="24"/>
       <c r="C40" s="21"/>
@@ -10935,7 +10938,7 @@
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="24"/>
       <c r="C41" s="21"/>
@@ -10950,7 +10953,7 @@
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="24"/>
       <c r="C42" s="21"/>
@@ -10965,7 +10968,7 @@
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="24"/>
       <c r="C43" s="21"/>
@@ -10980,7 +10983,7 @@
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="24"/>
       <c r="C44" s="21"/>
@@ -10995,7 +10998,7 @@
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="24"/>
       <c r="C45" s="21"/>
@@ -11010,7 +11013,7 @@
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="24"/>
       <c r="C46" s="22"/>
@@ -11025,7 +11028,7 @@
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="24"/>
       <c r="C47" s="21"/>
@@ -11040,7 +11043,7 @@
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
@@ -11055,7 +11058,7 @@
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="24"/>
       <c r="C49" s="21"/>
@@ -11070,7 +11073,7 @@
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="24"/>
       <c r="C50" s="21"/>
@@ -11085,7 +11088,7 @@
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -11107,21 +11110,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11159,7 +11162,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -11188,7 +11191,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>183</v>
       </c>
@@ -11227,7 +11230,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -11266,7 +11269,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -11282,7 +11285,7 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
@@ -11305,7 +11308,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -11317,7 +11320,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11329,7 +11332,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -11341,7 +11344,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="21"/>
@@ -11353,7 +11356,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="21"/>
@@ -11365,7 +11368,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="21"/>
@@ -11377,7 +11380,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="21"/>
@@ -11389,7 +11392,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
@@ -11407,20 +11410,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11455,7 +11458,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -11484,7 +11487,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -11516,7 +11519,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -11548,7 +11551,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -11580,7 +11583,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2.1</v>
       </c>
@@ -11609,7 +11612,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11622,7 +11625,7 @@
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -11635,7 +11638,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -11648,7 +11651,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -11661,7 +11664,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -11674,7 +11677,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -11687,7 +11690,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -11700,7 +11703,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -11713,7 +11716,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents_local\Workspace\WellInsight\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Github\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="352">
   <si>
     <t>Code</t>
   </si>
@@ -1101,7 +1101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1294,8 +1294,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1637,7 +1665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1709,9 +1737,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="RibbonBlock!A1" display="RibbonBlock" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" location="ExplorerBlock!A1" display="ExplorerBlock" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" location="WorkingBlock!A1" display="WorkingBlock" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" location="RibbonBlock!A1" display="RibbonBlock"/>
+    <hyperlink ref="B3" location="ExplorerBlock!A1" display="ExplorerBlock"/>
+    <hyperlink ref="B4" location="WorkingBlock!A1" display="WorkingBlock"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1719,7 +1747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -2157,7 +2185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3260,7 +3288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3363,12 +3391,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="ProjectTab!A1" display="ProjectTab" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B4" location="WellTab!A1" display="WellTab" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B5" location="DataAnalysisTab!A1" display="DataAnalysisTab" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B6" location="DataProcessingTab!A1" display="DataProcessingTab" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B7" location="PetrophysicsTab!A1" display="PetrophysicsTab" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B8" location="HelpTab!A1" display="HelpTab" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B3" location="ProjectTab!A1" display="ProjectTab"/>
+    <hyperlink ref="B4" location="WellTab!A1" display="WellTab"/>
+    <hyperlink ref="B5" location="DataAnalysisTab!A1" display="DataAnalysisTab"/>
+    <hyperlink ref="B6" location="DataProcessingTab!A1" display="DataProcessingTab"/>
+    <hyperlink ref="B7" location="PetrophysicsTab!A1" display="PetrophysicsTab"/>
+    <hyperlink ref="B8" location="HelpTab!A1" display="HelpTab"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3376,7 +3404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
@@ -3994,10 +4022,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -5380,11 +5408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7991,11 +8019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8235,9 +8263,8 @@
       <c r="K6" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="L6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>fix-btn-sm</v>
+      <c r="L6" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -8275,9 +8302,8 @@
       <c r="K7" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="L7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>fix-btn-sm</v>
+      <c r="L7" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -8315,9 +8341,8 @@
       <c r="K8" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="L8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>fix-btn-sm</v>
+      <c r="L8" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -8396,9 +8421,8 @@
       <c r="K10" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="L10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>fix-btn-sm</v>
+      <c r="L10" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -8436,9 +8460,8 @@
       <c r="K11" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="L11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>fix-btn-sm</v>
+      <c r="L11" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -9723,7 +9746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
@@ -11110,7 +11133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
@@ -11410,7 +11433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Github\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AppServ\www\hoangbd_com\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="993" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="352">
   <si>
     <t>Code</t>
   </si>
@@ -558,18 +558,12 @@
     <t>Sonic</t>
   </si>
   <si>
-    <t>histogram_predefine_DT_16x16</t>
-  </si>
-  <si>
     <t>3.6.2</t>
   </si>
   <si>
     <t>Sallow Resistivity</t>
   </si>
   <si>
-    <t>histogram_predefine_LLS_16x16</t>
-  </si>
-  <si>
     <t>3.6.3</t>
   </si>
   <si>
@@ -579,9 +573,6 @@
     <t>histogram_predefine_LLD_16x16</t>
   </si>
   <si>
-    <t>3.6.4</t>
-  </si>
-  <si>
     <t>MSFL Histogram</t>
   </si>
   <si>
@@ -1096,6 +1087,15 @@
   </si>
   <si>
     <t>export_well_top_16x16</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>histogram_predefine_DT_32x32</t>
+  </si>
+  <si>
+    <t>histogram_result_16x16</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1773,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -1788,13 +1788,13 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>WorkingTabs</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>REPLACE(C2, 1, 2, "")</f>
@@ -1815,15 +1815,15 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1842,20 +1842,20 @@
         <v>Toolbar</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
         <v>help-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1867,27 +1867,27 @@
         <v>WorkingSlidingbar</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D9" si="1">REPLACE(C4, 1, 2, "")</f>
         <v>Slidingbar</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F9" si="2">SUBSTITUTE(E4,"_","-")</f>
         <v>info-frp-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1899,7 +1899,7 @@
         <v>WorkflowsTabs</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1916,10 +1916,10 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1943,15 +1943,15 @@
         <v/>
       </c>
       <c r="G6" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="1"/>
@@ -1974,10 +1974,10 @@
         <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2000,10 +2000,10 @@
         <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2024,15 +2024,15 @@
         <v/>
       </c>
       <c r="G9" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2201,13 +2201,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2780,7 +2780,7 @@
         <v>SallowResistivityModal</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +2789,7 @@
         <v>DeepResistivityModal</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2798,12 +2798,12 @@
         <v>MSFLHistogramModal</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2814,7 +2814,7 @@
         <v>AddCurveModal</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>InteractiveCurveEditModal</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2832,7 +2832,7 @@
         <v>InteractiveBaselineShiftModal</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2841,7 +2841,7 @@
         <v>SplitCurveModal</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,7 +2850,7 @@
         <v>SplitCurvesModal</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2859,7 +2859,7 @@
         <v>InteractiveCurveSplitModal</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2868,7 +2868,7 @@
         <v>MergeCurvesModal</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>CurvesHeaderModal</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>FillDataGapsModal</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>CurveFilterModal</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2904,7 +2904,7 @@
         <v>CurveConvolutionModal</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>CurveDeconvolutionModal</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2922,7 +2922,7 @@
         <v>CurveDerivativeModal</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>CurveRescaleModal</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
         <v>CurveComrarisonModal</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2949,7 +2949,7 @@
         <v>CurveAverageModal</v>
       </c>
       <c r="B82" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2958,7 +2958,7 @@
         <v>FormationResistivityModal</v>
       </c>
       <c r="B83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2967,7 +2967,7 @@
         <v>Badhole/Coal/SaltModal</v>
       </c>
       <c r="B84" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2976,7 +2976,7 @@
         <v>UserFormulaModal</v>
       </c>
       <c r="B85" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2985,7 +2985,7 @@
         <v>UserFormulaModal</v>
       </c>
       <c r="B86" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
         <v>UserProgramModal</v>
       </c>
       <c r="B87" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3003,7 +3003,7 @@
         <v>PythonProgramModal</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>CalculationModal</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3021,7 +3021,7 @@
         <v>TVDConversionModal</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,7 +3030,7 @@
         <v>PCAAnalysisModal</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>Multi-LinearRegressionModal</v>
       </c>
       <c r="B92" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3048,7 +3048,7 @@
         <v>NeuralNetworkModal</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
         <v>EditZonesModal</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
         <v>InputCurvesModal</v>
       </c>
       <c r="B96" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
         <v>InputFuidModal</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3091,7 +3091,7 @@
         <v>BuildMineralParametersModal</v>
       </c>
       <c r="B98" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>InputMineralZonesModal</v>
       </c>
       <c r="B99" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>Multi-MineralSolverModal</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3118,7 +3118,7 @@
         <v>ClayMineralsVolumeModal</v>
       </c>
       <c r="B101" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
         <v>Fracture-VugPorosityModal</v>
       </c>
       <c r="B102" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>OpenPorosityModal</v>
       </c>
       <c r="B103" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
         <v>SecondaryPorosityModal</v>
       </c>
       <c r="B104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3154,7 +3154,7 @@
         <v>FracturePorosityModal</v>
       </c>
       <c r="B105" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3163,7 +3163,7 @@
         <v>FilteringFractureModal</v>
       </c>
       <c r="B106" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>Micro&amp;MacroPorosityModal</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>WaterSaturationModal</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3190,7 +3190,7 @@
         <v>PermeabilityModal</v>
       </c>
       <c r="B109" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>CutoffandSummationModal</v>
       </c>
       <c r="B110" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
         <v>FilteringModal</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3217,7 +3217,7 @@
         <v>ClasticModal</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3226,7 +3226,7 @@
         <v>BasicAnalysisModal</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,7 +3235,7 @@
         <v>ClayVolumeModal</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>Porosity&amp;WaterSaturationModal</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3253,7 +3253,7 @@
         <v>CutoffandSummationModal</v>
       </c>
       <c r="B116" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3269,7 +3269,7 @@
         <v>AboutModal</v>
       </c>
       <c r="B118" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3278,7 +3278,7 @@
         <v>UnlockModal</v>
       </c>
       <c r="B119" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3435,10 +3435,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -3450,16 +3450,16 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N1" s="1"/>
     </row>
@@ -3486,10 +3486,10 @@
       <c r="H2" s="3"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N2" s="1"/>
     </row>
@@ -3523,10 +3523,10 @@
         <v/>
       </c>
       <c r="J3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>298</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>301</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L15" si="0">IF(ISNUMBER(SEARCH("16x16",E3)),"fix-button-sm", "height65")</f>
@@ -3564,10 +3564,10 @@
         <v/>
       </c>
       <c r="J4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>298</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>301</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
@@ -3605,10 +3605,10 @@
         <v/>
       </c>
       <c r="J5" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
@@ -3646,10 +3646,10 @@
         <v/>
       </c>
       <c r="J6" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
@@ -3688,10 +3688,10 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
@@ -3729,13 +3729,13 @@
         <v>icon-left</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -3769,13 +3769,13 @@
         <v>icon-left</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N9" s="1"/>
     </row>
@@ -3808,10 +3808,10 @@
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
@@ -3849,10 +3849,10 @@
         <v/>
       </c>
       <c r="J11" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -3889,10 +3889,10 @@
         <v/>
       </c>
       <c r="J12" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -3929,10 +3929,10 @@
         <v/>
       </c>
       <c r="J13" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -3968,10 +3968,10 @@
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L14" s="31"/>
     </row>
@@ -4005,10 +4005,10 @@
         <v/>
       </c>
       <c r="J15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K15" s="29" t="s">
         <v>298</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>301</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -4052,10 +4052,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -4067,16 +4067,16 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4102,10 +4102,10 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4138,10 +4138,10 @@
         <v/>
       </c>
       <c r="J3" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L3" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E3)),"fix-btn-sm", "height65")</f>
@@ -4178,10 +4178,10 @@
         <v/>
       </c>
       <c r="J4" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" ref="L4:L7" si="4">IF(ISNUMBER(SEARCH("16x16",E4)),"fix-btn-sm", "height65")</f>
@@ -4218,10 +4218,10 @@
         <v/>
       </c>
       <c r="J5" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4244,7 +4244,7 @@
         <v>Button</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
@@ -4258,10 +4258,10 @@
         <v/>
       </c>
       <c r="J6" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4284,7 +4284,7 @@
         <v>Button</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
@@ -4298,10 +4298,10 @@
         <v/>
       </c>
       <c r="J7" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4337,10 +4337,10 @@
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4374,10 +4374,10 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L9" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E9)),"fix-btn-sm", "height65")</f>
@@ -4414,13 +4414,13 @@
         <v>icon-left</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4453,13 +4453,13 @@
         <v>icon-left</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4492,13 +4492,13 @@
         <v>icon-left</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4531,13 +4531,13 @@
         <v>icon-left</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -4570,13 +4570,13 @@
         <v>icon-left</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4609,13 +4609,13 @@
         <v>icon-left</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4648,13 +4648,13 @@
         <v>icon-left</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -4687,13 +4687,13 @@
         <v>icon-left</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -4727,10 +4727,10 @@
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L18" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E18)),"fix-btn-sm", "height65")</f>
@@ -4767,13 +4767,13 @@
         <v>icon-left</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4806,13 +4806,13 @@
         <v>icon-left</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4845,13 +4845,13 @@
         <v>icon-left</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4884,13 +4884,13 @@
         <v>icon-left</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4923,13 +4923,13 @@
         <v>icon-left</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4962,13 +4962,13 @@
         <v>icon-left</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -5001,13 +5001,13 @@
         <v>icon-left</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
         <v>Button</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
@@ -5040,13 +5040,13 @@
         <v>icon-left</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -5411,13 +5411,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="17" style="6" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
@@ -5436,10 +5436,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -5451,16 +5451,16 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5486,10 +5486,10 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5518,14 +5518,14 @@
         <v>107</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H39" si="0">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
+        <f t="shared" ref="H3:H35" si="0">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J3" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L3" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E3)),"fix-btn-sm", "height65")</f>
@@ -5537,21 +5537,21 @@
         <v>1.2</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f t="shared" ref="B4:B39" si="1">SUBSTITUTE(CONCATENATE(G4,D4)," ","")</f>
+        <f t="shared" ref="B4:B35" si="1">SUBSTITUTE(CONCATENATE(G4,D4)," ","")</f>
         <v>TrippleComboButton</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D39" si="2">REPLACE(C4, 1, 2, "")</f>
+        <f t="shared" ref="D4:D35" si="2">REPLACE(C4, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E4" t="s">
         <v>110</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F39" si="3">SUBSTITUTE(E4,"_","-")</f>
+        <f t="shared" ref="F4:F35" si="3">SUBSTITUTE(E4,"_","-")</f>
         <v>logplot-triple-combo-32x32</v>
       </c>
       <c r="G4" t="s">
@@ -5562,10 +5562,10 @@
         <v/>
       </c>
       <c r="J4" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" ref="L4:L7" si="4">IF(ISNUMBER(SEARCH("16x16",E4)),"fix-btn-sm", "height65")</f>
@@ -5602,10 +5602,10 @@
         <v/>
       </c>
       <c r="J5" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5628,7 +5628,7 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
@@ -5642,10 +5642,10 @@
         <v/>
       </c>
       <c r="J6" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5683,10 +5683,10 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5709,7 +5709,7 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
@@ -5723,13 +5723,13 @@
         <v>icon-left</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5748,7 +5748,7 @@
         <v>Button</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
@@ -5762,13 +5762,13 @@
         <v>icon-left</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -5787,7 +5787,7 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
@@ -5801,13 +5801,13 @@
         <v>icon-left</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5826,7 +5826,7 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
@@ -5840,13 +5840,13 @@
         <v>icon-left</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5865,7 +5865,7 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
@@ -5879,13 +5879,13 @@
         <v>icon-left</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5917,13 +5917,13 @@
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5942,7 +5942,7 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
@@ -5956,10 +5956,10 @@
         <v>icon-left</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L14" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E14)),"fix-btn-sm", "height65")</f>
@@ -5996,10 +5996,10 @@
         <v>icon-left</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" ref="L15:L19" si="5">IF(ISNUMBER(SEARCH("16x16",E15)),"fix-btn-sm", "height65")</f>
@@ -6022,7 +6022,7 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -6036,10 +6036,10 @@
         <v>icon-left</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6076,10 +6076,10 @@
         <v>icon-left</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6116,10 +6116,10 @@
         <v>icon-left</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6157,10 +6157,10 @@
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6197,13 +6197,13 @@
         <v>icon-left</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -6236,13 +6236,13 @@
         <v>icon-left</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -6275,13 +6275,13 @@
         <v>icon-left</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -6314,13 +6314,13 @@
         <v>icon-left</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -6353,13 +6353,13 @@
         <v>icon-left</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -6392,13 +6392,13 @@
         <v>icon-left</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -6431,13 +6431,13 @@
         <v>icon-left</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -6470,13 +6470,13 @@
         <v>icon-left</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -6509,13 +6509,13 @@
         <v>icon-left</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -6547,15 +6547,15 @@
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>3.1</v>
+      <c r="A30" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6583,10 +6583,10 @@
         <v/>
       </c>
       <c r="J30" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L30" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E30)),"fix-btn-sm", "height65")</f>
@@ -6594,128 +6594,124 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>3.2</v>
+      <c r="A31" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>PHI_TOTALButton</v>
+        <f>SUBSTITUTE(CONCATENATE(G31,D31)," ","")</f>
+        <v>GammaRayButton</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
+        <f>REPLACE(C31, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="3"/>
-        <v>histogram-result-32x32</v>
+        <f>SUBSTITUTE(E31,"_","-")</f>
+        <v>histogram-predefine-GR-32x32</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("16x16",E31)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J31" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L31" s="1" t="str">
-        <f t="shared" ref="L31:L35" si="6">IF(ISNUMBER(SEARCH("16x16",E31)),"fix-btn-sm", "height65")</f>
+        <f>IF(ISNUMBER(SEARCH("16x16",E31)),"fix-btn-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="B32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>GammaRayButton</v>
+      <c r="A32" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="13" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G32,D32)," ","")</f>
+        <v>SonicButton</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
+        <f>REPLACE(C32, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>350</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="3"/>
-        <v>histogram-predefine-GR-32x32</v>
+        <f>SUBSTITUTE(E32,"_","-")</f>
+        <v>histogram-predefine-DT-32x32</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>171</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L32" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISNUMBER(SEARCH("16x16",E32)),"fix-btn-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>3.4</v>
+      <c r="A33" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="B33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>SUBSTITUTE(CONCATENATE(G33,D33)," ","")</f>
         <v>NeutronButton</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
+        <f>REPLACE(C33, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E33" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(E33,"_","-")</f>
         <v>histogram-predefine-NPHI-32x32</v>
       </c>
       <c r="G33" t="s">
         <v>167</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("16x16",E33)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J33" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L33" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISNUMBER(SEARCH("16x16",E33)),"fix-btn-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>3.5</v>
+      <c r="A34" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6729,7 +6725,7 @@
         <v>Button</v>
       </c>
       <c r="E34" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="3"/>
@@ -6743,13 +6739,13 @@
         <v/>
       </c>
       <c r="J34" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L34" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L34:L35" si="6">IF(ISNUMBER(SEARCH("16x16",E34)),"fix-btn-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
@@ -6784,10 +6780,10 @@
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6798,156 +6794,117 @@
       <c r="A36" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>SonicButton</v>
+      <c r="B36" s="4" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G36,D36)," ","")</f>
+        <v>PHI_TOTALButton</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
+        <f>REPLACE(C36, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="3"/>
-        <v>histogram-predefine-DT-16x16</v>
+        <f>SUBSTITUTE(E36,"_","-")</f>
+        <v>histogram-result-16x16</v>
       </c>
       <c r="G36" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("16x16",E36)), "icon-left","")</f>
         <v>icon-left</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K36" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>SallowResistivityButton</v>
+        <f>SUBSTITUTE(CONCATENATE(G37,D37)," ","")</f>
+        <v>DeepResistivityButton</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
+        <f>REPLACE(C37, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" t="str">
+        <f>SUBSTITUTE(E37,"_","-")</f>
+        <v>histogram-predefine-LLD-16x16</v>
+      </c>
+      <c r="G37" t="s">
         <v>175</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="3"/>
-        <v>histogram-predefine-LLS-16x16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>174</v>
-      </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("16x16",E37)), "icon-left","")</f>
         <v>icon-left</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K37" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B38" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>DeepResistivityButton</v>
+        <f>SUBSTITUTE(CONCATENATE(G38,D38)," ","")</f>
+        <v>MSFLHistogramButton</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
+        <f>REPLACE(C38, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E38" t="s">
         <v>178</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="3"/>
-        <v>histogram-predefine-LLD-16x16</v>
+        <f>SUBSTITUTE(E38,"_","-")</f>
+        <v>histogram-predefine-MSFL-16x16</v>
       </c>
       <c r="G38" t="s">
         <v>177</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("16x16",E38)), "icon-left","")</f>
         <v>icon-left</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K38" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>MSFLHistogramButton</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="2"/>
-        <v>Button</v>
-      </c>
-      <c r="E39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="3"/>
-        <v>histogram-predefine-MSFL-16x16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>icon-left</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -8014,7 +7971,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8022,8 +7979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8048,10 +8005,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -8063,16 +8020,16 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8093,23 +8050,23 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>SUBSTITUTE(CONCATENATE(G3,D3)," ","")</f>
@@ -8123,24 +8080,24 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
         <v>curve-new-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H32" si="0">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J3" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L3" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E3)),"fix-btn-sm", "height65")</f>
@@ -8149,7 +8106,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B32" si="1">SUBSTITUTE(CONCATENATE(G4,D4)," ","")</f>
@@ -8163,24 +8120,24 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F32" si="3">SUBSTITUTE(E4,"_","-")</f>
         <v>edit-curve-text-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J4" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" ref="L4:L23" si="4">IF(ISNUMBER(SEARCH("16x16",E4)),"fix-btn-sm", "height65")</f>
@@ -8189,7 +8146,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B5" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8203,14 +8160,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F5" s="11" t="str">
         <f t="shared" si="3"/>
         <v>curve-edit-32x32</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8218,10 +8175,10 @@
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8230,7 +8187,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B6" s="13" t="str">
         <f t="shared" si="1"/>
@@ -8251,25 +8208,25 @@
         <v>curve-listing-16x16</v>
       </c>
       <c r="G6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B7" s="13" t="str">
         <f t="shared" si="1"/>
@@ -8283,32 +8240,32 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
         <v>curve-interactive-edit-16x16</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B8" s="13" t="str">
         <f t="shared" si="1"/>
@@ -8322,32 +8279,32 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
         <v>curve-interactive-baseline-edit-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B9" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8361,14 +8318,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F9" s="11" t="str">
         <f t="shared" si="3"/>
         <v>curve-splice-32x32</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -8376,10 +8333,10 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8388,7 +8345,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B10" s="13" t="str">
         <f t="shared" si="1"/>
@@ -8402,32 +8359,32 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
         <v>cureve-splice-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B11" s="13" t="str">
         <f t="shared" si="1"/>
@@ -8441,27 +8398,27 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
         <v>curve-splice-interactive-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -8480,24 +8437,24 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
         <v>caculation-multilinerregression-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8506,7 +8463,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8520,24 +8477,24 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
         <v>curve-header-edit-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8546,7 +8503,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8560,24 +8517,24 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
         <v>curve-fill-data-gaps-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8586,7 +8543,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8600,24 +8557,24 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
         <v>curve-filter-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8626,7 +8583,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8640,24 +8597,24 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
         <v>curve-convolution-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8666,7 +8623,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8680,24 +8637,24 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
         <v>curve-deconvolution-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8706,7 +8663,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8720,24 +8677,24 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
         <v>curve-edit-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8746,7 +8703,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8760,24 +8717,24 @@
         <v>Button</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
         <v>curve-rescale-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8786,7 +8743,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8800,24 +8757,24 @@
         <v>Button</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
         <v>curve-compare-16x16</v>
       </c>
       <c r="G20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8826,7 +8783,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8840,24 +8797,24 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
         <v>curve-average-16x16</v>
       </c>
       <c r="G21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8866,7 +8823,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8880,24 +8837,24 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
         <v>formation-resistivity-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8906,7 +8863,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8920,24 +8877,24 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
         <v>badhole-coal-salt-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8964,25 +8921,25 @@
         <v/>
       </c>
       <c r="G24" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H24" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J24" s="31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8996,24 +8953,24 @@
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="3"/>
         <v>user-formula-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L25" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E25)),"fix-btn-sm", "height65")</f>
@@ -9036,24 +8993,24 @@
         <v>Button</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="3"/>
         <v>user-formula-multiline-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" ref="L26:L27" si="8">IF(ISNUMBER(SEARCH("16x16",E26)),"fix-btn-sm", "height65")</f>
@@ -9062,7 +9019,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9076,24 +9033,24 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="3"/>
         <v>python-program-16x16</v>
       </c>
       <c r="G27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="8"/>
@@ -9102,7 +9059,7 @@
     </row>
     <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B28" s="36" t="str">
         <f t="shared" si="1"/>
@@ -9121,25 +9078,25 @@
         <v/>
       </c>
       <c r="G28" s="34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H28" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J28" s="31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9153,24 +9110,24 @@
         <v>Button</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="3"/>
         <v>true-vertical-depth-32x32</v>
       </c>
       <c r="G29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J29" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L29" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E29)),"fix-btn-sm", "height65")</f>
@@ -9179,7 +9136,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9193,24 +9150,24 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="3"/>
         <v>pca-analysis-16x16</v>
       </c>
       <c r="G30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" ref="L30:L32" si="9">IF(ISNUMBER(SEARCH("16x16",E30)),"fix-btn-sm", "height65")</f>
@@ -9219,7 +9176,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9233,24 +9190,24 @@
         <v>Button</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="3"/>
         <v>caculation-multilinerregression-16x16</v>
       </c>
       <c r="G31" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9259,7 +9216,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9273,24 +9230,24 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="3"/>
         <v>Neural-Network-16x16</v>
       </c>
       <c r="G32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>icon-left</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9774,10 +9731,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -9789,16 +9746,16 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -9821,16 +9778,16 @@
         <v/>
       </c>
       <c r="G2" s="31" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -9849,24 +9806,24 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
         <v>mineral-zone-edit-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H3" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J3" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L3" s="1" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E3)),"fix-btn-sm", "height65")</f>
@@ -9896,17 +9853,17 @@
         <v>curve-input-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" ref="H4:H36" si="3">IF(ISNUMBER(SEARCH("16x16",E4)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J4" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" ref="L4:L19" si="4">IF(ISNUMBER(SEARCH("16x16",E4)),"fix-btn-sm", "height65")</f>
@@ -9929,24 +9886,24 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>fluid-input-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J5" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9969,24 +9926,24 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>mineral-zone-parameter-build-16x16</v>
       </c>
       <c r="G6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10009,24 +9966,24 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>mineral-zone-edit-16x16</v>
       </c>
       <c r="G7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10049,24 +10006,24 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>multi-mineral-solver-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10089,24 +10046,24 @@
         <v>Button</v>
       </c>
       <c r="E9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>Vclay-16x16</v>
       </c>
       <c r="G9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10129,24 +10086,24 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>secondary-porosity-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10169,24 +10126,24 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10195,7 +10152,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10209,24 +10166,24 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>secondary-porosity-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10235,7 +10192,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10249,24 +10206,24 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>fracture-porosity-permeability-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10275,7 +10232,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10289,24 +10246,24 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>phi2fil-phio-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10315,7 +10272,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10329,24 +10286,24 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>mineral-volume-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10355,7 +10312,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10369,24 +10326,24 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10395,7 +10352,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10409,24 +10366,24 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>calculate-permeability-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10435,7 +10392,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10449,24 +10406,24 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>summation-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10475,7 +10432,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10489,24 +10446,24 @@
         <v>Button</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>curve-filter-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -10533,20 +10490,20 @@
         <v/>
       </c>
       <c r="G20" s="31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H20" s="31" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E20)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J20" s="31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -10565,24 +10522,24 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>sand-32x32</v>
       </c>
       <c r="G21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J21" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L21" s="1" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E21)),"fix-btn-sm", "height65")</f>
@@ -10605,24 +10562,24 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" ref="L22:L24" si="8">IF(ISNUMBER(SEARCH("16x16",E22)),"fix-btn-sm", "height65")</f>
@@ -10645,24 +10602,24 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="8"/>
@@ -10685,24 +10642,24 @@
         <v>Button</v>
       </c>
       <c r="E24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>summation-16x16</v>
       </c>
       <c r="G24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="8"/>
@@ -11158,10 +11115,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -11173,16 +11130,16 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -11203,20 +11160,20 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>SUBSTITUTE(CONCATENATE(G3,D3)," ","")</f>
@@ -11230,27 +11187,27 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
         <v>help-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H5" si="0">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J3" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -11269,27 +11226,27 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F5" si="3">SUBSTITUTE(E4,"_","-")</f>
         <v>info-frp-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J4" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11308,27 +11265,27 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
         <v>unlock1-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J5" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11457,10 +11414,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -11472,13 +11429,13 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -11504,10 +11461,10 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -11526,7 +11483,7 @@
         <v>Toolbar</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
@@ -11536,10 +11493,10 @@
         <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -11551,14 +11508,14 @@
         <v>ProjectTreeview</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4" si="1">REPLACE(C4, 1, 2, "")</f>
         <v>Treeview</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F6" si="2">SUBSTITUTE(E4,"_","-")</f>
@@ -11568,10 +11525,10 @@
         <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -11583,7 +11540,7 @@
         <v>PropertiesTabs</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ref="D5" si="3">REPLACE(C5, 1, 2, "")</f>
@@ -11595,15 +11552,15 @@
         <v/>
       </c>
       <c r="G5" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -11615,7 +11572,7 @@
         <v>PropertyList</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6" si="4">REPLACE(C6, 1, 2, "")</f>
@@ -11626,13 +11583,13 @@
         <v/>
       </c>
       <c r="G6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AppServ\www\hoangbd_com\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\WellInsight\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="993" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="463" windowWidth="25603" windowHeight="15463" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="355">
   <si>
     <t>Code</t>
   </si>
@@ -1096,12 +1096,21 @@
   </si>
   <si>
     <t>histogram_result_16x16</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>browse_project_32x32</t>
+  </si>
+  <si>
+    <t>import_project_32x32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1319,7 +1328,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1665,19 +1674,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1702,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1724,7 +1733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1737,9 +1746,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="RibbonBlock!A1" display="RibbonBlock"/>
-    <hyperlink ref="B3" location="ExplorerBlock!A1" display="ExplorerBlock"/>
-    <hyperlink ref="B4" location="WorkingBlock!A1" display="WorkingBlock"/>
+    <hyperlink ref="B2" location="RibbonBlock!A1" display="RibbonBlock" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="ExplorerBlock!A1" display="ExplorerBlock" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="WorkingBlock!A1" display="WorkingBlock" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1747,22 +1756,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="6"/>
+    <col min="2" max="2" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1806,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1826,7 +1835,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1922,7 +1931,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>2.1</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -1980,7 +1989,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -2006,7 +2015,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -2046,7 +2055,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -2057,7 +2066,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2068,7 +2077,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="21"/>
@@ -2079,7 +2088,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="21"/>
@@ -2090,7 +2099,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="20"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2101,7 +2110,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="22"/>
@@ -2112,7 +2121,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2123,7 +2132,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2134,7 +2143,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -2145,7 +2154,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2156,7 +2165,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -2167,7 +2176,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2185,21 +2194,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="30.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>287</v>
       </c>
@@ -2210,14 +2219,14 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -2229,7 +2238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -2241,7 +2250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -2256,7 +2265,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -2268,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
@@ -2283,14 +2292,14 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
@@ -2299,7 +2308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>WellHeaderModal</v>
@@ -2308,7 +2317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>DepthConversionModal</v>
@@ -2317,7 +2326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CurveAliasModal</v>
@@ -2326,7 +2335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>FamilyEditModal</v>
@@ -2335,7 +2344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Input/OutputModal</v>
@@ -2344,7 +2353,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIModal</v>
@@ -2353,7 +2362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>
@@ -2362,7 +2371,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASModal</v>
@@ -2371,7 +2380,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASModal</v>
@@ -2380,7 +2389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderModal</v>
@@ -2389,7 +2398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2398,7 +2407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderModal</v>
@@ -2407,7 +2416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopModal</v>
@@ -2416,7 +2425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIModal</v>
@@ -2425,7 +2434,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIModal</v>
@@ -2434,7 +2443,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASModal</v>
@@ -2443,7 +2452,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASModal</v>
@@ -2452,7 +2461,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataModal</v>
@@ -2461,7 +2470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2470,7 +2479,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderModal</v>
@@ -2479,7 +2488,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopModal</v>
@@ -2488,14 +2497,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A65" si="1">SUBSTITUTE(CONCATENATE(B32,"Modal")," ","")</f>
         <v>BlankLogplotModal</v>
@@ -2504,7 +2513,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>TrippleComboModal</v>
@@ -2513,7 +2522,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>DensityNeutronModal</v>
@@ -2522,7 +2531,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>ResistivitySonicModal</v>
@@ -2531,7 +2540,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>3TracksBlankModal</v>
@@ -2540,7 +2549,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>InputCurveModal</v>
@@ -2549,7 +2558,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>Litho+Syn.CurveModal</v>
@@ -2558,7 +2567,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>Syn.CurveModal</v>
@@ -2567,7 +2576,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>CrossPlotModal</v>
@@ -2576,7 +2585,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>BlankCrossPlotModal</v>
@@ -2585,7 +2594,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>SonicPHI_TOTALModal</v>
@@ -2594,7 +2603,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>NeutronDensityModal</v>
@@ -2603,7 +2612,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>NeutronGammaModal</v>
@@ -2612,7 +2621,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>SonicGammaModal</v>
@@ -2621,7 +2630,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronSonicModal</v>
@@ -2630,7 +2639,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>DenityGammaModal</v>
@@ -2639,7 +2648,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronRtModal</v>
@@ -2648,7 +2657,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>DensitySonicModal</v>
@@ -2657,7 +2666,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>DensityRtModal</v>
@@ -2666,7 +2675,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>SonicDensityModal</v>
@@ -2675,7 +2684,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>SonicRtModal</v>
@@ -2684,7 +2693,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>RtRx0Modal</v>
@@ -2693,7 +2702,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>PickettModal</v>
@@ -2702,7 +2711,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>HistogramModal</v>
@@ -2711,7 +2720,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>BlankHistogramModal</v>
@@ -2720,7 +2729,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>PHI_TOTALModal</v>
@@ -2729,7 +2738,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>GammaRayModal</v>
@@ -2738,7 +2747,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>NeutronModal</v>
@@ -2747,7 +2756,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>DensityModal</v>
@@ -2756,7 +2765,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>HistogramMoreModal</v>
@@ -2765,7 +2774,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>SonicModal</v>
@@ -2774,7 +2783,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>SallowResistivityModal</v>
@@ -2783,7 +2792,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>DeepResistivityModal</v>
@@ -2792,7 +2801,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>MSFLHistogramModal</v>
@@ -2801,14 +2810,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">SUBSTITUTE(CONCATENATE(B67,"Modal")," ","")</f>
         <v>AddCurveModal</v>
@@ -2817,7 +2826,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveEditModal</v>
@@ -2826,7 +2835,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveBaselineShiftModal</v>
@@ -2835,7 +2844,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurveModal</v>
@@ -2844,7 +2853,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurvesModal</v>
@@ -2853,7 +2862,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveSplitModal</v>
@@ -2862,7 +2871,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>MergeCurvesModal</v>
@@ -2871,7 +2880,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>CurvesHeaderModal</v>
@@ -2880,7 +2889,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>FillDataGapsModal</v>
@@ -2889,7 +2898,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>CurveFilterModal</v>
@@ -2898,7 +2907,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>CurveConvolutionModal</v>
@@ -2907,7 +2916,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>CurveDeconvolutionModal</v>
@@ -2916,7 +2925,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>CurveDerivativeModal</v>
@@ -2925,7 +2934,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>CurveRescaleModal</v>
@@ -2934,7 +2943,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>CurveComrarisonModal</v>
@@ -2943,7 +2952,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>CurveAverageModal</v>
@@ -2952,7 +2961,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FormationResistivityModal</v>
@@ -2961,7 +2970,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Badhole/Coal/SaltModal</v>
@@ -2970,7 +2979,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2979,7 +2988,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2988,7 +2997,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>UserProgramModal</v>
@@ -2997,7 +3006,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>PythonProgramModal</v>
@@ -3006,7 +3015,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>CalculationModal</v>
@@ -3015,7 +3024,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>TVDConversionModal</v>
@@ -3024,7 +3033,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>PCAAnalysisModal</v>
@@ -3033,7 +3042,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Multi-LinearRegressionModal</v>
@@ -3042,7 +3051,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>NeuralNetworkModal</v>
@@ -3051,14 +3060,14 @@
         <v>245</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="str">
         <f t="shared" ref="A95:A116" si="3">SUBSTITUTE(CONCATENATE(B95,"Modal")," ","")</f>
         <v>EditZonesModal</v>
@@ -3067,7 +3076,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
         <v>InputCurvesModal</v>
@@ -3076,7 +3085,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
         <v>InputFuidModal</v>
@@ -3085,7 +3094,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
         <v>BuildMineralParametersModal</v>
@@ -3094,7 +3103,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
         <v>InputMineralZonesModal</v>
@@ -3103,7 +3112,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
         <v>Multi-MineralSolverModal</v>
@@ -3112,7 +3121,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
         <v>ClayMineralsVolumeModal</v>
@@ -3121,7 +3130,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
         <v>Fracture-VugPorosityModal</v>
@@ -3130,7 +3139,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
         <v>OpenPorosityModal</v>
@@ -3139,7 +3148,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>SecondaryPorosityModal</v>
@@ -3148,7 +3157,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
         <v>FracturePorosityModal</v>
@@ -3157,7 +3166,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
         <v>FilteringFractureModal</v>
@@ -3166,7 +3175,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
         <v>Micro&amp;MacroPorosityModal</v>
@@ -3175,7 +3184,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
         <v>WaterSaturationModal</v>
@@ -3184,7 +3193,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
         <v>PermeabilityModal</v>
@@ -3193,7 +3202,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3202,7 +3211,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
         <v>FilteringModal</v>
@@ -3211,7 +3220,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
         <v>ClasticModal</v>
@@ -3220,7 +3229,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
         <v>BasicAnalysisModal</v>
@@ -3229,7 +3238,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
         <v>ClayVolumeModal</v>
@@ -3238,7 +3247,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
         <v>Porosity&amp;WaterSaturationModal</v>
@@ -3247,7 +3256,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3256,14 +3265,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="str">
         <f>SUBSTITUTE(CONCATENATE(B118,"Modal")," ","")</f>
         <v>AboutModal</v>
@@ -3272,7 +3281,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="str">
         <f>SUBSTITUTE(CONCATENATE(B119,"Modal")," ","")</f>
         <v>UnlockModal</v>
@@ -3288,16 +3297,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3311,7 +3320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -3323,7 +3332,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -3345,7 +3354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -3356,7 +3365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -3367,7 +3376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
@@ -3378,7 +3387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>1.6</v>
       </c>
@@ -3391,12 +3400,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="ProjectTab!A1" display="ProjectTab"/>
-    <hyperlink ref="B4" location="WellTab!A1" display="WellTab"/>
-    <hyperlink ref="B5" location="DataAnalysisTab!A1" display="DataAnalysisTab"/>
-    <hyperlink ref="B6" location="DataProcessingTab!A1" display="DataProcessingTab"/>
-    <hyperlink ref="B7" location="PetrophysicsTab!A1" display="PetrophysicsTab"/>
-    <hyperlink ref="B8" location="HelpTab!A1" display="HelpTab"/>
+    <hyperlink ref="B3" location="ProjectTab!A1" display="ProjectTab" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" location="WellTab!A1" display="WellTab" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" location="DataAnalysisTab!A1" display="DataAnalysisTab" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B6" location="DataProcessingTab!A1" display="DataProcessingTab" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" location="PetrophysicsTab!A1" display="PetrophysicsTab" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B8" location="HelpTab!A1" display="HelpTab" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3404,27 +3413,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="6"/>
+    <col min="2" max="2" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.69140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3472,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3493,7 +3502,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -3529,38 +3538,38 @@
         <v>298</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L15" si="0">IF(ISNUMBER(SEARCH("16x16",E3)),"fix-button-sm", "height65")</f>
+        <f t="shared" ref="L3:L17" si="0">IF(ISNUMBER(SEARCH("16x16",E3)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f t="shared" ref="B4:B15" si="1">SUBSTITUTE(CONCATENATE(G4,D4)," ","")</f>
+        <f t="shared" ref="B4:B17" si="1">SUBSTITUTE(CONCATENATE(G4,D4)," ","")</f>
         <v>OpenProjectButton</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D15" si="2">REPLACE(C4, 1, 2, "")</f>
+        <f t="shared" ref="D4:D17" si="2">REPLACE(C4, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F15" si="3">SUBSTITUTE(E4,"_","-")</f>
+        <f t="shared" ref="F4:F17" si="3">SUBSTITUTE(E4,"_","-")</f>
         <v>project-open-32x32</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H15" si="4">IF(ISNUMBER(SEARCH("16x16",E4)), "icon-left","")</f>
+        <f t="shared" ref="H4:H17" si="4">IF(ISNUMBER(SEARCH("16x16",E4)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J4" s="1" t="s">
@@ -3575,7 +3584,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -3616,7 +3625,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -3657,7 +3666,7 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -3699,7 +3708,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -3739,7 +3748,7 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -3779,133 +3788,133 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G10,D10)," ","")</f>
+        <v>InventoryButton</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>browse-project-32x32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" ref="L10" si="5">IF(ISNUMBER(SEARCH("16x16",E10)),"fix-button-sm", "height65")</f>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G11,D11)," ","")</f>
+        <v>ImportButton</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" ref="D11" si="6">REPLACE(C11, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" ref="F11" si="7">SUBSTITUTE(E11,"_","-")</f>
+        <v>import-project-32x32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" ref="H11" si="8">IF(ISNUMBER(SEARCH("16x16",E11)), "icon-left","")</f>
+        <v/>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" ref="L11" si="9">IF(ISNUMBER(SEARCH("16x16",E11)),"fix-button-sm", "height65")</f>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B12" s="16" t="str">
         <f t="shared" si="1"/>
         <v>ViewToolbar</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19" t="str">
+      <c r="D12" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Toolbar</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="19" t="str">
+      <c r="E12" s="3"/>
+      <c r="F12" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="19" t="str">
+      <c r="H12" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="L10" t="str">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="0"/>
         <v>height65</v>
       </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
         <v>2.1</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>ProjectButton</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Button</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>project-normal-32x32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>height65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>WorkflowsButton</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Button</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>workflow-32x32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>height65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>PropertyGridButton</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -3915,14 +3924,14 @@
         <v>Button</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>property-grid-32x32</v>
+        <v>project-normal-32x32</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="4"/>
@@ -3939,49 +3948,53 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
-        <v>3</v>
-      </c>
-      <c r="B14" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>ExitToolbar</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="31" t="str">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>WorkflowsButton</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Toolbar</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="31" t="str">
+        <v>Button</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>workflow-32x32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="L14" s="31"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
-        <v>3.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>ExitButton</v>
+        <v>PropertyGridButton</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -3991,14 +4004,14 @@
         <v>Button</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>exit-32x32</v>
+        <v>property-grid-32x32</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="4"/>
@@ -4008,9 +4021,85 @@
         <v>295</v>
       </c>
       <c r="K15" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ExitToolbar</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>Toolbar</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>ExitButton</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>exit-32x32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K17" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v>height65</v>
       </c>
@@ -4022,26 +4111,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.15234375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.15234375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.15234375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4079,7 +4168,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4108,7 +4197,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -4148,7 +4237,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -4188,7 +4277,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -4228,7 +4317,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -4268,7 +4357,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
@@ -4308,7 +4397,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
@@ -4343,7 +4432,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>2.1</v>
       </c>
@@ -4384,7 +4473,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="13" t="s">
         <v>65</v>
       </c>
@@ -4423,7 +4512,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="13" t="s">
         <v>68</v>
       </c>
@@ -4462,7 +4551,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
@@ -4501,7 +4590,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4540,7 +4629,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4579,7 +4668,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="13" t="s">
         <v>78</v>
       </c>
@@ -4618,7 +4707,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
         <v>81</v>
       </c>
@@ -4657,7 +4746,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
         <v>84</v>
       </c>
@@ -4696,7 +4785,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>86</v>
       </c>
@@ -4737,7 +4826,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
@@ -4776,7 +4865,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4815,7 +4904,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="13" t="s">
         <v>94</v>
       </c>
@@ -4854,7 +4943,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="13" t="s">
         <v>97</v>
       </c>
@@ -4893,7 +4982,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
         <v>99</v>
       </c>
@@ -4932,7 +5021,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="13" t="s">
         <v>101</v>
       </c>
@@ -4971,7 +5060,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -5010,7 +5099,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5049,7 +5138,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -5060,7 +5149,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -5071,7 +5160,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="20"/>
       <c r="B31" s="24"/>
       <c r="C31" s="21"/>
@@ -5082,7 +5171,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="21"/>
@@ -5093,7 +5182,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="21"/>
@@ -5104,7 +5193,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="21"/>
@@ -5115,7 +5204,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="21"/>
@@ -5126,7 +5215,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="21"/>
@@ -5137,7 +5226,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="21"/>
@@ -5148,7 +5237,7 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="21"/>
@@ -5159,7 +5248,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="21"/>
@@ -5170,7 +5259,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="21"/>
@@ -5181,7 +5270,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="21"/>
@@ -5192,7 +5281,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="21"/>
@@ -5203,7 +5292,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="21"/>
@@ -5214,7 +5303,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="21"/>
@@ -5225,7 +5314,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="21"/>
@@ -5236,7 +5325,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="21"/>
@@ -5247,7 +5336,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="21"/>
@@ -5258,7 +5347,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
@@ -5269,7 +5358,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="21"/>
@@ -5280,7 +5369,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="21"/>
@@ -5291,7 +5380,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="21"/>
@@ -5302,7 +5391,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="21"/>
@@ -5313,7 +5402,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="21"/>
@@ -5324,7 +5413,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="21"/>
@@ -5335,7 +5424,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="21"/>
@@ -5346,7 +5435,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -5357,7 +5446,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -5368,7 +5457,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -5379,7 +5468,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -5390,7 +5479,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -5408,24 +5497,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.3046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5463,7 +5552,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -5492,7 +5581,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -5532,7 +5621,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -5572,7 +5661,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -5612,7 +5701,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -5652,7 +5741,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>1.5</v>
       </c>
@@ -5693,7 +5782,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -5732,7 +5821,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -5771,7 +5860,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>119</v>
       </c>
@@ -5810,7 +5899,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>121</v>
       </c>
@@ -5849,7 +5938,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>123</v>
       </c>
@@ -5888,7 +5977,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -5926,7 +6015,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>2.1</v>
       </c>
@@ -5966,7 +6055,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -6006,7 +6095,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -6046,7 +6135,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>2.4</v>
       </c>
@@ -6086,7 +6175,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
         <v>2.5</v>
       </c>
@@ -6126,7 +6215,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>2.6</v>
       </c>
@@ -6167,7 +6256,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
@@ -6206,7 +6295,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>137</v>
       </c>
@@ -6245,7 +6334,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>139</v>
       </c>
@@ -6284,7 +6373,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>142</v>
       </c>
@@ -6323,7 +6412,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>145</v>
       </c>
@@ -6362,7 +6451,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>148</v>
       </c>
@@ -6401,7 +6490,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
         <v>151</v>
       </c>
@@ -6440,7 +6529,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
         <v>154</v>
       </c>
@@ -6479,7 +6568,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
         <v>157</v>
       </c>
@@ -6518,7 +6607,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <v>3</v>
       </c>
@@ -6553,7 +6642,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>238</v>
       </c>
@@ -6593,7 +6682,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
         <v>240</v>
       </c>
@@ -6633,7 +6722,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
         <v>242</v>
       </c>
@@ -6669,7 +6758,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
         <v>244</v>
       </c>
@@ -6709,7 +6798,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
         <v>349</v>
       </c>
@@ -6749,7 +6838,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>3.6</v>
       </c>
@@ -6790,7 +6879,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>170</v>
       </c>
@@ -6829,7 +6918,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
         <v>172</v>
       </c>
@@ -6868,7 +6957,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
         <v>174</v>
       </c>
@@ -6907,7 +6996,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -6918,7 +7007,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -6929,7 +7018,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -6940,7 +7029,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -6951,7 +7040,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -6962,7 +7051,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -6973,7 +7062,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -6984,7 +7073,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -6995,7 +7084,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -7006,7 +7095,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -7017,7 +7106,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -7028,7 +7117,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -7039,7 +7128,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -7050,7 +7139,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -7061,7 +7150,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -7072,7 +7161,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -7083,7 +7172,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -7094,7 +7183,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -7105,7 +7194,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -7116,7 +7205,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -7127,7 +7216,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -7138,7 +7227,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -7149,7 +7238,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -7160,7 +7249,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -7171,7 +7260,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -7182,7 +7271,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -7193,7 +7282,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -7204,7 +7293,7 @@
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="20"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -7215,7 +7304,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="20"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -7226,7 +7315,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="20"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -7237,7 +7326,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="20"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -7248,7 +7337,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -7259,7 +7348,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="20"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -7270,7 +7359,7 @@
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -7281,7 +7370,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="20"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -7292,7 +7381,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="20"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -7303,7 +7392,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="20"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -7314,7 +7403,7 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="20"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -7325,7 +7414,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="20"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -7336,7 +7425,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -7347,7 +7436,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -7358,7 +7447,7 @@
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="20"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -7369,7 +7458,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="20"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -7380,7 +7469,7 @@
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -7391,7 +7480,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="20"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -7402,7 +7491,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -7413,7 +7502,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="20"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -7424,7 +7513,7 @@
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -7435,7 +7524,7 @@
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="20"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -7446,7 +7535,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="20"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -7457,7 +7546,7 @@
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -7468,7 +7557,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="20"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -7479,7 +7568,7 @@
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="20"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -7490,7 +7579,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="20"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -7501,7 +7590,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="20"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -7512,7 +7601,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="20"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -7523,7 +7612,7 @@
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="20"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -7534,7 +7623,7 @@
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="20"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -7545,7 +7634,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="20"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -7556,7 +7645,7 @@
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="20"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -7567,7 +7656,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="20"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -7578,7 +7667,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="20"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -7589,7 +7678,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="20"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -7600,7 +7689,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="20"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -7611,7 +7700,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="20"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -7622,7 +7711,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="20"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -7633,7 +7722,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="20"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -7644,7 +7733,7 @@
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="20"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -7655,7 +7744,7 @@
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="20"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -7666,7 +7755,7 @@
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="20"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -7677,7 +7766,7 @@
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="20"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -7688,7 +7777,7 @@
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="20"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -7699,7 +7788,7 @@
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="20"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -7710,7 +7799,7 @@
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="20"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -7721,7 +7810,7 @@
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="20"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -7732,7 +7821,7 @@
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="20"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -7743,7 +7832,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="20"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -7754,7 +7843,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="20"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -7765,205 +7854,205 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D119" s="1" t="str">
         <f t="shared" ref="D119:D152" si="7">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D120" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D121" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D122" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D123" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D124" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D125" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D126" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D127" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D128" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D129" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D130" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D131" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D132" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D133" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D134" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D135" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D136" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D137" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D138" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D139" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D140" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D141" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D142" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D143" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D144" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D145" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D146" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D147" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D148" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D149" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D150" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D151" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D152" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7976,25 +8065,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="6"/>
+    <col min="2" max="2" width="27.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8032,7 +8121,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8064,7 +8153,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>180</v>
       </c>
@@ -8104,7 +8193,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>183</v>
       </c>
@@ -8144,7 +8233,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>185</v>
       </c>
@@ -8185,7 +8274,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>188</v>
       </c>
@@ -8224,7 +8313,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>190</v>
       </c>
@@ -8263,7 +8352,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>192</v>
       </c>
@@ -8302,7 +8391,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>194</v>
       </c>
@@ -8343,7 +8432,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>197</v>
       </c>
@@ -8382,7 +8471,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>199</v>
       </c>
@@ -8421,7 +8510,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -8461,7 +8550,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>202</v>
       </c>
@@ -8501,7 +8590,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>205</v>
       </c>
@@ -8541,7 +8630,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>208</v>
       </c>
@@ -8581,7 +8670,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>211</v>
       </c>
@@ -8621,7 +8710,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>213</v>
       </c>
@@ -8661,7 +8750,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>215</v>
       </c>
@@ -8701,7 +8790,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>218</v>
       </c>
@@ -8741,7 +8830,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>221</v>
       </c>
@@ -8781,7 +8870,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>224</v>
       </c>
@@ -8821,7 +8910,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>227</v>
       </c>
@@ -8861,7 +8950,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
         <v>229</v>
       </c>
@@ -8901,7 +8990,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="33" t="s">
         <v>61</v>
       </c>
@@ -8937,7 +9026,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>232</v>
       </c>
@@ -8977,7 +9066,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>86</v>
       </c>
@@ -9017,7 +9106,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>234</v>
       </c>
@@ -9057,7 +9146,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="35" t="s">
         <v>236</v>
       </c>
@@ -9094,7 +9183,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>238</v>
       </c>
@@ -9134,7 +9223,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>240</v>
       </c>
@@ -9174,7 +9263,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
         <v>242</v>
       </c>
@@ -9214,7 +9303,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
         <v>244</v>
       </c>
@@ -9254,7 +9343,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -9267,7 +9356,7 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -9280,7 +9369,7 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -9293,7 +9382,7 @@
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="20"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -9306,7 +9395,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -9319,7 +9408,7 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -9332,7 +9421,7 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -9345,7 +9434,7 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -9358,7 +9447,7 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -9371,7 +9460,7 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -9384,7 +9473,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -9397,7 +9486,7 @@
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -9410,7 +9499,7 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -9423,7 +9512,7 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -9436,7 +9525,7 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -9449,7 +9538,7 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -9462,7 +9551,7 @@
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -9475,7 +9564,7 @@
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -9488,7 +9577,7 @@
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -9501,7 +9590,7 @@
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -9514,7 +9603,7 @@
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -9527,7 +9616,7 @@
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -9540,7 +9629,7 @@
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -9553,7 +9642,7 @@
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -9566,7 +9655,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -9579,7 +9668,7 @@
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -9592,7 +9681,7 @@
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -9605,7 +9694,7 @@
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -9618,7 +9707,7 @@
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -9631,7 +9720,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -9644,7 +9733,7 @@
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -9657,7 +9746,7 @@
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -9670,7 +9759,7 @@
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -9683,7 +9772,7 @@
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -9703,24 +9792,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.84375" style="6"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9758,7 +9847,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -9790,7 +9879,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -9830,7 +9919,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -9870,7 +9959,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -9910,7 +9999,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -9950,7 +10039,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -9990,7 +10079,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -10030,7 +10119,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>1.7</v>
       </c>
@@ -10070,7 +10159,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>1.8</v>
       </c>
@@ -10110,7 +10199,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>1.9</v>
       </c>
@@ -10150,7 +10239,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>213</v>
       </c>
@@ -10190,7 +10279,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>215</v>
       </c>
@@ -10230,7 +10319,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>218</v>
       </c>
@@ -10270,7 +10359,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>221</v>
       </c>
@@ -10310,7 +10399,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>224</v>
       </c>
@@ -10350,7 +10439,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>227</v>
       </c>
@@ -10390,7 +10479,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>229</v>
       </c>
@@ -10430,7 +10519,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>265</v>
       </c>
@@ -10470,7 +10559,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="33">
         <v>2</v>
       </c>
@@ -10506,7 +10595,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>2.1</v>
       </c>
@@ -10546,7 +10635,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -10586,7 +10675,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -10626,7 +10715,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <v>2.4</v>
       </c>
@@ -10666,19 +10755,19 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -10696,7 +10785,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -10714,7 +10803,7 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="21"/>
@@ -10732,7 +10821,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="21"/>
@@ -10750,7 +10839,7 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="21"/>
@@ -10768,7 +10857,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="21"/>
@@ -10786,7 +10875,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="21"/>
@@ -10804,7 +10893,7 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="20"/>
       <c r="B34" s="24"/>
       <c r="C34" s="21"/>
@@ -10822,7 +10911,7 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="20"/>
       <c r="B35" s="24"/>
       <c r="C35" s="21"/>
@@ -10840,7 +10929,7 @@
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="20"/>
       <c r="B36" s="24"/>
       <c r="C36" s="21"/>
@@ -10858,7 +10947,7 @@
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="20"/>
       <c r="B37" s="24"/>
       <c r="C37" s="21"/>
@@ -10873,7 +10962,7 @@
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="20"/>
       <c r="B38" s="24"/>
       <c r="C38" s="21"/>
@@ -10888,7 +10977,7 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="20"/>
       <c r="B39" s="24"/>
       <c r="C39" s="21"/>
@@ -10903,7 +10992,7 @@
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="20"/>
       <c r="B40" s="24"/>
       <c r="C40" s="21"/>
@@ -10918,7 +11007,7 @@
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="20"/>
       <c r="B41" s="24"/>
       <c r="C41" s="21"/>
@@ -10933,7 +11022,7 @@
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="20"/>
       <c r="B42" s="24"/>
       <c r="C42" s="21"/>
@@ -10948,7 +11037,7 @@
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="20"/>
       <c r="B43" s="24"/>
       <c r="C43" s="21"/>
@@ -10963,7 +11052,7 @@
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="20"/>
       <c r="B44" s="24"/>
       <c r="C44" s="21"/>
@@ -10978,7 +11067,7 @@
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="20"/>
       <c r="B45" s="24"/>
       <c r="C45" s="21"/>
@@ -10993,7 +11082,7 @@
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="20"/>
       <c r="B46" s="24"/>
       <c r="C46" s="22"/>
@@ -11008,7 +11097,7 @@
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="20"/>
       <c r="B47" s="24"/>
       <c r="C47" s="21"/>
@@ -11023,7 +11112,7 @@
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="20"/>
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
@@ -11038,7 +11127,7 @@
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="20"/>
       <c r="B49" s="24"/>
       <c r="C49" s="21"/>
@@ -11053,7 +11142,7 @@
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="20"/>
       <c r="B50" s="24"/>
       <c r="C50" s="21"/>
@@ -11068,7 +11157,7 @@
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -11090,21 +11179,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="6"/>
+    <col min="5" max="5" width="12.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11142,7 +11231,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -11171,7 +11260,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>180</v>
       </c>
@@ -11210,7 +11299,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -11249,7 +11338,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -11288,7 +11377,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -11300,7 +11389,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11312,7 +11401,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -11324,7 +11413,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="21"/>
@@ -11336,7 +11425,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="21"/>
@@ -11348,7 +11437,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="21"/>
@@ -11360,7 +11449,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="21"/>
@@ -11372,7 +11461,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
@@ -11390,20 +11479,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="6"/>
+    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11438,7 +11527,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -11467,7 +11556,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -11499,7 +11588,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -11531,7 +11620,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -11563,7 +11652,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>2.1</v>
       </c>
@@ -11592,7 +11681,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11605,7 +11694,7 @@
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -11618,7 +11707,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -11631,7 +11720,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -11644,7 +11733,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -11657,7 +11746,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -11670,7 +11759,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -11683,7 +11772,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -11696,7 +11785,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\WellInsight\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\Workspace\Github\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="463" windowWidth="25603" windowHeight="15463" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="25605" windowHeight="15465" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="360">
   <si>
     <t>Code</t>
   </si>
@@ -1105,12 +1105,27 @@
   </si>
   <si>
     <t>import_project_32x32</t>
+  </si>
+  <si>
+    <t>NewWorkflowButton</t>
+  </si>
+  <si>
+    <t>OpenWorkflowButton</t>
+  </si>
+  <si>
+    <t>New Workflow</t>
+  </si>
+  <si>
+    <t>Open Workflow</t>
+  </si>
+  <si>
+    <t>workflow_16x16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1328,7 +1343,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1674,19 +1689,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1711,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1722,7 +1737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1733,7 +1748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1746,9 +1761,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="RibbonBlock!A1" display="RibbonBlock" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" location="ExplorerBlock!A1" display="ExplorerBlock" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" location="WorkingBlock!A1" display="WorkingBlock" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" location="RibbonBlock!A1" display="RibbonBlock"/>
+    <hyperlink ref="B3" location="ExplorerBlock!A1" display="ExplorerBlock"/>
+    <hyperlink ref="B4" location="WorkingBlock!A1" display="WorkingBlock"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1756,22 +1771,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="6"/>
-    <col min="2" max="2" width="26.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1821,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1835,7 +1850,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1867,7 +1882,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -1899,7 +1914,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1931,7 +1946,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>2.1</v>
       </c>
@@ -1963,7 +1978,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -1989,7 +2004,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -2015,7 +2030,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -2044,7 +2059,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -2055,7 +2070,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -2066,7 +2081,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="20"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2077,7 +2092,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="21"/>
@@ -2088,7 +2103,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="21"/>
@@ -2099,7 +2114,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2110,7 +2125,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="22"/>
@@ -2121,7 +2136,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2132,7 +2147,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2143,7 +2158,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -2154,7 +2169,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2165,7 +2180,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -2176,7 +2191,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2194,21 +2209,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="1"/>
+    <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>287</v>
       </c>
@@ -2219,14 +2234,14 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -2238,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -2250,7 +2265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -2265,7 +2280,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -2277,7 +2292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
@@ -2292,14 +2307,14 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
@@ -2308,7 +2323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>WellHeaderModal</v>
@@ -2317,7 +2332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>DepthConversionModal</v>
@@ -2326,7 +2341,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CurveAliasModal</v>
@@ -2335,7 +2350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>FamilyEditModal</v>
@@ -2344,7 +2359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Input/OutputModal</v>
@@ -2353,7 +2368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIModal</v>
@@ -2362,7 +2377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>
@@ -2371,7 +2386,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASModal</v>
@@ -2380,7 +2395,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASModal</v>
@@ -2389,7 +2404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderModal</v>
@@ -2398,7 +2413,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2407,7 +2422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderModal</v>
@@ -2416,7 +2431,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopModal</v>
@@ -2425,7 +2440,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIModal</v>
@@ -2434,7 +2449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIModal</v>
@@ -2443,7 +2458,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASModal</v>
@@ -2452,7 +2467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASModal</v>
@@ -2461,7 +2476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataModal</v>
@@ -2470,7 +2485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2479,7 +2494,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderModal</v>
@@ -2488,7 +2503,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopModal</v>
@@ -2497,14 +2512,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A65" si="1">SUBSTITUTE(CONCATENATE(B32,"Modal")," ","")</f>
         <v>BlankLogplotModal</v>
@@ -2513,7 +2528,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>TrippleComboModal</v>
@@ -2522,7 +2537,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>DensityNeutronModal</v>
@@ -2531,7 +2546,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>ResistivitySonicModal</v>
@@ -2540,7 +2555,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>3TracksBlankModal</v>
@@ -2549,7 +2564,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>InputCurveModal</v>
@@ -2558,7 +2573,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>Litho+Syn.CurveModal</v>
@@ -2567,7 +2582,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>Syn.CurveModal</v>
@@ -2576,7 +2591,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>CrossPlotModal</v>
@@ -2585,7 +2600,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>BlankCrossPlotModal</v>
@@ -2594,7 +2609,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>SonicPHI_TOTALModal</v>
@@ -2603,7 +2618,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>NeutronDensityModal</v>
@@ -2612,7 +2627,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>NeutronGammaModal</v>
@@ -2621,7 +2636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>SonicGammaModal</v>
@@ -2630,7 +2645,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronSonicModal</v>
@@ -2639,7 +2654,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>DenityGammaModal</v>
@@ -2648,7 +2663,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronRtModal</v>
@@ -2657,7 +2672,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>DensitySonicModal</v>
@@ -2666,7 +2681,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>DensityRtModal</v>
@@ -2675,7 +2690,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>SonicDensityModal</v>
@@ -2684,7 +2699,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>SonicRtModal</v>
@@ -2693,7 +2708,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>RtRx0Modal</v>
@@ -2702,7 +2717,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>PickettModal</v>
@@ -2711,7 +2726,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>HistogramModal</v>
@@ -2720,7 +2735,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>BlankHistogramModal</v>
@@ -2729,7 +2744,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>PHI_TOTALModal</v>
@@ -2738,7 +2753,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>GammaRayModal</v>
@@ -2747,7 +2762,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>NeutronModal</v>
@@ -2756,7 +2771,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>DensityModal</v>
@@ -2765,7 +2780,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>HistogramMoreModal</v>
@@ -2774,7 +2789,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>SonicModal</v>
@@ -2783,7 +2798,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>SallowResistivityModal</v>
@@ -2792,7 +2807,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>DeepResistivityModal</v>
@@ -2801,7 +2816,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>MSFLHistogramModal</v>
@@ -2810,14 +2825,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">SUBSTITUTE(CONCATENATE(B67,"Modal")," ","")</f>
         <v>AddCurveModal</v>
@@ -2826,7 +2841,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveEditModal</v>
@@ -2835,7 +2850,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveBaselineShiftModal</v>
@@ -2844,7 +2859,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurveModal</v>
@@ -2853,7 +2868,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurvesModal</v>
@@ -2862,7 +2877,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveSplitModal</v>
@@ -2871,7 +2886,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>MergeCurvesModal</v>
@@ -2880,7 +2895,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>CurvesHeaderModal</v>
@@ -2889,7 +2904,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>FillDataGapsModal</v>
@@ -2898,7 +2913,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>CurveFilterModal</v>
@@ -2907,7 +2922,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>CurveConvolutionModal</v>
@@ -2916,7 +2931,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>CurveDeconvolutionModal</v>
@@ -2925,7 +2940,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>CurveDerivativeModal</v>
@@ -2934,7 +2949,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>CurveRescaleModal</v>
@@ -2943,7 +2958,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>CurveComrarisonModal</v>
@@ -2952,7 +2967,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>CurveAverageModal</v>
@@ -2961,7 +2976,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FormationResistivityModal</v>
@@ -2970,7 +2985,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Badhole/Coal/SaltModal</v>
@@ -2979,7 +2994,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2988,7 +3003,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2997,7 +3012,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>UserProgramModal</v>
@@ -3006,7 +3021,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>PythonProgramModal</v>
@@ -3015,7 +3030,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>CalculationModal</v>
@@ -3024,7 +3039,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>TVDConversionModal</v>
@@ -3033,7 +3048,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>PCAAnalysisModal</v>
@@ -3042,7 +3057,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Multi-LinearRegressionModal</v>
@@ -3051,7 +3066,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>NeuralNetworkModal</v>
@@ -3060,14 +3075,14 @@
         <v>245</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="str">
         <f t="shared" ref="A95:A116" si="3">SUBSTITUTE(CONCATENATE(B95,"Modal")," ","")</f>
         <v>EditZonesModal</v>
@@ -3076,7 +3091,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
         <v>InputCurvesModal</v>
@@ -3085,7 +3100,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
         <v>InputFuidModal</v>
@@ -3094,7 +3109,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
         <v>BuildMineralParametersModal</v>
@@ -3103,7 +3118,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
         <v>InputMineralZonesModal</v>
@@ -3112,7 +3127,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
         <v>Multi-MineralSolverModal</v>
@@ -3121,7 +3136,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
         <v>ClayMineralsVolumeModal</v>
@@ -3130,7 +3145,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
         <v>Fracture-VugPorosityModal</v>
@@ -3139,7 +3154,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
         <v>OpenPorosityModal</v>
@@ -3148,7 +3163,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>SecondaryPorosityModal</v>
@@ -3157,7 +3172,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
         <v>FracturePorosityModal</v>
@@ -3166,7 +3181,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
         <v>FilteringFractureModal</v>
@@ -3175,7 +3190,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
         <v>Micro&amp;MacroPorosityModal</v>
@@ -3184,7 +3199,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
         <v>WaterSaturationModal</v>
@@ -3193,7 +3208,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
         <v>PermeabilityModal</v>
@@ -3202,7 +3217,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3211,7 +3226,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
         <v>FilteringModal</v>
@@ -3220,7 +3235,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
         <v>ClasticModal</v>
@@ -3229,7 +3244,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
         <v>BasicAnalysisModal</v>
@@ -3238,7 +3253,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
         <v>ClayVolumeModal</v>
@@ -3247,7 +3262,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
         <v>Porosity&amp;WaterSaturationModal</v>
@@ -3256,7 +3271,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3265,14 +3280,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="str">
         <f>SUBSTITUTE(CONCATENATE(B118,"Modal")," ","")</f>
         <v>AboutModal</v>
@@ -3281,7 +3296,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="str">
         <f>SUBSTITUTE(CONCATENATE(B119,"Modal")," ","")</f>
         <v>UnlockModal</v>
@@ -3297,16 +3312,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3320,7 +3335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -3332,7 +3347,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -3343,7 +3358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -3354,7 +3369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -3365,7 +3380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -3376,7 +3391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
@@ -3387,7 +3402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>1.6</v>
       </c>
@@ -3400,12 +3415,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="ProjectTab!A1" display="ProjectTab" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B4" location="WellTab!A1" display="WellTab" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B5" location="DataAnalysisTab!A1" display="DataAnalysisTab" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B6" location="DataProcessingTab!A1" display="DataProcessingTab" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B7" location="PetrophysicsTab!A1" display="PetrophysicsTab" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B8" location="HelpTab!A1" display="HelpTab" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B3" location="ProjectTab!A1" display="ProjectTab"/>
+    <hyperlink ref="B4" location="WellTab!A1" display="WellTab"/>
+    <hyperlink ref="B5" location="DataAnalysisTab!A1" display="DataAnalysisTab"/>
+    <hyperlink ref="B6" location="DataProcessingTab!A1" display="DataProcessingTab"/>
+    <hyperlink ref="B7" location="PetrophysicsTab!A1" display="PetrophysicsTab"/>
+    <hyperlink ref="B8" location="HelpTab!A1" display="HelpTab"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3413,27 +3428,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="6"/>
-    <col min="2" max="2" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3489,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3502,7 +3519,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -3538,38 +3555,38 @@
         <v>298</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L17" si="0">IF(ISNUMBER(SEARCH("16x16",E3)),"fix-button-sm", "height65")</f>
+        <f t="shared" ref="L3:L19" si="0">IF(ISNUMBER(SEARCH("16x16",E3)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f t="shared" ref="B4:B17" si="1">SUBSTITUTE(CONCATENATE(G4,D4)," ","")</f>
+        <f t="shared" ref="B4:B19" si="1">SUBSTITUTE(CONCATENATE(G4,D4)," ","")</f>
         <v>OpenProjectButton</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D17" si="2">REPLACE(C4, 1, 2, "")</f>
+        <f t="shared" ref="D4:D19" si="2">REPLACE(C4, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" ref="F4:F17" si="3">SUBSTITUTE(E4,"_","-")</f>
+        <f t="shared" ref="F4:F19" si="3">SUBSTITUTE(E4,"_","-")</f>
         <v>project-open-32x32</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H17" si="4">IF(ISNUMBER(SEARCH("16x16",E4)), "icon-left","")</f>
+        <f t="shared" ref="H4:H19" si="4">IF(ISNUMBER(SEARCH("16x16",E4)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J4" s="1" t="s">
@@ -3584,7 +3601,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -3625,7 +3642,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -3666,7 +3683,7 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -3708,7 +3725,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -3748,7 +3765,7 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -3788,7 +3805,7 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>202</v>
       </c>
@@ -3828,7 +3845,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>205</v>
       </c>
@@ -3868,7 +3885,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>2</v>
       </c>
@@ -3908,7 +3925,7 @@
       </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>2.1</v>
       </c>
@@ -3948,20 +3965,20 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>WorkflowsButton</v>
+        <v>WorkflowsDropdown</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Button</v>
+        <v>Dropdown</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>47</v>
@@ -3988,15 +4005,14 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>PropertyGridButton</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="1" t="str">
@@ -4004,18 +4020,18 @@
         <v>Button</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>property-grid-32x32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="str">
+        <v>workflow-16x16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>icon-left</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>295</v>
@@ -4023,54 +4039,55 @@
       <c r="K15" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>height65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
-        <v>3</v>
-      </c>
-      <c r="B16" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>ExitToolbar</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="31" t="str">
+      <c r="L15" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Toolbar</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="31" t="str">
+        <v>Button</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>workflow-16x16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="L16" s="31"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>icon-left</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
-        <v>3.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>ExitButton</v>
+        <v>PropertyGridButton</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -4080,14 +4097,14 @@
         <v>Button</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>exit-32x32</v>
+        <v>property-grid-32x32</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="4"/>
@@ -4097,40 +4114,116 @@
         <v>295</v>
       </c>
       <c r="K17" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ExitToolbar</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>Toolbar</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>ExitButton</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>exit-32x32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K19" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v>height65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.15234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.15234375" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1328125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4168,7 +4261,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4197,7 +4290,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -4237,7 +4330,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -4277,7 +4370,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -4317,7 +4410,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -4357,7 +4450,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
@@ -4397,7 +4490,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
@@ -4432,7 +4525,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>2.1</v>
       </c>
@@ -4473,7 +4566,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>65</v>
       </c>
@@ -4512,7 +4605,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>68</v>
       </c>
@@ -4551,7 +4644,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
@@ -4590,7 +4683,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4629,7 +4722,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -4668,7 +4761,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
         <v>78</v>
       </c>
@@ -4707,7 +4800,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>81</v>
       </c>
@@ -4746,7 +4839,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
         <v>84</v>
       </c>
@@ -4785,7 +4878,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>86</v>
       </c>
@@ -4826,7 +4919,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
@@ -4865,7 +4958,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
@@ -4904,7 +4997,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>94</v>
       </c>
@@ -4943,7 +5036,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
         <v>97</v>
       </c>
@@ -4982,7 +5075,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>99</v>
       </c>
@@ -5021,7 +5114,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>101</v>
       </c>
@@ -5060,7 +5153,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -5099,7 +5192,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -5138,7 +5231,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -5149,7 +5242,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -5160,7 +5253,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="20"/>
       <c r="B31" s="24"/>
       <c r="C31" s="21"/>
@@ -5171,7 +5264,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="21"/>
@@ -5182,7 +5275,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="21"/>
@@ -5193,7 +5286,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="21"/>
@@ -5204,7 +5297,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="21"/>
@@ -5215,7 +5308,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="21"/>
@@ -5226,7 +5319,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="21"/>
@@ -5237,7 +5330,7 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="21"/>
@@ -5248,7 +5341,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="21"/>
@@ -5259,7 +5352,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="21"/>
@@ -5270,7 +5363,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="21"/>
@@ -5281,7 +5374,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="21"/>
@@ -5292,7 +5385,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="21"/>
@@ -5303,7 +5396,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="21"/>
@@ -5314,7 +5407,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="21"/>
@@ -5325,7 +5418,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="21"/>
@@ -5336,7 +5429,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="21"/>
@@ -5347,7 +5440,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
@@ -5358,7 +5451,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="21"/>
@@ -5369,7 +5462,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="21"/>
@@ -5380,7 +5473,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="21"/>
@@ -5391,7 +5484,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="21"/>
@@ -5402,7 +5495,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="21"/>
@@ -5413,7 +5506,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="21"/>
@@ -5424,7 +5517,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="21"/>
@@ -5435,7 +5528,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -5446,7 +5539,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -5457,7 +5550,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -5468,7 +5561,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -5479,7 +5572,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -5497,24 +5590,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5552,7 +5645,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -5581,7 +5674,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -5621,7 +5714,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -5661,7 +5754,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -5701,7 +5794,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -5741,7 +5834,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>1.5</v>
       </c>
@@ -5782,7 +5875,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -5821,7 +5914,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
@@ -5860,7 +5953,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>119</v>
       </c>
@@ -5899,7 +5992,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>121</v>
       </c>
@@ -5938,7 +6031,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>123</v>
       </c>
@@ -5977,7 +6070,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -6015,7 +6108,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="8">
         <v>2.1</v>
       </c>
@@ -6055,7 +6148,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -6095,7 +6188,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -6135,7 +6228,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="8">
         <v>2.4</v>
       </c>
@@ -6175,7 +6268,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="8">
         <v>2.5</v>
       </c>
@@ -6215,7 +6308,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>2.6</v>
       </c>
@@ -6256,7 +6349,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
@@ -6295,7 +6388,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>137</v>
       </c>
@@ -6334,7 +6427,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>139</v>
       </c>
@@ -6373,7 +6466,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>142</v>
       </c>
@@ -6412,7 +6505,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>145</v>
       </c>
@@ -6451,7 +6544,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>148</v>
       </c>
@@ -6490,7 +6583,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>151</v>
       </c>
@@ -6529,7 +6622,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
         <v>154</v>
       </c>
@@ -6568,7 +6661,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>157</v>
       </c>
@@ -6607,7 +6700,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
         <v>3</v>
       </c>
@@ -6642,7 +6735,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>238</v>
       </c>
@@ -6682,7 +6775,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>240</v>
       </c>
@@ -6722,7 +6815,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>242</v>
       </c>
@@ -6758,7 +6851,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="8" t="s">
         <v>244</v>
       </c>
@@ -6798,7 +6891,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>349</v>
       </c>
@@ -6838,7 +6931,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="9">
         <v>3.6</v>
       </c>
@@ -6879,7 +6972,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
         <v>170</v>
       </c>
@@ -6918,7 +7011,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
         <v>172</v>
       </c>
@@ -6957,7 +7050,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>174</v>
       </c>
@@ -6996,7 +7089,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -7007,7 +7100,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -7018,7 +7111,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -7029,7 +7122,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -7040,7 +7133,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -7051,7 +7144,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -7062,7 +7155,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -7073,7 +7166,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -7084,7 +7177,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -7095,7 +7188,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -7106,7 +7199,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -7117,7 +7210,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -7128,7 +7221,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -7139,7 +7232,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -7150,7 +7243,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -7161,7 +7254,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -7172,7 +7265,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -7183,7 +7276,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -7194,7 +7287,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -7205,7 +7298,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -7216,7 +7309,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -7227,7 +7320,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -7238,7 +7331,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -7249,7 +7342,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -7260,7 +7353,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -7271,7 +7364,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -7282,7 +7375,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -7293,7 +7386,7 @@
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="20"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -7304,7 +7397,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="20"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -7315,7 +7408,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="20"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -7326,7 +7419,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="20"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -7337,7 +7430,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -7348,7 +7441,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="20"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -7359,7 +7452,7 @@
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -7370,7 +7463,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="20"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -7381,7 +7474,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="20"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -7392,7 +7485,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="20"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -7403,7 +7496,7 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="20"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -7414,7 +7507,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="20"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -7425,7 +7518,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -7436,7 +7529,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -7447,7 +7540,7 @@
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="20"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -7458,7 +7551,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="20"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -7469,7 +7562,7 @@
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -7480,7 +7573,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="20"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -7491,7 +7584,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -7502,7 +7595,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="20"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -7513,7 +7606,7 @@
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -7524,7 +7617,7 @@
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="20"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -7535,7 +7628,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="20"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -7546,7 +7639,7 @@
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -7557,7 +7650,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="20"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -7568,7 +7661,7 @@
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="20"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -7579,7 +7672,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="20"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -7590,7 +7683,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="20"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -7601,7 +7694,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="20"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -7612,7 +7705,7 @@
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="20"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -7623,7 +7716,7 @@
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="20"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -7634,7 +7727,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" s="20"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -7645,7 +7738,7 @@
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="20"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -7656,7 +7749,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" s="20"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -7667,7 +7760,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" s="20"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -7678,7 +7771,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" s="20"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -7689,7 +7782,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" s="20"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -7700,7 +7793,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" s="20"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -7711,7 +7804,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" s="20"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -7722,7 +7815,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" s="20"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -7733,7 +7826,7 @@
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" s="20"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -7744,7 +7837,7 @@
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" s="20"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -7755,7 +7848,7 @@
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" s="20"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -7766,7 +7859,7 @@
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" s="20"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -7777,7 +7870,7 @@
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" s="20"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -7788,7 +7881,7 @@
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" s="20"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -7799,7 +7892,7 @@
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" s="20"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -7810,7 +7903,7 @@
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" s="20"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -7821,7 +7914,7 @@
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" s="20"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -7832,7 +7925,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" s="20"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -7843,7 +7936,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" s="20"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -7854,205 +7947,205 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D119" s="1" t="str">
         <f t="shared" ref="D119:D152" si="7">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D120" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D121" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D122" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D123" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D124" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D125" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D126" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D127" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D128" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D129" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D130" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D131" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D132" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D133" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D134" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D135" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D136" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D137" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D138" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D139" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D140" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D141" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D142" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D143" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D144" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D145" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D146" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D147" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D148" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D149" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D150" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D151" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D152" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -8065,25 +8158,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="6"/>
-    <col min="2" max="2" width="27.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="27.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8121,7 +8214,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8153,7 +8246,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>180</v>
       </c>
@@ -8193,7 +8286,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>183</v>
       </c>
@@ -8233,7 +8326,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>185</v>
       </c>
@@ -8274,7 +8367,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>188</v>
       </c>
@@ -8313,7 +8406,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>190</v>
       </c>
@@ -8352,7 +8445,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>192</v>
       </c>
@@ -8391,7 +8484,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>194</v>
       </c>
@@ -8432,7 +8525,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>197</v>
       </c>
@@ -8471,7 +8564,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>199</v>
       </c>
@@ -8510,7 +8603,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -8550,7 +8643,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>202</v>
       </c>
@@ -8590,7 +8683,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>205</v>
       </c>
@@ -8630,7 +8723,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>208</v>
       </c>
@@ -8670,7 +8763,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>211</v>
       </c>
@@ -8710,7 +8803,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>213</v>
       </c>
@@ -8750,7 +8843,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>215</v>
       </c>
@@ -8790,7 +8883,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>218</v>
       </c>
@@ -8830,7 +8923,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>221</v>
       </c>
@@ -8870,7 +8963,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>224</v>
       </c>
@@ -8910,7 +9003,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>227</v>
       </c>
@@ -8950,7 +9043,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>229</v>
       </c>
@@ -8990,7 +9083,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="33" t="s">
         <v>61</v>
       </c>
@@ -9026,7 +9119,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>232</v>
       </c>
@@ -9066,7 +9159,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>86</v>
       </c>
@@ -9106,7 +9199,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>234</v>
       </c>
@@ -9146,7 +9239,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="35" t="s">
         <v>236</v>
       </c>
@@ -9183,7 +9276,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>238</v>
       </c>
@@ -9223,7 +9316,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>240</v>
       </c>
@@ -9263,7 +9356,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>242</v>
       </c>
@@ -9303,7 +9396,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>244</v>
       </c>
@@ -9343,7 +9436,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -9356,7 +9449,7 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -9369,7 +9462,7 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -9382,7 +9475,7 @@
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="20"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -9395,7 +9488,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -9408,7 +9501,7 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -9421,7 +9514,7 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -9434,7 +9527,7 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -9447,7 +9540,7 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -9460,7 +9553,7 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -9473,7 +9566,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -9486,7 +9579,7 @@
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -9499,7 +9592,7 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -9512,7 +9605,7 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -9525,7 +9618,7 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -9538,7 +9631,7 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -9551,7 +9644,7 @@
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -9564,7 +9657,7 @@
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -9577,7 +9670,7 @@
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -9590,7 +9683,7 @@
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -9603,7 +9696,7 @@
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -9616,7 +9709,7 @@
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -9629,7 +9722,7 @@
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -9642,7 +9735,7 @@
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -9655,7 +9748,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -9668,7 +9761,7 @@
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -9681,7 +9774,7 @@
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -9694,7 +9787,7 @@
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -9707,7 +9800,7 @@
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -9720,7 +9813,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -9733,7 +9826,7 @@
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -9746,7 +9839,7 @@
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -9759,7 +9852,7 @@
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -9772,7 +9865,7 @@
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -9792,24 +9885,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="6"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9847,7 +9940,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -9879,7 +9972,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -9919,7 +10012,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -9959,7 +10052,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -9999,7 +10092,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>1.4</v>
       </c>
@@ -10039,7 +10132,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>1.5</v>
       </c>
@@ -10079,7 +10172,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
@@ -10119,7 +10212,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>1.7</v>
       </c>
@@ -10159,7 +10252,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>1.8</v>
       </c>
@@ -10199,7 +10292,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>1.9</v>
       </c>
@@ -10239,7 +10332,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>213</v>
       </c>
@@ -10279,7 +10372,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>215</v>
       </c>
@@ -10319,7 +10412,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>218</v>
       </c>
@@ -10359,7 +10452,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>221</v>
       </c>
@@ -10399,7 +10492,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>224</v>
       </c>
@@ -10439,7 +10532,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>227</v>
       </c>
@@ -10479,7 +10572,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>229</v>
       </c>
@@ -10519,7 +10612,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>265</v>
       </c>
@@ -10559,7 +10652,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="33">
         <v>2</v>
       </c>
@@ -10595,7 +10688,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="8">
         <v>2.1</v>
       </c>
@@ -10635,7 +10728,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -10675,7 +10768,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -10715,7 +10808,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="8">
         <v>2.4</v>
       </c>
@@ -10755,19 +10848,19 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -10785,7 +10878,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -10803,7 +10896,7 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="21"/>
@@ -10821,7 +10914,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="21"/>
@@ -10839,7 +10932,7 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="21"/>
@@ -10857,7 +10950,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="21"/>
@@ -10875,7 +10968,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="21"/>
@@ -10893,7 +10986,7 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="20"/>
       <c r="B34" s="24"/>
       <c r="C34" s="21"/>
@@ -10911,7 +11004,7 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
       <c r="B35" s="24"/>
       <c r="C35" s="21"/>
@@ -10929,7 +11022,7 @@
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
       <c r="B36" s="24"/>
       <c r="C36" s="21"/>
@@ -10947,7 +11040,7 @@
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="20"/>
       <c r="B37" s="24"/>
       <c r="C37" s="21"/>
@@ -10962,7 +11055,7 @@
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="20"/>
       <c r="B38" s="24"/>
       <c r="C38" s="21"/>
@@ -10977,7 +11070,7 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="20"/>
       <c r="B39" s="24"/>
       <c r="C39" s="21"/>
@@ -10992,7 +11085,7 @@
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="24"/>
       <c r="C40" s="21"/>
@@ -11007,7 +11100,7 @@
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="20"/>
       <c r="B41" s="24"/>
       <c r="C41" s="21"/>
@@ -11022,7 +11115,7 @@
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="20"/>
       <c r="B42" s="24"/>
       <c r="C42" s="21"/>
@@ -11037,7 +11130,7 @@
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="20"/>
       <c r="B43" s="24"/>
       <c r="C43" s="21"/>
@@ -11052,7 +11145,7 @@
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="20"/>
       <c r="B44" s="24"/>
       <c r="C44" s="21"/>
@@ -11067,7 +11160,7 @@
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="20"/>
       <c r="B45" s="24"/>
       <c r="C45" s="21"/>
@@ -11082,7 +11175,7 @@
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="20"/>
       <c r="B46" s="24"/>
       <c r="C46" s="22"/>
@@ -11097,7 +11190,7 @@
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="20"/>
       <c r="B47" s="24"/>
       <c r="C47" s="21"/>
@@ -11112,7 +11205,7 @@
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="20"/>
       <c r="B48" s="24"/>
       <c r="C48" s="21"/>
@@ -11127,7 +11220,7 @@
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="20"/>
       <c r="B49" s="24"/>
       <c r="C49" s="21"/>
@@ -11142,7 +11235,7 @@
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="20"/>
       <c r="B50" s="24"/>
       <c r="C50" s="21"/>
@@ -11157,7 +11250,7 @@
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -11179,21 +11272,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="6"/>
-    <col min="5" max="5" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11231,7 +11324,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -11260,7 +11353,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>180</v>
       </c>
@@ -11299,7 +11392,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -11338,7 +11431,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>1.3</v>
       </c>
@@ -11377,7 +11470,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -11389,7 +11482,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11401,7 +11494,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -11413,7 +11506,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="21"/>
@@ -11425,7 +11518,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="21"/>
@@ -11437,7 +11530,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="21"/>
@@ -11449,7 +11542,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="21"/>
@@ -11461,7 +11554,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
@@ -11479,20 +11572,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="6"/>
-    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11527,7 +11620,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -11556,7 +11649,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -11588,7 +11681,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>1.2</v>
       </c>
@@ -11620,7 +11713,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -11652,7 +11745,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>2.1</v>
       </c>
@@ -11681,7 +11774,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11694,7 +11787,7 @@
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -11707,7 +11800,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -11720,7 +11813,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -11733,7 +11826,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -11746,7 +11839,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -11759,7 +11852,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -11772,7 +11865,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -11785,7 +11878,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/revoltech/wi-angular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22920" windowHeight="14380" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22920" windowHeight="14385" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="362">
   <si>
     <t>Code</t>
   </si>
@@ -1123,12 +1123,15 @@
   </si>
   <si>
     <t>DataProcessing</t>
+  </si>
+  <si>
+    <t>Share Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1314,6 +1317,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1588,9 +1594,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1667,12 +1673,12 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2.1</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -1959,9 +1965,9 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>356</v>
       </c>
@@ -1972,14 +1978,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -1991,7 +1997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -2003,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -2018,7 +2024,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -2030,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
@@ -2045,14 +2051,14 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
@@ -2061,7 +2067,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>WellHeaderModal</v>
@@ -2070,7 +2076,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>DepthConversionModal</v>
@@ -2079,7 +2085,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CurveAliasModal</v>
@@ -2088,7 +2094,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>FamilyEditModal</v>
@@ -2097,7 +2103,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Input/OutputModal</v>
@@ -2106,7 +2112,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIModal</v>
@@ -2115,7 +2121,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>
@@ -2124,7 +2130,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASModal</v>
@@ -2133,7 +2139,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASModal</v>
@@ -2142,7 +2148,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderModal</v>
@@ -2151,7 +2157,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2160,7 +2166,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderModal</v>
@@ -2169,7 +2175,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopModal</v>
@@ -2178,7 +2184,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIModal</v>
@@ -2187,7 +2193,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIModal</v>
@@ -2196,7 +2202,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASModal</v>
@@ -2205,7 +2211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASModal</v>
@@ -2214,7 +2220,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataModal</v>
@@ -2223,7 +2229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2232,7 +2238,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderModal</v>
@@ -2241,7 +2247,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopModal</v>
@@ -2250,14 +2256,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A65" si="1">SUBSTITUTE(CONCATENATE(B32,"Modal")," ","")</f>
         <v>BlankLogplotModal</v>
@@ -2266,7 +2272,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>TrippleComboModal</v>
@@ -2275,7 +2281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>DensityNeutronModal</v>
@@ -2284,7 +2290,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>ResistivitySonicModal</v>
@@ -2293,7 +2299,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>3TracksBlankModal</v>
@@ -2302,7 +2308,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>InputCurveModal</v>
@@ -2311,7 +2317,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>Litho+Syn.CurveModal</v>
@@ -2320,7 +2326,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>Syn.CurveModal</v>
@@ -2329,7 +2335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>CrossPlotModal</v>
@@ -2338,7 +2344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>BlankCrossPlotModal</v>
@@ -2347,7 +2353,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>SonicPHI_TOTALModal</v>
@@ -2356,7 +2362,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>NeutronDensityModal</v>
@@ -2365,7 +2371,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>NeutronGammaModal</v>
@@ -2374,7 +2380,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>SonicGammaModal</v>
@@ -2383,7 +2389,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronSonicModal</v>
@@ -2392,7 +2398,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>DenityGammaModal</v>
@@ -2401,7 +2407,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronRtModal</v>
@@ -2410,7 +2416,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>DensitySonicModal</v>
@@ -2419,7 +2425,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>DensityRtModal</v>
@@ -2428,7 +2434,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>SonicDensityModal</v>
@@ -2437,7 +2443,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>SonicRtModal</v>
@@ -2446,7 +2452,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>RtRx0Modal</v>
@@ -2455,7 +2461,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>PickettModal</v>
@@ -2464,7 +2470,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>HistogramModal</v>
@@ -2473,7 +2479,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>BlankHistogramModal</v>
@@ -2482,7 +2488,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>PHI_TOTALModal</v>
@@ -2491,7 +2497,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>GammaRayModal</v>
@@ -2500,7 +2506,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>NeutronModal</v>
@@ -2509,7 +2515,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>DensityModal</v>
@@ -2518,7 +2524,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>HistogramMoreModal</v>
@@ -2527,7 +2533,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>SonicModal</v>
@@ -2536,7 +2542,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>SallowResistivityModal</v>
@@ -2545,7 +2551,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>DeepResistivityModal</v>
@@ -2554,7 +2560,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>MSFLHistogramModal</v>
@@ -2563,14 +2569,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">SUBSTITUTE(CONCATENATE(B67,"Modal")," ","")</f>
         <v>AddCurveModal</v>
@@ -2579,7 +2585,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveEditModal</v>
@@ -2588,7 +2594,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveBaselineShiftModal</v>
@@ -2597,7 +2603,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurveModal</v>
@@ -2606,7 +2612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurvesModal</v>
@@ -2615,7 +2621,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveSplitModal</v>
@@ -2624,7 +2630,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>MergeCurvesModal</v>
@@ -2633,7 +2639,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>CurvesHeaderModal</v>
@@ -2642,7 +2648,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>FillDataGapsModal</v>
@@ -2651,7 +2657,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>CurveFilterModal</v>
@@ -2660,7 +2666,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>CurveConvolutionModal</v>
@@ -2669,7 +2675,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>CurveDeconvolutionModal</v>
@@ -2678,7 +2684,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>CurveDerivativeModal</v>
@@ -2687,7 +2693,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>CurveRescaleModal</v>
@@ -2696,7 +2702,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>CurveComrarisonModal</v>
@@ -2705,7 +2711,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>CurveAverageModal</v>
@@ -2714,7 +2720,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FormationResistivityModal</v>
@@ -2723,7 +2729,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Badhole/Coal/SaltModal</v>
@@ -2732,7 +2738,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2741,7 +2747,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2750,7 +2756,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>UserProgramModal</v>
@@ -2759,7 +2765,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>PythonProgramModal</v>
@@ -2768,7 +2774,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>CalculationModal</v>
@@ -2777,7 +2783,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>TVDConversionModal</v>
@@ -2786,7 +2792,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>PCAAnalysisModal</v>
@@ -2795,7 +2801,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Multi-LinearRegressionModal</v>
@@ -2804,7 +2810,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>NeuralNetworkModal</v>
@@ -2813,14 +2819,14 @@
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" ref="A95:A116" si="3">SUBSTITUTE(CONCATENATE(B95,"Modal")," ","")</f>
         <v>EditZonesModal</v>
@@ -2829,7 +2835,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
         <v>InputCurvesModal</v>
@@ -2838,7 +2844,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
         <v>InputFuidModal</v>
@@ -2847,7 +2853,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
         <v>BuildMineralParametersModal</v>
@@ -2856,7 +2862,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
         <v>InputMineralZonesModal</v>
@@ -2865,7 +2871,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
         <v>Multi-MineralSolverModal</v>
@@ -2874,7 +2880,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
         <v>ClayMineralsVolumeModal</v>
@@ -2883,7 +2889,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
         <v>Fracture-VugPorosityModal</v>
@@ -2892,7 +2898,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
         <v>OpenPorosityModal</v>
@@ -2901,7 +2907,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>SecondaryPorosityModal</v>
@@ -2910,7 +2916,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
         <v>FracturePorosityModal</v>
@@ -2919,7 +2925,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
         <v>FilteringFractureModal</v>
@@ -2928,7 +2934,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
         <v>Micro&amp;MacroPorosityModal</v>
@@ -2937,7 +2943,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
         <v>WaterSaturationModal</v>
@@ -2946,7 +2952,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
         <v>PermeabilityModal</v>
@@ -2955,7 +2961,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -2964,7 +2970,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
         <v>FilteringModal</v>
@@ -2973,7 +2979,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
         <v>ClasticModal</v>
@@ -2982,7 +2988,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
         <v>BasicAnalysisModal</v>
@@ -2991,7 +2997,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
         <v>ClayVolumeModal</v>
@@ -3000,7 +3006,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
         <v>Porosity&amp;WaterSaturationModal</v>
@@ -3009,7 +3015,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3018,14 +3024,14 @@
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>SUBSTITUTE(CONCATENATE(B118,"Modal")," ","")</f>
         <v>AboutModal</v>
@@ -3034,7 +3040,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>SUBSTITUTE(CONCATENATE(B119,"Modal")," ","")</f>
         <v>UnlockModal</v>
@@ -3057,9 +3063,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3085,7 +3091,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1.2</v>
       </c>
@@ -3107,7 +3113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1.4</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1.6</v>
       </c>
@@ -3170,16 +3176,16 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.4</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>43</v>
       </c>
@@ -3447,13 +3453,13 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>SaveProjectButton</v>
+        <f>SUBSTITUTE(CONCATENATE(G8,D8)," ","")</f>
+        <v>ShareProjectButton</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -3470,7 +3476,7 @@
         <v>save-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>361</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -3486,7 +3492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
@@ -3525,7 +3531,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -3644,7 +3650,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2.1</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -3724,7 +3730,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -3762,7 +3768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>72</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>3</v>
       </c>
@@ -3876,7 +3882,7 @@
       </c>
       <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>3.1</v>
       </c>
@@ -3930,12 +3936,12 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="8.83203125" style="19"/>
+    <col min="10" max="10" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3973,7 +3979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4002,7 +4008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -4042,7 +4048,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1.2</v>
       </c>
@@ -4082,7 +4088,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1.4</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -4202,7 +4208,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
@@ -4237,7 +4243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2.1</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
@@ -4317,7 +4323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>94</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>96</v>
       </c>
@@ -4395,7 +4401,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>99</v>
       </c>
@@ -4434,7 +4440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>101</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>104</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>107</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>110</v>
       </c>
@@ -4590,7 +4596,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>112</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>64</v>
       </c>
@@ -4670,7 +4676,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>68</v>
       </c>
@@ -4709,7 +4715,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>118</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
@@ -4787,7 +4793,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>123</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>125</v>
       </c>
@@ -4865,7 +4871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>126</v>
       </c>
@@ -4904,7 +4910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>128</v>
       </c>
@@ -4957,12 +4963,12 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5029,7 +5035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -5069,7 +5075,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -5149,7 +5155,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.4</v>
       </c>
@@ -5189,7 +5195,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1.5</v>
       </c>
@@ -5230,7 +5236,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
@@ -5308,7 +5314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>146</v>
       </c>
@@ -5347,7 +5353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>149</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>152</v>
       </c>
@@ -5425,7 +5431,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -5463,7 +5469,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2.1</v>
       </c>
@@ -5503,7 +5509,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -5543,7 +5549,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2.4</v>
       </c>
@@ -5623,7 +5629,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>2.5</v>
       </c>
@@ -5663,7 +5669,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2.6</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>167</v>
       </c>
@@ -5743,7 +5749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>170</v>
       </c>
@@ -5782,7 +5788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>172</v>
       </c>
@@ -5821,7 +5827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>175</v>
       </c>
@@ -5860,7 +5866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>178</v>
       </c>
@@ -5899,7 +5905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>181</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>184</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>187</v>
       </c>
@@ -6016,7 +6022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>190</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>194</v>
       </c>
@@ -6130,7 +6136,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>197</v>
       </c>
@@ -6170,7 +6176,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>200</v>
       </c>
@@ -6206,7 +6212,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>203</v>
       </c>
@@ -6246,7 +6252,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>206</v>
       </c>
@@ -6286,7 +6292,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>3.6</v>
       </c>
@@ -6327,7 +6333,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>211</v>
       </c>
@@ -6366,7 +6372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>214</v>
       </c>
@@ -6405,7 +6411,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>217</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -6455,7 +6461,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -6466,7 +6472,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
@@ -6477,7 +6483,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -6488,7 +6494,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -6499,7 +6505,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -6510,7 +6516,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -6521,7 +6527,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
@@ -6532,7 +6538,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -6543,7 +6549,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -6554,7 +6560,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -6565,7 +6571,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -6576,7 +6582,7 @@
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -6587,7 +6593,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
@@ -6598,7 +6604,7 @@
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -6609,7 +6615,7 @@
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -6620,7 +6626,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -6631,7 +6637,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -6642,7 +6648,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -6653,7 +6659,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
@@ -6664,7 +6670,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -6675,7 +6681,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -6686,7 +6692,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -6697,7 +6703,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -6708,7 +6714,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -6719,7 +6725,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -6730,7 +6736,7 @@
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -6741,7 +6747,7 @@
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -6752,7 +6758,7 @@
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -6763,7 +6769,7 @@
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
@@ -6774,7 +6780,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -6785,7 +6791,7 @@
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -6796,7 +6802,7 @@
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -6807,7 +6813,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -6818,7 +6824,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -6829,7 +6835,7 @@
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
@@ -6840,7 +6846,7 @@
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -6851,7 +6857,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -6862,7 +6868,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -6873,7 +6879,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -6884,7 +6890,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -6895,7 +6901,7 @@
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -6906,7 +6912,7 @@
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -6917,7 +6923,7 @@
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -6928,7 +6934,7 @@
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -6939,7 +6945,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -6950,7 +6956,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -6961,7 +6967,7 @@
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -6972,7 +6978,7 @@
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -6983,7 +6989,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -6994,7 +7000,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -7005,7 +7011,7 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -7016,7 +7022,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -7027,7 +7033,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -7038,7 +7044,7 @@
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -7049,7 +7055,7 @@
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -7060,7 +7066,7 @@
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -7071,7 +7077,7 @@
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -7082,7 +7088,7 @@
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -7093,7 +7099,7 @@
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="22"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -7104,7 +7110,7 @@
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -7115,7 +7121,7 @@
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="22"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -7126,7 +7132,7 @@
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="22"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -7137,7 +7143,7 @@
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="22"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -7148,7 +7154,7 @@
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="22"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -7159,7 +7165,7 @@
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="22"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -7170,7 +7176,7 @@
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -7181,7 +7187,7 @@
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -7192,7 +7198,7 @@
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -7203,7 +7209,7 @@
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -7214,7 +7220,7 @@
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -7225,7 +7231,7 @@
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -7236,7 +7242,7 @@
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -7247,7 +7253,7 @@
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -7258,7 +7264,7 @@
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="22"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -7269,7 +7275,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="22"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -7280,7 +7286,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="22"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -7291,7 +7297,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -7302,205 +7308,205 @@
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D119" t="str">
         <f t="shared" ref="D119:D152" si="7">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D120" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D121" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D123" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D124" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D127" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7520,12 +7526,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7563,7 +7569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -7595,7 +7601,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>222</v>
       </c>
@@ -7635,7 +7641,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>225</v>
       </c>
@@ -7675,7 +7681,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>228</v>
       </c>
@@ -7716,7 +7722,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>231</v>
       </c>
@@ -7755,7 +7761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>233</v>
       </c>
@@ -7794,7 +7800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>236</v>
       </c>
@@ -7833,7 +7839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>239</v>
       </c>
@@ -7874,7 +7880,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>242</v>
       </c>
@@ -7913,7 +7919,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>245</v>
       </c>
@@ -7952,7 +7958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>53</v>
       </c>
@@ -8032,7 +8038,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>56</v>
       </c>
@@ -8072,7 +8078,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>254</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>257</v>
       </c>
@@ -8152,7 +8158,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>260</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>263</v>
       </c>
@@ -8232,7 +8238,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>266</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>269</v>
       </c>
@@ -8312,7 +8318,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>272</v>
       </c>
@@ -8352,7 +8358,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>275</v>
       </c>
@@ -8392,7 +8398,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>278</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>88</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>283</v>
       </c>
@@ -8508,7 +8514,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>112</v>
       </c>
@@ -8548,7 +8554,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
@@ -8588,7 +8594,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>289</v>
       </c>
@@ -8624,7 +8630,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>194</v>
       </c>
@@ -8664,7 +8670,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>197</v>
       </c>
@@ -8704,7 +8710,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>200</v>
       </c>
@@ -8744,7 +8750,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>203</v>
       </c>
@@ -8798,12 +8804,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8841,7 +8847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -8873,7 +8879,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -8913,7 +8919,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -8953,7 +8959,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -8993,7 +8999,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.4</v>
       </c>
@@ -9033,7 +9039,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1.5</v>
       </c>
@@ -9073,7 +9079,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1.6</v>
       </c>
@@ -9113,7 +9119,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1.7</v>
       </c>
@@ -9153,7 +9159,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1.8</v>
       </c>
@@ -9193,7 +9199,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>1.9</v>
       </c>
@@ -9233,7 +9239,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>260</v>
       </c>
@@ -9273,7 +9279,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>263</v>
       </c>
@@ -9313,7 +9319,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>266</v>
       </c>
@@ -9353,7 +9359,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>269</v>
       </c>
@@ -9393,7 +9399,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>272</v>
       </c>
@@ -9433,7 +9439,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>275</v>
       </c>
@@ -9473,7 +9479,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>278</v>
       </c>
@@ -9513,7 +9519,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>332</v>
       </c>
@@ -9553,7 +9559,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>2</v>
       </c>
@@ -9589,7 +9595,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2.1</v>
       </c>
@@ -9629,7 +9635,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -9669,7 +9675,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -9709,7 +9715,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>2.4</v>
       </c>
@@ -9749,21 +9755,21 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -9781,7 +9787,7 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -9799,7 +9805,7 @@
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
@@ -9817,7 +9823,7 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="19"/>
@@ -9835,7 +9841,7 @@
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="19"/>
@@ -9853,7 +9859,7 @@
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="19"/>
@@ -9871,7 +9877,7 @@
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="19"/>
@@ -9889,7 +9895,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="25"/>
       <c r="C34" s="19"/>
@@ -9907,7 +9913,7 @@
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="25"/>
       <c r="C35" s="19"/>
@@ -9925,7 +9931,7 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="25"/>
       <c r="C36" s="19"/>
@@ -9957,12 +9963,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10000,7 +10006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -10029,7 +10035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>222</v>
       </c>
@@ -10068,7 +10074,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -10107,7 +10113,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -10160,12 +10166,12 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10200,7 +10206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -10229,7 +10235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -10261,7 +10267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -10293,7 +10299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -10325,7 +10331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2.1</v>
       </c>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/revoltech/wi-angular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\workspace\new\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22920" windowHeight="14380" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22920" windowHeight="14385" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,8 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="364">
   <si>
     <t>Code</t>
   </si>
@@ -1123,6 +1120,15 @@
   </si>
   <si>
     <t>DataProcessing</t>
+  </si>
+  <si>
+    <t>ExportToolButton</t>
+  </si>
+  <si>
+    <t>export-well-top-32x32</t>
+  </si>
+  <si>
+    <t>Export Tool</t>
   </si>
 </sst>
 </file>
@@ -1241,8 +1247,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1314,6 +1348,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1588,9 +1625,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1615,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1626,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1637,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1667,12 +1704,12 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1736,7 +1773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1768,7 +1805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -1800,7 +1837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1832,7 +1869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2.1</v>
       </c>
@@ -1864,7 +1901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -1890,7 +1927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -1916,7 +1953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -1959,9 +1996,9 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>356</v>
       </c>
@@ -1972,14 +2009,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -1991,7 +2028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -2003,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -2018,7 +2055,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -2030,7 +2067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
@@ -2045,14 +2082,14 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
@@ -2061,7 +2098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>WellHeaderModal</v>
@@ -2070,7 +2107,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>DepthConversionModal</v>
@@ -2079,7 +2116,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CurveAliasModal</v>
@@ -2088,7 +2125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>FamilyEditModal</v>
@@ -2097,7 +2134,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Input/OutputModal</v>
@@ -2106,7 +2143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIModal</v>
@@ -2115,7 +2152,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>
@@ -2124,7 +2161,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASModal</v>
@@ -2133,7 +2170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASModal</v>
@@ -2142,7 +2179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderModal</v>
@@ -2151,7 +2188,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2160,7 +2197,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderModal</v>
@@ -2169,7 +2206,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopModal</v>
@@ -2178,7 +2215,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIModal</v>
@@ -2187,7 +2224,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIModal</v>
@@ -2196,7 +2233,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASModal</v>
@@ -2205,7 +2242,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASModal</v>
@@ -2214,7 +2251,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataModal</v>
@@ -2223,7 +2260,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2232,7 +2269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderModal</v>
@@ -2241,7 +2278,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopModal</v>
@@ -2250,14 +2287,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A65" si="1">SUBSTITUTE(CONCATENATE(B32,"Modal")," ","")</f>
         <v>BlankLogplotModal</v>
@@ -2266,7 +2303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>TrippleComboModal</v>
@@ -2275,7 +2312,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>DensityNeutronModal</v>
@@ -2284,7 +2321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>ResistivitySonicModal</v>
@@ -2293,7 +2330,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>3TracksBlankModal</v>
@@ -2302,7 +2339,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>InputCurveModal</v>
@@ -2311,7 +2348,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>Litho+Syn.CurveModal</v>
@@ -2320,7 +2357,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>Syn.CurveModal</v>
@@ -2329,7 +2366,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>CrossPlotModal</v>
@@ -2338,7 +2375,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>BlankCrossPlotModal</v>
@@ -2347,7 +2384,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>SonicPHI_TOTALModal</v>
@@ -2356,7 +2393,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>NeutronDensityModal</v>
@@ -2365,7 +2402,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>NeutronGammaModal</v>
@@ -2374,7 +2411,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>SonicGammaModal</v>
@@ -2383,7 +2420,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronSonicModal</v>
@@ -2392,7 +2429,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>DenityGammaModal</v>
@@ -2401,7 +2438,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronRtModal</v>
@@ -2410,7 +2447,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>DensitySonicModal</v>
@@ -2419,7 +2456,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>DensityRtModal</v>
@@ -2428,7 +2465,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>SonicDensityModal</v>
@@ -2437,7 +2474,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>SonicRtModal</v>
@@ -2446,7 +2483,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>RtRx0Modal</v>
@@ -2455,7 +2492,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>PickettModal</v>
@@ -2464,7 +2501,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>HistogramModal</v>
@@ -2473,7 +2510,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>BlankHistogramModal</v>
@@ -2482,7 +2519,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>PHI_TOTALModal</v>
@@ -2491,7 +2528,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>GammaRayModal</v>
@@ -2500,7 +2537,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>NeutronModal</v>
@@ -2509,7 +2546,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>DensityModal</v>
@@ -2518,7 +2555,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>HistogramMoreModal</v>
@@ -2527,7 +2564,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>SonicModal</v>
@@ -2536,7 +2573,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>SallowResistivityModal</v>
@@ -2545,7 +2582,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>DeepResistivityModal</v>
@@ -2554,7 +2591,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>MSFLHistogramModal</v>
@@ -2563,14 +2600,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">SUBSTITUTE(CONCATENATE(B67,"Modal")," ","")</f>
         <v>AddCurveModal</v>
@@ -2579,7 +2616,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveEditModal</v>
@@ -2588,7 +2625,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveBaselineShiftModal</v>
@@ -2597,7 +2634,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurveModal</v>
@@ -2606,7 +2643,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurvesModal</v>
@@ -2615,7 +2652,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveSplitModal</v>
@@ -2624,7 +2661,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>MergeCurvesModal</v>
@@ -2633,7 +2670,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>CurvesHeaderModal</v>
@@ -2642,7 +2679,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>FillDataGapsModal</v>
@@ -2651,7 +2688,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>CurveFilterModal</v>
@@ -2660,7 +2697,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>CurveConvolutionModal</v>
@@ -2669,7 +2706,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>CurveDeconvolutionModal</v>
@@ -2678,7 +2715,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>CurveDerivativeModal</v>
@@ -2687,7 +2724,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>CurveRescaleModal</v>
@@ -2696,7 +2733,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>CurveComrarisonModal</v>
@@ -2705,7 +2742,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>CurveAverageModal</v>
@@ -2714,7 +2751,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FormationResistivityModal</v>
@@ -2723,7 +2760,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Badhole/Coal/SaltModal</v>
@@ -2732,7 +2769,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2741,7 +2778,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2750,7 +2787,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>UserProgramModal</v>
@@ -2759,7 +2796,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>PythonProgramModal</v>
@@ -2768,7 +2805,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>CalculationModal</v>
@@ -2777,7 +2814,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>TVDConversionModal</v>
@@ -2786,7 +2823,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>PCAAnalysisModal</v>
@@ -2795,7 +2832,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Multi-LinearRegressionModal</v>
@@ -2804,7 +2841,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>NeuralNetworkModal</v>
@@ -2813,14 +2850,14 @@
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" ref="A95:A116" si="3">SUBSTITUTE(CONCATENATE(B95,"Modal")," ","")</f>
         <v>EditZonesModal</v>
@@ -2829,7 +2866,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
         <v>InputCurvesModal</v>
@@ -2838,7 +2875,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
         <v>InputFuidModal</v>
@@ -2847,7 +2884,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
         <v>BuildMineralParametersModal</v>
@@ -2856,7 +2893,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
         <v>InputMineralZonesModal</v>
@@ -2865,7 +2902,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
         <v>Multi-MineralSolverModal</v>
@@ -2874,7 +2911,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
         <v>ClayMineralsVolumeModal</v>
@@ -2883,7 +2920,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
         <v>Fracture-VugPorosityModal</v>
@@ -2892,7 +2929,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
         <v>OpenPorosityModal</v>
@@ -2901,7 +2938,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>SecondaryPorosityModal</v>
@@ -2910,7 +2947,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
         <v>FracturePorosityModal</v>
@@ -2919,7 +2956,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
         <v>FilteringFractureModal</v>
@@ -2928,7 +2965,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
         <v>Micro&amp;MacroPorosityModal</v>
@@ -2937,7 +2974,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
         <v>WaterSaturationModal</v>
@@ -2946,7 +2983,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
         <v>PermeabilityModal</v>
@@ -2955,7 +2992,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -2964,7 +3001,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
         <v>FilteringModal</v>
@@ -2973,7 +3010,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
         <v>ClasticModal</v>
@@ -2982,7 +3019,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
         <v>BasicAnalysisModal</v>
@@ -2991,7 +3028,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
         <v>ClayVolumeModal</v>
@@ -3000,7 +3037,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
         <v>Porosity&amp;WaterSaturationModal</v>
@@ -3009,7 +3046,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3018,14 +3055,14 @@
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>SUBSTITUTE(CONCATENATE(B118,"Modal")," ","")</f>
         <v>AboutModal</v>
@@ -3034,7 +3071,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>SUBSTITUTE(CONCATENATE(B119,"Modal")," ","")</f>
         <v>UnlockModal</v>
@@ -3057,9 +3094,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3085,7 +3122,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -3096,7 +3133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1.2</v>
       </c>
@@ -3107,7 +3144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -3118,7 +3155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1.4</v>
       </c>
@@ -3129,7 +3166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -3140,7 +3177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1.6</v>
       </c>
@@ -3167,19 +3204,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3229,7 +3269,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D19" si="1">REPLACE(C2, 1, 2, "")</f>
+        <f t="shared" ref="D2:D20" si="1">REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
       <c r="E2" s="2"/>
@@ -3246,7 +3286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -3265,14 +3305,14 @@
         <v>34</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F19" si="2">SUBSTITUTE(E3,"_","-")</f>
+        <f t="shared" ref="F3:F20" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>project-new-32x32</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H19" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
+        <f t="shared" ref="H3:H20" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J3" t="s">
@@ -3286,7 +3326,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -3326,7 +3366,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -3366,7 +3406,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.4</v>
       </c>
@@ -3406,7 +3446,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>43</v>
       </c>
@@ -3447,7 +3487,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
@@ -3486,7 +3526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
@@ -3525,7 +3565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
@@ -3565,7 +3605,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
@@ -3605,7 +3645,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -3644,7 +3684,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2.1</v>
       </c>
@@ -3684,7 +3724,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -3724,7 +3764,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -3762,7 +3802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -3800,119 +3840,157 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>export-well-top-32x32</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="H17" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" ref="B17:B19" si="4">SUBSTITUTE(CONCATENATE(G17,D17)," ","")</f>
+      <c r="B18" s="3" t="str">
+        <f t="shared" ref="B18:B20" si="4">SUBSTITUTE(CONCATENATE(G18,D18)," ","")</f>
         <v>PropertyGridButton</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E18" t="s">
         <v>73</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>property-grid-32x32</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>74</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E17)),"fix-button-sm", "height65")</f>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E18)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="17" t="str">
+      <c r="B19" s="17" t="str">
         <f t="shared" si="4"/>
         <v>ExitToolbar</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="18" t="str">
+      <c r="D19" s="18" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="H19" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>3.1</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>ExitButton</v>
       </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E20" t="s">
         <v>76</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>exit-32x32</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>75</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
         <v>36</v>
       </c>
-      <c r="L19" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E19)),"fix-button-sm", "height65")</f>
+      <c r="L20" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E20)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
@@ -3930,12 +4008,12 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="8.83203125" style="19"/>
+    <col min="10" max="10" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3973,7 +4051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4002,7 +4080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -4042,7 +4120,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1.2</v>
       </c>
@@ -4082,7 +4160,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -4122,7 +4200,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1.4</v>
       </c>
@@ -4162,7 +4240,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -4202,7 +4280,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
@@ -4237,7 +4315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2.1</v>
       </c>
@@ -4278,7 +4356,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
@@ -4317,7 +4395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>94</v>
       </c>
@@ -4356,7 +4434,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>96</v>
       </c>
@@ -4395,7 +4473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>99</v>
       </c>
@@ -4434,7 +4512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>101</v>
       </c>
@@ -4473,7 +4551,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>104</v>
       </c>
@@ -4512,7 +4590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>107</v>
       </c>
@@ -4551,7 +4629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>110</v>
       </c>
@@ -4590,7 +4668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>112</v>
       </c>
@@ -4631,7 +4709,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>64</v>
       </c>
@@ -4670,7 +4748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>68</v>
       </c>
@@ -4709,7 +4787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>118</v>
       </c>
@@ -4748,7 +4826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
@@ -4787,7 +4865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>123</v>
       </c>
@@ -4826,7 +4904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>125</v>
       </c>
@@ -4865,7 +4943,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>126</v>
       </c>
@@ -4904,7 +4982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>128</v>
       </c>
@@ -4957,12 +5035,12 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5000,7 +5078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5029,7 +5107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -5069,7 +5147,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -5109,7 +5187,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -5149,7 +5227,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.4</v>
       </c>
@@ -5189,7 +5267,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1.5</v>
       </c>
@@ -5230,7 +5308,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
@@ -5269,7 +5347,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
@@ -5308,7 +5386,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>146</v>
       </c>
@@ -5347,7 +5425,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>149</v>
       </c>
@@ -5386,7 +5464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>152</v>
       </c>
@@ -5425,7 +5503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -5463,7 +5541,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2.1</v>
       </c>
@@ -5503,7 +5581,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -5543,7 +5621,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -5583,7 +5661,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2.4</v>
       </c>
@@ -5623,7 +5701,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>2.5</v>
       </c>
@@ -5663,7 +5741,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2.6</v>
       </c>
@@ -5704,7 +5782,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>167</v>
       </c>
@@ -5743,7 +5821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>170</v>
       </c>
@@ -5782,7 +5860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>172</v>
       </c>
@@ -5821,7 +5899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>175</v>
       </c>
@@ -5860,7 +5938,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>178</v>
       </c>
@@ -5899,7 +5977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>181</v>
       </c>
@@ -5938,7 +6016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>184</v>
       </c>
@@ -5977,7 +6055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>187</v>
       </c>
@@ -6016,7 +6094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>190</v>
       </c>
@@ -6055,7 +6133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -6090,7 +6168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>194</v>
       </c>
@@ -6130,7 +6208,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>197</v>
       </c>
@@ -6170,7 +6248,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>200</v>
       </c>
@@ -6206,7 +6284,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>203</v>
       </c>
@@ -6246,7 +6324,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>206</v>
       </c>
@@ -6286,7 +6364,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>3.6</v>
       </c>
@@ -6327,7 +6405,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>211</v>
       </c>
@@ -6366,7 +6444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>214</v>
       </c>
@@ -6405,7 +6483,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>217</v>
       </c>
@@ -6444,7 +6522,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -6455,7 +6533,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -6466,7 +6544,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
@@ -6477,7 +6555,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -6488,7 +6566,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -6499,7 +6577,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -6510,7 +6588,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -6521,7 +6599,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
@@ -6532,7 +6610,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -6543,7 +6621,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -6554,7 +6632,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -6565,7 +6643,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -6576,7 +6654,7 @@
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -6587,7 +6665,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
@@ -6598,7 +6676,7 @@
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -6609,7 +6687,7 @@
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -6620,7 +6698,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -6631,7 +6709,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -6642,7 +6720,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -6653,7 +6731,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
@@ -6664,7 +6742,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -6675,7 +6753,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -6686,7 +6764,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -6697,7 +6775,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -6708,7 +6786,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -6719,7 +6797,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -6730,7 +6808,7 @@
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -6741,7 +6819,7 @@
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -6752,7 +6830,7 @@
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -6763,7 +6841,7 @@
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
@@ -6774,7 +6852,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -6785,7 +6863,7 @@
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -6796,7 +6874,7 @@
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -6807,7 +6885,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -6818,7 +6896,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -6829,7 +6907,7 @@
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
@@ -6840,7 +6918,7 @@
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -6851,7 +6929,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -6862,7 +6940,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -6873,7 +6951,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -6884,7 +6962,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -6895,7 +6973,7 @@
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -6906,7 +6984,7 @@
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -6917,7 +6995,7 @@
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -6928,7 +7006,7 @@
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -6939,7 +7017,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -6950,7 +7028,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -6961,7 +7039,7 @@
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -6972,7 +7050,7 @@
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -6983,7 +7061,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -6994,7 +7072,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -7005,7 +7083,7 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -7016,7 +7094,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -7027,7 +7105,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -7038,7 +7116,7 @@
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -7049,7 +7127,7 @@
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -7060,7 +7138,7 @@
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -7071,7 +7149,7 @@
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -7082,7 +7160,7 @@
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -7093,7 +7171,7 @@
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="22"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -7104,7 +7182,7 @@
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -7115,7 +7193,7 @@
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="22"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -7126,7 +7204,7 @@
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="22"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -7137,7 +7215,7 @@
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="22"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -7148,7 +7226,7 @@
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="22"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -7159,7 +7237,7 @@
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="22"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -7170,7 +7248,7 @@
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -7181,7 +7259,7 @@
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -7192,7 +7270,7 @@
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -7203,7 +7281,7 @@
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -7214,7 +7292,7 @@
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -7225,7 +7303,7 @@
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -7236,7 +7314,7 @@
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -7247,7 +7325,7 @@
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -7258,7 +7336,7 @@
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="22"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -7269,7 +7347,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="22"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -7280,7 +7358,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="22"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -7291,7 +7369,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -7302,205 +7380,205 @@
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D119" t="str">
         <f t="shared" ref="D119:D152" si="7">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D120" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D121" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D123" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D124" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D127" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7520,12 +7598,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7563,7 +7641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -7595,7 +7673,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>222</v>
       </c>
@@ -7635,7 +7713,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>225</v>
       </c>
@@ -7675,7 +7753,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>228</v>
       </c>
@@ -7716,7 +7794,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>231</v>
       </c>
@@ -7755,7 +7833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>233</v>
       </c>
@@ -7794,7 +7872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>236</v>
       </c>
@@ -7833,7 +7911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>239</v>
       </c>
@@ -7874,7 +7952,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>242</v>
       </c>
@@ -7913,7 +7991,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>245</v>
       </c>
@@ -7952,7 +8030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
@@ -7992,7 +8070,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>53</v>
       </c>
@@ -8032,7 +8110,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>56</v>
       </c>
@@ -8072,7 +8150,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>254</v>
       </c>
@@ -8112,7 +8190,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>257</v>
       </c>
@@ -8152,7 +8230,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>260</v>
       </c>
@@ -8192,7 +8270,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>263</v>
       </c>
@@ -8232,7 +8310,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>266</v>
       </c>
@@ -8272,7 +8350,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>269</v>
       </c>
@@ -8312,7 +8390,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>272</v>
       </c>
@@ -8352,7 +8430,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>275</v>
       </c>
@@ -8392,7 +8470,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>278</v>
       </c>
@@ -8432,7 +8510,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>88</v>
       </c>
@@ -8468,7 +8546,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>283</v>
       </c>
@@ -8508,7 +8586,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>112</v>
       </c>
@@ -8548,7 +8626,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
@@ -8588,7 +8666,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>289</v>
       </c>
@@ -8624,7 +8702,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>194</v>
       </c>
@@ -8664,7 +8742,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>197</v>
       </c>
@@ -8704,7 +8782,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>200</v>
       </c>
@@ -8744,7 +8822,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>203</v>
       </c>
@@ -8798,12 +8876,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8841,7 +8919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -8873,7 +8951,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -8913,7 +8991,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -8953,7 +9031,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -8993,7 +9071,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.4</v>
       </c>
@@ -9033,7 +9111,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1.5</v>
       </c>
@@ -9073,7 +9151,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1.6</v>
       </c>
@@ -9113,7 +9191,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1.7</v>
       </c>
@@ -9153,7 +9231,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1.8</v>
       </c>
@@ -9193,7 +9271,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>1.9</v>
       </c>
@@ -9233,7 +9311,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>260</v>
       </c>
@@ -9273,7 +9351,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>263</v>
       </c>
@@ -9313,7 +9391,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>266</v>
       </c>
@@ -9353,7 +9431,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>269</v>
       </c>
@@ -9393,7 +9471,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>272</v>
       </c>
@@ -9433,7 +9511,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>275</v>
       </c>
@@ -9473,7 +9551,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>278</v>
       </c>
@@ -9513,7 +9591,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>332</v>
       </c>
@@ -9553,7 +9631,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>2</v>
       </c>
@@ -9589,7 +9667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2.1</v>
       </c>
@@ -9629,7 +9707,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -9669,7 +9747,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -9709,7 +9787,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>2.4</v>
       </c>
@@ -9749,21 +9827,21 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -9781,7 +9859,7 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -9799,7 +9877,7 @@
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
@@ -9817,7 +9895,7 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="19"/>
@@ -9835,7 +9913,7 @@
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="19"/>
@@ -9853,7 +9931,7 @@
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="19"/>
@@ -9871,7 +9949,7 @@
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="19"/>
@@ -9889,7 +9967,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="25"/>
       <c r="C34" s="19"/>
@@ -9907,7 +9985,7 @@
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="25"/>
       <c r="C35" s="19"/>
@@ -9925,7 +10003,7 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="25"/>
       <c r="C36" s="19"/>
@@ -9957,12 +10035,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10000,7 +10078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -10029,7 +10107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>222</v>
       </c>
@@ -10068,7 +10146,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -10107,7 +10185,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -10160,12 +10238,12 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10200,7 +10278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -10229,7 +10307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -10261,7 +10339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -10293,7 +10371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -10325,7 +10403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2.1</v>
       </c>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -3207,7 +3207,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/revoltech/wi-angular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\workspace\new\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22920" windowHeight="14380" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22920" windowHeight="14385" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,8 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="364">
   <si>
     <t>Code</t>
   </si>
@@ -1123,6 +1120,15 @@
   </si>
   <si>
     <t>DataProcessing</t>
+  </si>
+  <si>
+    <t>ExportToolButton</t>
+  </si>
+  <si>
+    <t>export-well-top-32x32</t>
+  </si>
+  <si>
+    <t>Export Tool</t>
   </si>
 </sst>
 </file>
@@ -1241,8 +1247,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1314,6 +1348,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1588,9 +1625,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1615,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1626,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1637,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1667,12 +1704,12 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1736,7 +1773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1768,7 +1805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -1800,7 +1837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1832,7 +1869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2.1</v>
       </c>
@@ -1864,7 +1901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -1890,7 +1927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -1916,7 +1953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -1959,9 +1996,9 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>356</v>
       </c>
@@ -1972,14 +2009,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -1991,7 +2028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -2003,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -2018,7 +2055,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -2030,7 +2067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
@@ -2045,14 +2082,14 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
@@ -2061,7 +2098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>WellHeaderModal</v>
@@ -2070,7 +2107,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>DepthConversionModal</v>
@@ -2079,7 +2116,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CurveAliasModal</v>
@@ -2088,7 +2125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>FamilyEditModal</v>
@@ -2097,7 +2134,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Input/OutputModal</v>
@@ -2106,7 +2143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIModal</v>
@@ -2115,7 +2152,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>
@@ -2124,7 +2161,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASModal</v>
@@ -2133,7 +2170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASModal</v>
@@ -2142,7 +2179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderModal</v>
@@ -2151,7 +2188,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2160,7 +2197,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderModal</v>
@@ -2169,7 +2206,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopModal</v>
@@ -2178,7 +2215,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIModal</v>
@@ -2187,7 +2224,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIModal</v>
@@ -2196,7 +2233,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASModal</v>
@@ -2205,7 +2242,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASModal</v>
@@ -2214,7 +2251,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataModal</v>
@@ -2223,7 +2260,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2232,7 +2269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderModal</v>
@@ -2241,7 +2278,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopModal</v>
@@ -2250,14 +2287,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A65" si="1">SUBSTITUTE(CONCATENATE(B32,"Modal")," ","")</f>
         <v>BlankLogplotModal</v>
@@ -2266,7 +2303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>TrippleComboModal</v>
@@ -2275,7 +2312,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>DensityNeutronModal</v>
@@ -2284,7 +2321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>ResistivitySonicModal</v>
@@ -2293,7 +2330,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>3TracksBlankModal</v>
@@ -2302,7 +2339,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>InputCurveModal</v>
@@ -2311,7 +2348,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>Litho+Syn.CurveModal</v>
@@ -2320,7 +2357,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>Syn.CurveModal</v>
@@ -2329,7 +2366,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>CrossPlotModal</v>
@@ -2338,7 +2375,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>BlankCrossPlotModal</v>
@@ -2347,7 +2384,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>SonicPHI_TOTALModal</v>
@@ -2356,7 +2393,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>NeutronDensityModal</v>
@@ -2365,7 +2402,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>NeutronGammaModal</v>
@@ -2374,7 +2411,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>SonicGammaModal</v>
@@ -2383,7 +2420,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronSonicModal</v>
@@ -2392,7 +2429,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>DenityGammaModal</v>
@@ -2401,7 +2438,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronRtModal</v>
@@ -2410,7 +2447,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>DensitySonicModal</v>
@@ -2419,7 +2456,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>DensityRtModal</v>
@@ -2428,7 +2465,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>SonicDensityModal</v>
@@ -2437,7 +2474,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>SonicRtModal</v>
@@ -2446,7 +2483,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>RtRx0Modal</v>
@@ -2455,7 +2492,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>PickettModal</v>
@@ -2464,7 +2501,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>HistogramModal</v>
@@ -2473,7 +2510,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>BlankHistogramModal</v>
@@ -2482,7 +2519,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>PHI_TOTALModal</v>
@@ -2491,7 +2528,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>GammaRayModal</v>
@@ -2500,7 +2537,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>NeutronModal</v>
@@ -2509,7 +2546,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>DensityModal</v>
@@ -2518,7 +2555,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>HistogramMoreModal</v>
@@ -2527,7 +2564,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>SonicModal</v>
@@ -2536,7 +2573,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>SallowResistivityModal</v>
@@ -2545,7 +2582,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>DeepResistivityModal</v>
@@ -2554,7 +2591,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>MSFLHistogramModal</v>
@@ -2563,14 +2600,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">SUBSTITUTE(CONCATENATE(B67,"Modal")," ","")</f>
         <v>AddCurveModal</v>
@@ -2579,7 +2616,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveEditModal</v>
@@ -2588,7 +2625,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveBaselineShiftModal</v>
@@ -2597,7 +2634,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurveModal</v>
@@ -2606,7 +2643,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurvesModal</v>
@@ -2615,7 +2652,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveSplitModal</v>
@@ -2624,7 +2661,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>MergeCurvesModal</v>
@@ -2633,7 +2670,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>CurvesHeaderModal</v>
@@ -2642,7 +2679,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>FillDataGapsModal</v>
@@ -2651,7 +2688,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>CurveFilterModal</v>
@@ -2660,7 +2697,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>CurveConvolutionModal</v>
@@ -2669,7 +2706,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>CurveDeconvolutionModal</v>
@@ -2678,7 +2715,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>CurveDerivativeModal</v>
@@ -2687,7 +2724,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>CurveRescaleModal</v>
@@ -2696,7 +2733,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>CurveComrarisonModal</v>
@@ -2705,7 +2742,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>CurveAverageModal</v>
@@ -2714,7 +2751,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FormationResistivityModal</v>
@@ -2723,7 +2760,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Badhole/Coal/SaltModal</v>
@@ -2732,7 +2769,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2741,7 +2778,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
@@ -2750,7 +2787,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>UserProgramModal</v>
@@ -2759,7 +2796,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>PythonProgramModal</v>
@@ -2768,7 +2805,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>CalculationModal</v>
@@ -2777,7 +2814,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>TVDConversionModal</v>
@@ -2786,7 +2823,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>PCAAnalysisModal</v>
@@ -2795,7 +2832,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Multi-LinearRegressionModal</v>
@@ -2804,7 +2841,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>NeuralNetworkModal</v>
@@ -2813,14 +2850,14 @@
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" ref="A95:A116" si="3">SUBSTITUTE(CONCATENATE(B95,"Modal")," ","")</f>
         <v>EditZonesModal</v>
@@ -2829,7 +2866,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
         <v>InputCurvesModal</v>
@@ -2838,7 +2875,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
         <v>InputFuidModal</v>
@@ -2847,7 +2884,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
         <v>BuildMineralParametersModal</v>
@@ -2856,7 +2893,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
         <v>InputMineralZonesModal</v>
@@ -2865,7 +2902,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
         <v>Multi-MineralSolverModal</v>
@@ -2874,7 +2911,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
         <v>ClayMineralsVolumeModal</v>
@@ -2883,7 +2920,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
         <v>Fracture-VugPorosityModal</v>
@@ -2892,7 +2929,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
         <v>OpenPorosityModal</v>
@@ -2901,7 +2938,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>SecondaryPorosityModal</v>
@@ -2910,7 +2947,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
         <v>FracturePorosityModal</v>
@@ -2919,7 +2956,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
         <v>FilteringFractureModal</v>
@@ -2928,7 +2965,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
         <v>Micro&amp;MacroPorosityModal</v>
@@ -2937,7 +2974,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
         <v>WaterSaturationModal</v>
@@ -2946,7 +2983,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
         <v>PermeabilityModal</v>
@@ -2955,7 +2992,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -2964,7 +3001,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
         <v>FilteringModal</v>
@@ -2973,7 +3010,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
         <v>ClasticModal</v>
@@ -2982,7 +3019,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
         <v>BasicAnalysisModal</v>
@@ -2991,7 +3028,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
         <v>ClayVolumeModal</v>
@@ -3000,7 +3037,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
         <v>Porosity&amp;WaterSaturationModal</v>
@@ -3009,7 +3046,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
@@ -3018,14 +3055,14 @@
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>SUBSTITUTE(CONCATENATE(B118,"Modal")," ","")</f>
         <v>AboutModal</v>
@@ -3034,7 +3071,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>SUBSTITUTE(CONCATENATE(B119,"Modal")," ","")</f>
         <v>UnlockModal</v>
@@ -3057,9 +3094,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3085,7 +3122,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -3096,7 +3133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1.2</v>
       </c>
@@ -3107,7 +3144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -3118,7 +3155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1.4</v>
       </c>
@@ -3129,7 +3166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -3140,7 +3177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1.6</v>
       </c>
@@ -3167,19 +3204,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3229,7 +3269,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D19" si="1">REPLACE(C2, 1, 2, "")</f>
+        <f t="shared" ref="D2:D20" si="1">REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
       <c r="E2" s="2"/>
@@ -3246,7 +3286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -3265,14 +3305,14 @@
         <v>34</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F19" si="2">SUBSTITUTE(E3,"_","-")</f>
+        <f t="shared" ref="F3:F20" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>project-new-32x32</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H19" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
+        <f t="shared" ref="H3:H20" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J3" t="s">
@@ -3286,7 +3326,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -3326,7 +3366,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -3366,7 +3406,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.4</v>
       </c>
@@ -3406,7 +3446,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>43</v>
       </c>
@@ -3447,7 +3487,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
@@ -3486,7 +3526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
@@ -3525,7 +3565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
@@ -3565,7 +3605,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
@@ -3605,7 +3645,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -3644,7 +3684,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2.1</v>
       </c>
@@ -3684,7 +3724,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -3724,7 +3764,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -3762,7 +3802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -3800,119 +3840,157 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>export-well-top-32x32</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="H17" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" ref="B17:B19" si="4">SUBSTITUTE(CONCATENATE(G17,D17)," ","")</f>
+      <c r="B18" s="3" t="str">
+        <f t="shared" ref="B18:B20" si="4">SUBSTITUTE(CONCATENATE(G18,D18)," ","")</f>
         <v>PropertyGridButton</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E18" t="s">
         <v>73</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>property-grid-32x32</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>74</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E17)),"fix-button-sm", "height65")</f>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E18)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="17" t="str">
+      <c r="B19" s="17" t="str">
         <f t="shared" si="4"/>
         <v>ExitToolbar</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="18" t="str">
+      <c r="D19" s="18" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="H19" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>3.1</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>ExitButton</v>
       </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E20" t="s">
         <v>76</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>exit-32x32</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>75</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
         <v>36</v>
       </c>
-      <c r="L19" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E19)),"fix-button-sm", "height65")</f>
+      <c r="L20" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E20)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
@@ -3930,12 +4008,12 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="8.83203125" style="19"/>
+    <col min="10" max="10" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3973,7 +4051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4002,7 +4080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -4042,7 +4120,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1.2</v>
       </c>
@@ -4082,7 +4160,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -4122,7 +4200,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1.4</v>
       </c>
@@ -4162,7 +4240,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
@@ -4202,7 +4280,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
@@ -4237,7 +4315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2.1</v>
       </c>
@@ -4278,7 +4356,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
@@ -4317,7 +4395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>94</v>
       </c>
@@ -4356,7 +4434,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>96</v>
       </c>
@@ -4395,7 +4473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>99</v>
       </c>
@@ -4434,7 +4512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>101</v>
       </c>
@@ -4473,7 +4551,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>104</v>
       </c>
@@ -4512,7 +4590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>107</v>
       </c>
@@ -4551,7 +4629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>110</v>
       </c>
@@ -4590,7 +4668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>112</v>
       </c>
@@ -4631,7 +4709,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>64</v>
       </c>
@@ -4670,7 +4748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>68</v>
       </c>
@@ -4709,7 +4787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>118</v>
       </c>
@@ -4748,7 +4826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
@@ -4787,7 +4865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>123</v>
       </c>
@@ -4826,7 +4904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>125</v>
       </c>
@@ -4865,7 +4943,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>126</v>
       </c>
@@ -4904,7 +4982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>128</v>
       </c>
@@ -4957,12 +5035,12 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5000,7 +5078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5029,7 +5107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -5069,7 +5147,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -5109,7 +5187,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -5149,7 +5227,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.4</v>
       </c>
@@ -5189,7 +5267,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1.5</v>
       </c>
@@ -5230,7 +5308,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
@@ -5269,7 +5347,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
@@ -5308,7 +5386,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>146</v>
       </c>
@@ -5347,7 +5425,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>149</v>
       </c>
@@ -5386,7 +5464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>152</v>
       </c>
@@ -5425,7 +5503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -5463,7 +5541,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2.1</v>
       </c>
@@ -5503,7 +5581,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -5543,7 +5621,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -5583,7 +5661,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2.4</v>
       </c>
@@ -5623,7 +5701,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>2.5</v>
       </c>
@@ -5663,7 +5741,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2.6</v>
       </c>
@@ -5704,7 +5782,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>167</v>
       </c>
@@ -5743,7 +5821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>170</v>
       </c>
@@ -5782,7 +5860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>172</v>
       </c>
@@ -5821,7 +5899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>175</v>
       </c>
@@ -5860,7 +5938,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>178</v>
       </c>
@@ -5899,7 +5977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>181</v>
       </c>
@@ -5938,7 +6016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>184</v>
       </c>
@@ -5977,7 +6055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>187</v>
       </c>
@@ -6016,7 +6094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>190</v>
       </c>
@@ -6055,7 +6133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -6090,7 +6168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>194</v>
       </c>
@@ -6130,7 +6208,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>197</v>
       </c>
@@ -6170,7 +6248,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>200</v>
       </c>
@@ -6206,7 +6284,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>203</v>
       </c>
@@ -6246,7 +6324,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>206</v>
       </c>
@@ -6286,7 +6364,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>3.6</v>
       </c>
@@ -6327,7 +6405,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>211</v>
       </c>
@@ -6366,7 +6444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>214</v>
       </c>
@@ -6405,7 +6483,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>217</v>
       </c>
@@ -6444,7 +6522,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -6455,7 +6533,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -6466,7 +6544,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
@@ -6477,7 +6555,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -6488,7 +6566,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -6499,7 +6577,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -6510,7 +6588,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -6521,7 +6599,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
@@ -6532,7 +6610,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -6543,7 +6621,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -6554,7 +6632,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -6565,7 +6643,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -6576,7 +6654,7 @@
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -6587,7 +6665,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
@@ -6598,7 +6676,7 @@
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -6609,7 +6687,7 @@
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -6620,7 +6698,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -6631,7 +6709,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -6642,7 +6720,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -6653,7 +6731,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
@@ -6664,7 +6742,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -6675,7 +6753,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -6686,7 +6764,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -6697,7 +6775,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -6708,7 +6786,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -6719,7 +6797,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -6730,7 +6808,7 @@
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -6741,7 +6819,7 @@
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -6752,7 +6830,7 @@
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -6763,7 +6841,7 @@
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
@@ -6774,7 +6852,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -6785,7 +6863,7 @@
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -6796,7 +6874,7 @@
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -6807,7 +6885,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -6818,7 +6896,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -6829,7 +6907,7 @@
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
@@ -6840,7 +6918,7 @@
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -6851,7 +6929,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -6862,7 +6940,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -6873,7 +6951,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -6884,7 +6962,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -6895,7 +6973,7 @@
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -6906,7 +6984,7 @@
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -6917,7 +6995,7 @@
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -6928,7 +7006,7 @@
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -6939,7 +7017,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -6950,7 +7028,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -6961,7 +7039,7 @@
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -6972,7 +7050,7 @@
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -6983,7 +7061,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -6994,7 +7072,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -7005,7 +7083,7 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -7016,7 +7094,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -7027,7 +7105,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -7038,7 +7116,7 @@
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -7049,7 +7127,7 @@
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -7060,7 +7138,7 @@
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -7071,7 +7149,7 @@
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -7082,7 +7160,7 @@
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -7093,7 +7171,7 @@
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="22"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -7104,7 +7182,7 @@
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -7115,7 +7193,7 @@
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="22"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -7126,7 +7204,7 @@
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="22"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -7137,7 +7215,7 @@
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="22"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -7148,7 +7226,7 @@
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="22"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -7159,7 +7237,7 @@
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="22"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -7170,7 +7248,7 @@
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -7181,7 +7259,7 @@
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -7192,7 +7270,7 @@
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -7203,7 +7281,7 @@
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -7214,7 +7292,7 @@
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -7225,7 +7303,7 @@
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -7236,7 +7314,7 @@
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -7247,7 +7325,7 @@
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -7258,7 +7336,7 @@
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="22"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -7269,7 +7347,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="22"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -7280,7 +7358,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="22"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -7291,7 +7369,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -7302,205 +7380,205 @@
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D119" t="str">
         <f t="shared" ref="D119:D152" si="7">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D120" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D121" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D123" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D124" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D127" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7520,12 +7598,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7563,7 +7641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -7595,7 +7673,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>222</v>
       </c>
@@ -7635,7 +7713,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>225</v>
       </c>
@@ -7675,7 +7753,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>228</v>
       </c>
@@ -7716,7 +7794,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>231</v>
       </c>
@@ -7755,7 +7833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>233</v>
       </c>
@@ -7794,7 +7872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>236</v>
       </c>
@@ -7833,7 +7911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>239</v>
       </c>
@@ -7874,7 +7952,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>242</v>
       </c>
@@ -7913,7 +7991,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>245</v>
       </c>
@@ -7952,7 +8030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
@@ -7992,7 +8070,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>53</v>
       </c>
@@ -8032,7 +8110,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>56</v>
       </c>
@@ -8072,7 +8150,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>254</v>
       </c>
@@ -8112,7 +8190,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>257</v>
       </c>
@@ -8152,7 +8230,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>260</v>
       </c>
@@ -8192,7 +8270,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>263</v>
       </c>
@@ -8232,7 +8310,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>266</v>
       </c>
@@ -8272,7 +8350,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>269</v>
       </c>
@@ -8312,7 +8390,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>272</v>
       </c>
@@ -8352,7 +8430,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>275</v>
       </c>
@@ -8392,7 +8470,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>278</v>
       </c>
@@ -8432,7 +8510,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>88</v>
       </c>
@@ -8468,7 +8546,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>283</v>
       </c>
@@ -8508,7 +8586,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>112</v>
       </c>
@@ -8548,7 +8626,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
@@ -8588,7 +8666,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>289</v>
       </c>
@@ -8624,7 +8702,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>194</v>
       </c>
@@ -8664,7 +8742,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>197</v>
       </c>
@@ -8704,7 +8782,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>200</v>
       </c>
@@ -8744,7 +8822,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>203</v>
       </c>
@@ -8798,12 +8876,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8841,7 +8919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -8873,7 +8951,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -8913,7 +8991,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -8953,7 +9031,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -8993,7 +9071,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.4</v>
       </c>
@@ -9033,7 +9111,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1.5</v>
       </c>
@@ -9073,7 +9151,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1.6</v>
       </c>
@@ -9113,7 +9191,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1.7</v>
       </c>
@@ -9153,7 +9231,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1.8</v>
       </c>
@@ -9193,7 +9271,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>1.9</v>
       </c>
@@ -9233,7 +9311,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>260</v>
       </c>
@@ -9273,7 +9351,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>263</v>
       </c>
@@ -9313,7 +9391,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>266</v>
       </c>
@@ -9353,7 +9431,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>269</v>
       </c>
@@ -9393,7 +9471,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>272</v>
       </c>
@@ -9433,7 +9511,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>275</v>
       </c>
@@ -9473,7 +9551,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>278</v>
       </c>
@@ -9513,7 +9591,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>332</v>
       </c>
@@ -9553,7 +9631,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>2</v>
       </c>
@@ -9589,7 +9667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2.1</v>
       </c>
@@ -9629,7 +9707,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -9669,7 +9747,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -9709,7 +9787,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>2.4</v>
       </c>
@@ -9749,21 +9827,21 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -9781,7 +9859,7 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -9799,7 +9877,7 @@
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
@@ -9817,7 +9895,7 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="19"/>
@@ -9835,7 +9913,7 @@
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="19"/>
@@ -9853,7 +9931,7 @@
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="19"/>
@@ -9871,7 +9949,7 @@
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="19"/>
@@ -9889,7 +9967,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="25"/>
       <c r="C34" s="19"/>
@@ -9907,7 +9985,7 @@
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="25"/>
       <c r="C35" s="19"/>
@@ -9925,7 +10003,7 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="25"/>
       <c r="C36" s="19"/>
@@ -9957,12 +10035,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10000,7 +10078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -10029,7 +10107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>222</v>
       </c>
@@ -10068,7 +10146,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -10107,7 +10185,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -10160,12 +10238,12 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10200,7 +10278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -10229,7 +10307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -10261,7 +10339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -10293,7 +10371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -10325,7 +10403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2.1</v>
       </c>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="361">
   <si>
     <t>Code</t>
   </si>
@@ -1120,15 +1120,6 @@
   </si>
   <si>
     <t>DataProcessing</t>
-  </si>
-  <si>
-    <t>ExportToolButton</t>
-  </si>
-  <si>
-    <t>export-well-top-32x32</t>
-  </si>
-  <si>
-    <t>Export Tool</t>
   </si>
 </sst>
 </file>
@@ -3204,10 +3195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,7 +3260,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D20" si="1">REPLACE(C2, 1, 2, "")</f>
+        <f t="shared" ref="D2:D19" si="1">REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
       <c r="E2" s="2"/>
@@ -3305,14 +3296,14 @@
         <v>34</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F20" si="2">SUBSTITUTE(E3,"_","-")</f>
+        <f t="shared" ref="F3:F19" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>project-new-32x32</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H20" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
+        <f t="shared" ref="H3:H19" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J3" t="s">
@@ -3840,157 +3831,119 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="F17" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>export-well-top-32x32</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="H17" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>342</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" ref="B17:B19" si="4">SUBSTITUTE(CONCATENATE(G17,D17)," ","")</f>
+        <v>PropertyGridButton</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>property-grid-32x32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E17)),"fix-button-sm", "height65")</f>
+        <v>height65</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" ref="B18:B20" si="4">SUBSTITUTE(CONCATENATE(G18,D18)," ","")</f>
-        <v>PropertyGridButton</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="2"/>
-        <v>property-grid-32x32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E18)),"fix-button-sm", "height65")</f>
-        <v>height65</v>
-      </c>
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>ExitToolbar</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Toolbar</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>3</v>
-      </c>
-      <c r="B19" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>ExitToolbar</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>Toolbar</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
         <v>3.1</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>ExitButton</v>
       </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E19" t="s">
         <v>76</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>exit-32x32</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G19" t="s">
         <v>75</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
         <v>36</v>
       </c>
-      <c r="L20" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E20)),"fix-button-sm", "height65")</f>
+      <c r="L19" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E19)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\workspace\new\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="22920" windowHeight="14385" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="379">
   <si>
     <t>Code</t>
   </si>
@@ -255,9 +252,66 @@
     <t>2.3</t>
   </si>
   <si>
+    <t>MachineLearningDropdown</t>
+  </si>
+  <si>
+    <t>caculation_multilinerregression_32x32</t>
+  </si>
+  <si>
+    <t>caculation-multilinerregression-32x32</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>NewModelButton</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>caculation_multilinerregression_16x16</t>
+  </si>
+  <si>
+    <t>caculation-multilinerregression-16x16</t>
+  </si>
+  <si>
+    <t>New Model</t>
+  </si>
+  <si>
+    <t>icon-left</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>OpenModelButton</t>
+  </si>
+  <si>
+    <t>Open Model</t>
+  </si>
+  <si>
     <t>2.4</t>
   </si>
   <si>
+    <t>ExportToolButton</t>
+  </si>
+  <si>
+    <t>export_well_top_32x32</t>
+  </si>
+  <si>
+    <t>export-well-top-32x32</t>
+  </si>
+  <si>
+    <t>Export Tool</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
     <t>property_grid_32x32</t>
   </si>
   <si>
@@ -783,9 +837,6 @@
     <t>Interactive Curve Split</t>
   </si>
   <si>
-    <t>caculation_multilinerregression_16x16</t>
-  </si>
-  <si>
     <t>Merge Curves</t>
   </si>
   <si>
@@ -1120,22 +1171,13 @@
   </si>
   <si>
     <t>DataProcessing</t>
-  </si>
-  <si>
-    <t>ExportToolButton</t>
-  </si>
-  <si>
-    <t>export-well-top-32x32</t>
-  </si>
-  <si>
-    <t>Export Tool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1150,6 +1192,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1191,56 +1239,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="left" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="left" indent="7"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="left" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="left" indent="7"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="left" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="left" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
+      <alignment horizontal="left" indent="13"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="left" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
+      <alignment horizontal="left" indent="13"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment horizontal="left" indent="7"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1271,7 +1317,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1402,9 +1448,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1437,9 +1483,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1621,11 +1667,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="8.7109375"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1700,13 +1749,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1753,7 +1803,7 @@
         <v>WorkingTabs</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D9" si="0">REPLACE(C2, 1, 2, "")</f>
@@ -1762,7 +1812,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1789,14 +1839,14 @@
         <v>Toolbar</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F9" si="1">SUBSTITUTE(E3,"_","-")</f>
         <v>help-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -1814,21 +1864,21 @@
         <v>WorkingSlidingbar</v>
       </c>
       <c r="C4" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>Slidingbar</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
         <v>info-frp-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -1846,7 +1896,7 @@
         <v>WorkflowsTabs</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1890,7 +1940,7 @@
         <v/>
       </c>
       <c r="G6" s="12" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -1907,7 +1957,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="D7" s="15" t="str">
         <f t="shared" si="0"/>
@@ -1971,7 +2021,7 @@
         <v/>
       </c>
       <c r="G9" s="8" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1992,21 +2042,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="8.7109375"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2052,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2073,13 +2126,13 @@
         <v>ExitModal</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2095,7 +2148,7 @@
         <v>AddNewModal</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2104,7 +2157,7 @@
         <v>WellHeaderModal</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2113,7 +2166,7 @@
         <v>DepthConversionModal</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2122,7 +2175,7 @@
         <v>CurveAliasModal</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,7 +2184,7 @@
         <v>FamilyEditModal</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2140,7 +2193,7 @@
         <v>Input/OutputModal</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,7 +2202,7 @@
         <v>ImportASCIIModal</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2158,7 +2211,7 @@
         <v>ImportMultiASCIIModal</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,7 +2220,7 @@
         <v>ImportLASModal</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2176,7 +2229,7 @@
         <v>ImportMultiLASModal</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,7 +2238,7 @@
         <v>Interval/CoreLoaderModal</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2194,7 +2247,7 @@
         <v>Multi-wellCoreLoaderModal</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2203,7 +2256,7 @@
         <v>ImportWellHeaderModal</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2212,7 +2265,7 @@
         <v>ImportWellTopModal</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,7 +2274,7 @@
         <v>ExportASCIIModal</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2230,7 +2283,7 @@
         <v>ExportMultiASCIIModal</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,7 +2292,7 @@
         <v>ExportLASModal</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2248,7 +2301,7 @@
         <v>ExportMultiLASModal</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2257,7 +2310,7 @@
         <v>ExportCoreDataModal</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2266,7 +2319,7 @@
         <v>Multi-wellCoreLoaderModal</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2275,7 +2328,7 @@
         <v>ExportWellHeaderModal</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2284,7 +2337,7 @@
         <v>ExportWellTopModal</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2300,7 +2353,7 @@
         <v>BlankLogplotModal</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2309,7 +2362,7 @@
         <v>TrippleComboModal</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2318,7 +2371,7 @@
         <v>DensityNeutronModal</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,7 +2380,7 @@
         <v>ResistivitySonicModal</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2389,7 @@
         <v>3TracksBlankModal</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2345,7 +2398,7 @@
         <v>InputCurveModal</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2354,7 +2407,7 @@
         <v>Litho+Syn.CurveModal</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2363,7 +2416,7 @@
         <v>Syn.CurveModal</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +2425,7 @@
         <v>CrossPlotModal</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,7 +2434,7 @@
         <v>BlankCrossPlotModal</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2443,7 @@
         <v>SonicPHI_TOTALModal</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2399,7 +2452,7 @@
         <v>NeutronDensityModal</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2461,7 @@
         <v>NeutronGammaModal</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2470,7 @@
         <v>SonicGammaModal</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2426,7 +2479,7 @@
         <v>NeuTronSonicModal</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2435,7 +2488,7 @@
         <v>DenityGammaModal</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +2497,7 @@
         <v>NeuTronRtModal</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2453,7 +2506,7 @@
         <v>DensitySonicModal</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2515,7 @@
         <v>DensityRtModal</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2524,7 @@
         <v>SonicDensityModal</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2533,7 @@
         <v>SonicRtModal</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2542,7 @@
         <v>RtRx0Modal</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2498,7 +2551,7 @@
         <v>PickettModal</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2507,7 +2560,7 @@
         <v>HistogramModal</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2516,7 +2569,7 @@
         <v>BlankHistogramModal</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +2578,7 @@
         <v>PHI_TOTALModal</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2534,7 +2587,7 @@
         <v>GammaRayModal</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,7 +2596,7 @@
         <v>NeutronModal</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2605,7 @@
         <v>DensityModal</v>
       </c>
       <c r="B60" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2561,7 +2614,7 @@
         <v>HistogramMoreModal</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2570,7 +2623,7 @@
         <v>SonicModal</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2579,7 +2632,7 @@
         <v>SallowResistivityModal</v>
       </c>
       <c r="B63" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +2641,7 @@
         <v>DeepResistivityModal</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2597,12 +2650,12 @@
         <v>MSFLHistogramModal</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2613,7 +2666,7 @@
         <v>AddCurveModal</v>
       </c>
       <c r="B67" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2622,7 +2675,7 @@
         <v>InteractiveCurveEditModal</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2631,7 +2684,7 @@
         <v>InteractiveBaselineShiftModal</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2640,7 +2693,7 @@
         <v>SplitCurveModal</v>
       </c>
       <c r="B70" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2649,7 +2702,7 @@
         <v>SplitCurvesModal</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2658,7 +2711,7 @@
         <v>InteractiveCurveSplitModal</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2667,7 +2720,7 @@
         <v>MergeCurvesModal</v>
       </c>
       <c r="B73" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2676,7 +2729,7 @@
         <v>CurvesHeaderModal</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2685,7 +2738,7 @@
         <v>FillDataGapsModal</v>
       </c>
       <c r="B75" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,7 +2747,7 @@
         <v>CurveFilterModal</v>
       </c>
       <c r="B76" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2703,7 +2756,7 @@
         <v>CurveConvolutionModal</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,7 +2765,7 @@
         <v>CurveDeconvolutionModal</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2721,7 +2774,7 @@
         <v>CurveDerivativeModal</v>
       </c>
       <c r="B79" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2730,7 +2783,7 @@
         <v>CurveRescaleModal</v>
       </c>
       <c r="B80" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2739,7 +2792,7 @@
         <v>CurveComrarisonModal</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,7 +2801,7 @@
         <v>CurveAverageModal</v>
       </c>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,7 +2810,7 @@
         <v>FormationResistivityModal</v>
       </c>
       <c r="B83" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2766,7 +2819,7 @@
         <v>Badhole/Coal/SaltModal</v>
       </c>
       <c r="B84" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2775,7 +2828,7 @@
         <v>UserFormulaModal</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2784,7 +2837,7 @@
         <v>UserFormulaModal</v>
       </c>
       <c r="B86" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2793,7 +2846,7 @@
         <v>UserProgramModal</v>
       </c>
       <c r="B87" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2802,7 +2855,7 @@
         <v>PythonProgramModal</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,7 +2864,7 @@
         <v>CalculationModal</v>
       </c>
       <c r="B89" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2820,7 +2873,7 @@
         <v>TVDConversionModal</v>
       </c>
       <c r="B90" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,7 +2882,7 @@
         <v>PCAAnalysisModal</v>
       </c>
       <c r="B91" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2838,7 +2891,7 @@
         <v>Multi-LinearRegressionModal</v>
       </c>
       <c r="B92" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,7 +2900,7 @@
         <v>NeuralNetworkModal</v>
       </c>
       <c r="B93" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2863,7 +2916,7 @@
         <v>EditZonesModal</v>
       </c>
       <c r="B95" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2872,7 +2925,7 @@
         <v>InputCurvesModal</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2881,7 +2934,7 @@
         <v>InputFuidModal</v>
       </c>
       <c r="B97" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2890,7 +2943,7 @@
         <v>BuildMineralParametersModal</v>
       </c>
       <c r="B98" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,7 +2952,7 @@
         <v>InputMineralZonesModal</v>
       </c>
       <c r="B99" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2961,7 @@
         <v>Multi-MineralSolverModal</v>
       </c>
       <c r="B100" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2917,7 +2970,7 @@
         <v>ClayMineralsVolumeModal</v>
       </c>
       <c r="B101" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2926,7 +2979,7 @@
         <v>Fracture-VugPorosityModal</v>
       </c>
       <c r="B102" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2935,7 +2988,7 @@
         <v>OpenPorosityModal</v>
       </c>
       <c r="B103" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +2997,7 @@
         <v>SecondaryPorosityModal</v>
       </c>
       <c r="B104" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2953,7 +3006,7 @@
         <v>FracturePorosityModal</v>
       </c>
       <c r="B105" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,7 +3015,7 @@
         <v>FilteringFractureModal</v>
       </c>
       <c r="B106" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2971,7 +3024,7 @@
         <v>Micro&amp;MacroPorosityModal</v>
       </c>
       <c r="B107" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2980,7 +3033,7 @@
         <v>WaterSaturationModal</v>
       </c>
       <c r="B108" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +3042,7 @@
         <v>PermeabilityModal</v>
       </c>
       <c r="B109" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2998,7 +3051,7 @@
         <v>CutoffandSummationModal</v>
       </c>
       <c r="B110" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3007,7 +3060,7 @@
         <v>FilteringModal</v>
       </c>
       <c r="B111" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3016,7 +3069,7 @@
         <v>ClasticModal</v>
       </c>
       <c r="B112" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3025,7 +3078,7 @@
         <v>BasicAnalysisModal</v>
       </c>
       <c r="B113" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3034,7 +3087,7 @@
         <v>ClayVolumeModal</v>
       </c>
       <c r="B114" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3043,7 +3096,7 @@
         <v>Porosity&amp;WaterSaturationModal</v>
       </c>
       <c r="B115" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,7 +3105,7 @@
         <v>CutoffandSummationModal</v>
       </c>
       <c r="B116" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3068,7 +3121,7 @@
         <v>AboutModal</v>
       </c>
       <c r="B118" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3077,7 +3130,7 @@
         <v>UnlockModal</v>
       </c>
       <c r="B119" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3090,11 +3143,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="8.7109375"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3204,19 +3260,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="2" width="33.42578125"/>
+    <col min="3" max="3" width="15.5703125"/>
+    <col min="4" max="4" width="8.7109375"/>
+    <col min="5" max="6" width="31.5703125"/>
+    <col min="7" max="7" width="15.28515625"/>
+    <col min="8" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3269,7 +3327,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D20" si="1">REPLACE(C2, 1, 2, "")</f>
+        <f t="shared" ref="D2:D17" si="1">REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
       <c r="E2" s="2"/>
@@ -3287,9 +3345,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>NewProjectButton</v>
@@ -3305,14 +3361,14 @@
         <v>34</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F20" si="2">SUBSTITUTE(E3,"_","-")</f>
+        <f t="shared" ref="F3:F16" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>project-new-32x32</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H20" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
+        <f t="shared" ref="H3:H16" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J3" t="s">
@@ -3327,9 +3383,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>1.2</v>
-      </c>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>OpenProjectButton</v>
@@ -3367,9 +3421,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>1.3</v>
-      </c>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CloseProjectButton</v>
@@ -3407,9 +3459,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>1.4</v>
-      </c>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>UnitSettingsButton</v>
@@ -3840,72 +3890,64 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="F17" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>export-well-top-32x32</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="H17" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>342</v>
+      <c r="B17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>Dropdown</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E17)),"fix-button-sm", "height65")</f>
+        <v>height65</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" ref="B18:B20" si="4">SUBSTITUTE(CONCATENATE(G18,D18)," ","")</f>
-        <v>PropertyGridButton</v>
+      <c r="A18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
+      <c r="D18" t="s">
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="2"/>
-        <v>property-grid-32x32</v>
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
@@ -3913,84 +3955,191 @@
       <c r="K18" t="s">
         <v>32</v>
       </c>
-      <c r="L18" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E18)),"fix-button-sm", "height65")</f>
-        <v>height65</v>
+      <c r="L18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>3</v>
-      </c>
-      <c r="B19" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>ExitToolbar</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>Toolbar</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="18"/>
+      <c r="A19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>ExitButton</v>
+      <c r="A20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
+      <c r="D20" t="s">
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="2"/>
-        <v>exit-32x32</v>
+        <v>88</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L20" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E20)),"fix-button-sm", "height65")</f>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G21,D21)," ","")</f>
+        <v>PropertyGridButton</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="str">
+        <f>REPLACE(C21, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="str">
+        <f>SUBSTITUTE(E21,"_","-")</f>
+        <v>property-grid-32x32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E21)), "icon-left","")</f>
+        <v/>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E21)),"fix-button-sm", "height65")</f>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>3</v>
+      </c>
+      <c r="B22" s="19" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G22,D22)," ","")</f>
+        <v>ExitToolbar</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="20" t="str">
+        <f>REPLACE(C22, 1, 2, "")</f>
+        <v>Toolbar</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="str">
+        <f>SUBSTITUTE(E22,"_","-")</f>
+        <v/>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="20" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E22)), "icon-left","")</f>
+        <v/>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G23,D23)," ","")</f>
+        <v>ExitButton</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="str">
+        <f>REPLACE(C23, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="str">
+        <f>SUBSTITUTE(E23,"_","-")</f>
+        <v>exit-32x32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E23)), "icon-left","")</f>
+        <v/>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E23)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
@@ -4004,13 +4153,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="8.85546875" style="19"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4041,13 +4190,13 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4069,11 +4218,11 @@
       <c r="E2" s="2"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K2" t="s">
@@ -4096,20 +4245,20 @@
         <v>Button</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F26" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>well-new-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H26" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -4136,20 +4285,20 @@
         <v>Button</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K4" t="s">
@@ -4176,20 +4325,20 @@
         <v>Button</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v>well-depth-convertion-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
@@ -4216,20 +4365,20 @@
         <v>Button</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>curve-alias-32x32</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
@@ -4256,20 +4405,20 @@
         <v>Button</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
         <v>family-edit-32x32</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
@@ -4282,7 +4431,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4301,14 +4450,14 @@
         <v/>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="H8" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
@@ -4331,7 +4480,7 @@
         <v>Dropdown</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F9" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4345,7 +4494,7 @@
         <v/>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
@@ -4358,7 +4507,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4372,20 +4521,20 @@
         <v>Button</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>ascii-import-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
@@ -4397,7 +4546,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B11" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4411,20 +4560,20 @@
         <v>Button</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>ascii-import-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
@@ -4436,7 +4585,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B12" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4450,20 +4599,20 @@
         <v>Button</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
@@ -4475,7 +4624,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B13" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4489,20 +4638,20 @@
         <v>Button</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
@@ -4514,7 +4663,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B14" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4528,20 +4677,20 @@
         <v>Button</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>curve-listing-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K14" t="s">
@@ -4553,7 +4702,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B15" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4567,20 +4716,20 @@
         <v>Button</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>load-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K15" t="s">
@@ -4592,7 +4741,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B16" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4606,20 +4755,20 @@
         <v>Button</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K16" t="s">
@@ -4631,7 +4780,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B17" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4645,20 +4794,20 @@
         <v>Button</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K17" t="s">
@@ -4670,7 +4819,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4684,21 +4833,21 @@
         <v>Dropdown</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="F18" s="13" t="str">
         <f t="shared" si="2"/>
         <v>file-export-32x32</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K18" t="s">
@@ -4725,20 +4874,20 @@
         <v>Button</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>ascii-export-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K19" t="s">
@@ -4764,20 +4913,20 @@
         <v>Button</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>ascii-export-16x16</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K20" t="s">
@@ -4789,7 +4938,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B21" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4803,20 +4952,20 @@
         <v>Button</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>las-export-16x16</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K21" t="s">
@@ -4828,7 +4977,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B22" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4842,20 +4991,20 @@
         <v>Button</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>las-export-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K22" t="s">
@@ -4867,7 +5016,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B23" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4881,20 +5030,20 @@
         <v>Button</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>curve-listing-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K23" t="s">
@@ -4906,34 +5055,34 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Multi-wellCoreLoaderButton</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>well-header-edit-16x16</v>
+      </c>
+      <c r="G24" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>Multi-wellCoreLoaderButton</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="2"/>
-        <v>well-header-edit-16x16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>106</v>
-      </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K24" t="s">
@@ -4945,7 +5094,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B25" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4959,20 +5108,20 @@
         <v>Button</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K25" t="s">
@@ -4984,7 +5133,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B26" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4998,20 +5147,20 @@
         <v>Button</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>export-well-top-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="15" t="s">
         <v>31</v>
       </c>
       <c r="K26" t="s">
@@ -5031,13 +5180,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -5096,7 +5246,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -5123,14 +5273,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F38" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>logplot-blank-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H31" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -5163,14 +5313,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>logplot-triple-combo-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -5203,14 +5353,14 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v>logplot-predefine-RHOB-NPHI-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
@@ -5243,14 +5393,14 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>logplot-predefine-RDT-32x32</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -5283,14 +5433,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F7" s="13" t="str">
         <f t="shared" si="2"/>
         <v>logplot-more-32x32</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H7" s="13" t="str">
         <f t="shared" si="3"/>
@@ -5324,14 +5474,14 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>tri-tracks-blank-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -5363,14 +5513,14 @@
         <v>Button</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
         <v>curve-input-16x16</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="3"/>
@@ -5388,7 +5538,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -5402,14 +5552,14 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>logplot-lythosyn-curve-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -5427,7 +5577,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B11" s="21" t="str">
         <f t="shared" si="0"/>
@@ -5441,14 +5591,14 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>logplot-syn-curve-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -5466,7 +5616,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B12" s="21" t="str">
         <f t="shared" si="0"/>
@@ -5480,14 +5630,14 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v>logplot-result-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -5524,7 +5674,7 @@
         <v/>
       </c>
       <c r="G13" s="8" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H13" s="8" t="str">
         <f t="shared" si="3"/>
@@ -5538,7 +5688,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5557,14 +5707,14 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-new-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -5597,14 +5747,14 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-result-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -5637,14 +5787,14 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-ND-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -5677,14 +5827,14 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -5717,14 +5867,14 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -5757,14 +5907,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F19" s="13" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-result-16x16</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" si="3"/>
@@ -5784,7 +5934,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B20" s="21" t="str">
         <f t="shared" si="0"/>
@@ -5798,14 +5948,14 @@
         <v>Button</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NS-16x16</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -5823,7 +5973,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B21" s="21" t="str">
         <f t="shared" si="0"/>
@@ -5837,14 +5987,14 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -5862,7 +6012,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B22" s="21" t="str">
         <f t="shared" si="0"/>
@@ -5876,14 +6026,14 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-Rt-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -5901,7 +6051,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="B23" s="21" t="str">
         <f t="shared" si="0"/>
@@ -5915,14 +6065,14 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-DS-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -5940,7 +6090,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B24" s="21" t="str">
         <f t="shared" si="0"/>
@@ -5954,14 +6104,14 @@
         <v>Button</v>
       </c>
       <c r="E24" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-DRt-16x16</v>
       </c>
       <c r="G24" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
@@ -5979,7 +6129,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B25" s="21" t="str">
         <f t="shared" si="0"/>
@@ -5993,14 +6143,14 @@
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-SD-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -6018,7 +6168,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B26" s="21" t="str">
         <f t="shared" si="0"/>
@@ -6032,14 +6182,14 @@
         <v>Button</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-SRt-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -6057,7 +6207,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B27" s="21" t="str">
         <f t="shared" si="0"/>
@@ -6071,14 +6221,14 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-RtRxo-16x16</v>
       </c>
       <c r="G27" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
@@ -6096,7 +6246,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B28" s="21" t="str">
         <f t="shared" si="0"/>
@@ -6110,14 +6260,14 @@
         <v>Button</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-blank-16x16</v>
       </c>
       <c r="G28" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="3"/>
@@ -6154,7 +6304,7 @@
         <v/>
       </c>
       <c r="G29" s="8" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H29" s="8" t="str">
         <f t="shared" si="3"/>
@@ -6170,7 +6320,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6184,14 +6334,14 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="2"/>
         <v>histogram-new-32x32</v>
       </c>
       <c r="G30" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
@@ -6210,7 +6360,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6224,14 +6374,14 @@
         <v>Button</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-GR-32x32</v>
       </c>
       <c r="G31" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
@@ -6250,7 +6400,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B32" s="21" t="str">
         <f t="shared" si="0"/>
@@ -6264,14 +6414,14 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-DT-32x32</v>
       </c>
       <c r="G32" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J32" t="s">
         <v>31</v>
@@ -6286,7 +6436,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6300,14 +6450,14 @@
         <v>Button</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-NPHI-32x32</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" ref="H33:H38" si="6">IF(ISNUMBER(SEARCH("16x16",E33)), "icon-left","")</f>
@@ -6326,7 +6476,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6340,14 +6490,14 @@
         <v>Button</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-RHOB-32x32</v>
       </c>
       <c r="G34" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="6"/>
@@ -6380,14 +6530,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F35" s="13" t="str">
         <f t="shared" si="2"/>
         <v>histogram-result-32x32</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H35" s="13" t="str">
         <f t="shared" si="6"/>
@@ -6407,7 +6557,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6421,14 +6571,14 @@
         <v>Button</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="2"/>
         <v>histogram-result-16x16</v>
       </c>
       <c r="G36" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="6"/>
@@ -6446,7 +6596,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B37" s="21" t="str">
         <f t="shared" si="0"/>
@@ -6460,14 +6610,14 @@
         <v>Button</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-LLD-16x16</v>
       </c>
       <c r="G37" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="6"/>
@@ -6485,7 +6635,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B38" s="21" t="str">
         <f t="shared" si="0"/>
@@ -6499,14 +6649,14 @@
         <v>Button</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-MSFL-16x16</v>
       </c>
       <c r="G38" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="6"/>
@@ -6522,919 +6672,85 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-    </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
+      <c r="C43" s="15"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="22"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="22"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="22"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="22"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="15"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="15"/>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="15"/>
+      <c r="G60" s="15"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="15"/>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="15"/>
+      <c r="G76" s="15"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" t="str">
         <f t="shared" ref="D119:D152" si="7">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7594,13 +6910,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -7659,7 +6976,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -7670,12 +6987,12 @@
         <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7689,14 +7006,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F32" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>curve-new-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H32" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -7715,7 +7032,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7729,14 +7046,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>edit-curve-text-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -7755,7 +7072,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -7769,14 +7086,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F5" s="12" t="str">
         <f t="shared" si="2"/>
         <v>curve-edit-32x32</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H5" s="13" t="str">
         <f t="shared" si="3"/>
@@ -7796,7 +7113,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B6" s="21" t="str">
         <f t="shared" si="0"/>
@@ -7810,14 +7127,14 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>curve-listing-16x16</v>
       </c>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -7835,7 +7152,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="B7" s="21" t="str">
         <f t="shared" si="0"/>
@@ -7849,14 +7166,14 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
         <v>curve-interactive-edit-16x16</v>
       </c>
       <c r="G7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
@@ -7874,7 +7191,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B8" s="21" t="str">
         <f t="shared" si="0"/>
@@ -7888,14 +7205,14 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>curve-interactive-baseline-edit-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -7913,7 +7230,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -7927,14 +7244,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>curve-splice-32x32</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H9" s="12" t="str">
         <f t="shared" si="3"/>
@@ -7954,7 +7271,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="B10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -7968,14 +7285,14 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>cureve-splice-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -7993,7 +7310,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="B11" s="21" t="str">
         <f t="shared" si="0"/>
@@ -8007,14 +7324,14 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>curve-splice-interactive-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -8046,14 +7363,14 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v>caculation-multilinerregression-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -8086,14 +7403,14 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>curve-header-edit-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
@@ -8126,14 +7443,14 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>curve-fill-data-gaps-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -8152,7 +7469,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8166,14 +7483,14 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>curve-filter-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -8192,7 +7509,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8206,14 +7523,14 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>curve-convolution-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -8232,7 +7549,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8246,14 +7563,14 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>curve-deconvolution-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -8272,7 +7589,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8286,14 +7603,14 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>curve-edit-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -8312,7 +7629,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8326,14 +7643,14 @@
         <v>Button</v>
       </c>
       <c r="E19" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>curve-rescale-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -8352,7 +7669,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8366,14 +7683,14 @@
         <v>Button</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>curve-compare-16x16</v>
       </c>
       <c r="G20" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -8392,7 +7709,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8406,14 +7723,14 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>curve-average-16x16</v>
       </c>
       <c r="G21" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -8432,7 +7749,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8446,14 +7763,14 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>formation-resistivity-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -8472,7 +7789,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8486,14 +7803,14 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>badhole-coal-salt-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -8510,45 +7827,45 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="18" t="str">
+    <row r="24" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>UserFormulaToolbar</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="18" t="str">
+      <c r="D24" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="F24" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="H24" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>282</v>
+      <c r="F24" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="H24" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8562,14 +7879,14 @@
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>user-formula-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -8588,7 +7905,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8602,14 +7919,14 @@
         <v>Button</v>
       </c>
       <c r="E26" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>user-formula-multiline-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -8642,14 +7959,14 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v>python-program-16x16</v>
       </c>
       <c r="G27" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
@@ -8666,45 +7983,45 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="B28" s="17" t="str">
+    <row r="28" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" s="19" t="str">
         <f t="shared" si="0"/>
         <v>CalculationToolbar</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="18" t="str">
+      <c r="D28" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="F28" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="H28" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>291</v>
+      <c r="F28" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8718,14 +8035,14 @@
         <v>Button</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="2"/>
         <v>true-vertical-depth-32x32</v>
       </c>
       <c r="G29" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="3"/>
@@ -8744,7 +8061,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8758,14 +8075,14 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="2"/>
         <v>pca-analysis-16x16</v>
       </c>
       <c r="G30" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
@@ -8784,7 +8101,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8798,14 +8115,14 @@
         <v>Button</v>
       </c>
       <c r="E31" t="s">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="2"/>
         <v>caculation-multilinerregression-16x16</v>
       </c>
       <c r="G31" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
@@ -8824,7 +8141,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8838,14 +8155,14 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
         <v>Neural-Network-16x16</v>
       </c>
       <c r="G32" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
@@ -8870,15 +8187,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -8919,36 +8237,36 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+    <row r="2" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="str">
+      <c r="B2" s="20" t="str">
         <f t="shared" ref="B2:B24" si="0">SUBSTITUTE(CONCATENATE(G2,D2)," ","")</f>
         <v>Basement/TightSandstoneToolbar</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="18" t="str">
+      <c r="D2" s="20" t="str">
         <f t="shared" ref="D2:D24" si="1">REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="F2" s="18" t="str">
+      <c r="F2" s="20" t="str">
         <f t="shared" ref="F2:F24" si="2">SUBSTITUTE(E2,"_","-")</f>
         <v/>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>300</v>
+      <c r="G2" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -8967,14 +8285,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-edit-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H36" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -9007,14 +8325,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>curve-input-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -9047,14 +8365,14 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v>fluid-input-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
@@ -9087,14 +8405,14 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-parameter-build-16x16</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -9127,14 +8445,14 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-edit-16x16</v>
       </c>
       <c r="G7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
@@ -9167,14 +8485,14 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>multi-mineral-solver-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -9207,14 +8525,14 @@
         <v>Button</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
         <v>Vclay-16x16</v>
       </c>
       <c r="G9" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="3"/>
@@ -9247,14 +8565,14 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>secondary-porosity-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -9287,14 +8605,14 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -9313,7 +8631,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9327,14 +8645,14 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v>secondary-porosity-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -9353,7 +8671,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9367,14 +8685,14 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>fracture-porosity-permeability-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
@@ -9393,7 +8711,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9407,14 +8725,14 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>phi2fil-phio-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -9433,7 +8751,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9447,14 +8765,14 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>mineral-volume-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -9473,7 +8791,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9487,14 +8805,14 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -9511,9 +8829,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9527,14 +8845,14 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>calculate-permeability-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -9551,9 +8869,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9567,14 +8885,14 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>summation-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -9591,9 +8909,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9607,14 +8925,14 @@
         <v>Button</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>curve-filter-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -9631,43 +8949,43 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+    <row r="20" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="str">
+      <c r="B20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ClasticToolbar</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="18" t="str">
+      <c r="D20" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="F20" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="H20" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="H20" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2.1</v>
       </c>
@@ -9683,14 +9001,14 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>sand-32x32</v>
       </c>
       <c r="G21" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -9707,7 +9025,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -9723,14 +9041,14 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -9747,7 +9065,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -9763,14 +9081,14 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -9787,7 +9105,7 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>2.4</v>
       </c>
@@ -9803,14 +9121,14 @@
         <v>Button</v>
       </c>
       <c r="E24" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
         <v>summation-16x16</v>
       </c>
       <c r="G24" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
@@ -9827,199 +9145,105 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="H34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="H35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="H36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -10031,13 +9255,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10096,7 +9321,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -10109,7 +9334,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>SUBSTITUTE(CONCATENATE(G3,D3)," ","")</f>
@@ -10123,14 +9348,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
         <v>help-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="H3" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -10143,7 +9368,7 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -10162,14 +9387,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="F4" t="str">
         <f>SUBSTITUTE(E4,"_","-")</f>
         <v>info-frp-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="H4" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E4)), "icon-left","")</f>
@@ -10182,7 +9407,7 @@
         <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -10201,14 +9426,14 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="F5" t="str">
         <f>SUBSTITUTE(E5,"_","-")</f>
         <v>unlock1-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="H5" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E5)), "icon-left","")</f>
@@ -10221,7 +9446,7 @@
         <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -10234,13 +9459,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -10323,7 +9549,7 @@
         <v>Toolbar</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
@@ -10348,14 +9574,14 @@
         <v>ProjectTreeview</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="D4" t="str">
         <f>REPLACE(C4, 1, 2, "")</f>
         <v>Treeview</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="F4" t="str">
         <f>SUBSTITUTE(E4,"_","-")</f>
@@ -10380,7 +9606,7 @@
         <v>PropertiesTabs</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>REPLACE(C5, 1, 2, "")</f>
@@ -10392,7 +9618,7 @@
         <v/>
       </c>
       <c r="G5" s="8" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -10412,7 +9638,7 @@
         <v>PropertyList</v>
       </c>
       <c r="C6" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="D6" t="str">
         <f>REPLACE(C6, 1, 2, "")</f>
@@ -10423,7 +9649,7 @@
         <v/>
       </c>
       <c r="G6" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_space\GitHub\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="417">
   <si>
     <t>Code</t>
   </si>
@@ -756,9 +756,6 @@
     <t>Curve</t>
   </si>
   <si>
-    <t>width-290 width-868</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -936,9 +933,6 @@
     <t>User Formula</t>
   </si>
   <si>
-    <t>width-290 width-150</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -963,9 +957,6 @@
     <t>Calculation</t>
   </si>
   <si>
-    <t>width-290 width-250</t>
-  </si>
-  <si>
     <t>true_vertical_depth_32x32</t>
   </si>
   <si>
@@ -990,9 +981,6 @@
     <t>Basement/Tight Sandstone</t>
   </si>
   <si>
-    <t>width-290 width-920</t>
-  </si>
-  <si>
     <t>mineral_zone_edit_32x32</t>
   </si>
   <si>
@@ -1174,6 +1162,129 @@
   </si>
   <si>
     <t>Share Project</t>
+  </si>
+  <si>
+    <t>width-868</t>
+  </si>
+  <si>
+    <t>width-150</t>
+  </si>
+  <si>
+    <t>width-250</t>
+  </si>
+  <si>
+    <t>width-920</t>
+  </si>
+  <si>
+    <t>Neutron-Density</t>
+  </si>
+  <si>
+    <t>2.2.9</t>
+  </si>
+  <si>
+    <t>2.2.10</t>
+  </si>
+  <si>
+    <t>Neutron-Sonic</t>
+  </si>
+  <si>
+    <t>Density-Sonic</t>
+  </si>
+  <si>
+    <t>Resistivity</t>
+  </si>
+  <si>
+    <t>Spontaneous potential</t>
+  </si>
+  <si>
+    <t>Thermal Neutron</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Thorium</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Porosity</t>
+  </si>
+  <si>
+    <t>calculate-open-porosity-16x16</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>2.3.5</t>
+  </si>
+  <si>
+    <t>2.3.6</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>2.4.4</t>
+  </si>
+  <si>
+    <t>2.4.5</t>
+  </si>
+  <si>
+    <t>2.4.6</t>
+  </si>
+  <si>
+    <t>2.4.7</t>
+  </si>
+  <si>
+    <t>2.4.8</t>
+  </si>
+  <si>
+    <t>2.4.9</t>
+  </si>
+  <si>
+    <t>Final Clay Volume</t>
+  </si>
+  <si>
+    <t>Archie</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Modified Indonesia</t>
+  </si>
+  <si>
+    <t>Simandoux</t>
+  </si>
+  <si>
+    <t>Modified Simandoux</t>
+  </si>
+  <si>
+    <t>Dual-Water</t>
+  </si>
+  <si>
+    <t>WaxMan-Smith</t>
+  </si>
+  <si>
+    <t>Juhasz</t>
+  </si>
+  <si>
+    <t>Final Water Saturation</t>
+  </si>
+  <si>
+    <t>width-390</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1258,27 +1369,12 @@
       <alignment horizontal="left" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="13"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
@@ -1288,8 +1384,32 @@
       <alignment horizontal="left" indent="13"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1646,12 +1766,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col min="1" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1676,7 +1796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1687,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1698,7 +1818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1725,16 +1845,16 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="23.9296875" style="5" customWidth="1"/>
+    <col min="2" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1778,7 +1898,7 @@
         <v>WorkingTabs</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D9" si="0">REPLACE(C2, 1, 2, "")</f>
@@ -1787,7 +1907,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1798,8 +1918,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="20">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -1814,14 +1934,14 @@
         <v>Toolbar</v>
       </c>
       <c r="E3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F9" si="1">SUBSTITUTE(E3,"_","-")</f>
         <v>help-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -1830,8 +1950,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="20">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -1839,21 +1959,21 @@
         <v>WorkingSlidingbar</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>Slidingbar</v>
       </c>
       <c r="E4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
         <v>info-frp-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -1862,7 +1982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1871,7 +1991,7 @@
         <v>WorkflowsTabs</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1894,31 +2014,31 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
         <v>2.1</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="9" t="str">
         <f>SUBSTITUTE(CONCATENATE(G6,D6)," ","")</f>
         <v>InterpretationModelDropdown</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Dropdown</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" t="s">
         <v>31</v>
       </c>
@@ -1926,15 +2046,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="20">
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D7" s="15" t="str">
+        <v>364</v>
+      </c>
+      <c r="D7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>List</v>
       </c>
@@ -1952,15 +2072,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="20">
         <v>2.2999999999999998</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="15" t="str">
+      <c r="D8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Toolbar</v>
       </c>
@@ -1978,7 +2098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -1996,7 +2116,7 @@
         <v/>
       </c>
       <c r="G9" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2017,34 +2137,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="28.9296875" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -2056,7 +2179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -2068,7 +2191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -2080,10 +2203,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -2095,7 +2218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
@@ -2107,17 +2230,17 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
@@ -2126,7 +2249,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>WellHeaderModal</v>
@@ -2135,7 +2258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>DepthConversionModal</v>
@@ -2144,7 +2267,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CurveAliasModal</v>
@@ -2153,7 +2276,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>FamilyEditModal</v>
@@ -2162,7 +2285,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Input/OutputModal</v>
@@ -2171,7 +2294,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIModal</v>
@@ -2180,7 +2303,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>
@@ -2189,7 +2312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASModal</v>
@@ -2198,7 +2321,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASModal</v>
@@ -2207,7 +2330,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderModal</v>
@@ -2216,7 +2339,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2225,7 +2348,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderModal</v>
@@ -2234,7 +2357,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopModal</v>
@@ -2243,7 +2366,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIModal</v>
@@ -2252,7 +2375,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIModal</v>
@@ -2261,7 +2384,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASModal</v>
@@ -2270,7 +2393,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASModal</v>
@@ -2279,7 +2402,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataModal</v>
@@ -2288,7 +2411,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
@@ -2297,7 +2420,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderModal</v>
@@ -2306,7 +2429,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopModal</v>
@@ -2315,14 +2438,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A65" si="1">SUBSTITUTE(CONCATENATE(B32,"Modal")," ","")</f>
         <v>BlankLogplotModal</v>
@@ -2331,7 +2454,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>TrippleComboModal</v>
@@ -2340,7 +2463,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>DensityNeutronModal</v>
@@ -2349,7 +2472,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>ResistivitySonicModal</v>
@@ -2358,7 +2481,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>3TracksBlankModal</v>
@@ -2367,7 +2490,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>InputCurveModal</v>
@@ -2376,7 +2499,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>Litho+Syn.CurveModal</v>
@@ -2385,7 +2508,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>Syn.CurveModal</v>
@@ -2394,7 +2517,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>CrossPlotModal</v>
@@ -2403,7 +2526,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>BlankCrossPlotModal</v>
@@ -2412,7 +2535,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>SonicPHI_TOTALModal</v>
@@ -2421,7 +2544,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>NeutronDensityModal</v>
@@ -2430,7 +2553,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>NeutronGammaModal</v>
@@ -2439,7 +2562,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>SonicGammaModal</v>
@@ -2448,7 +2571,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronSonicModal</v>
@@ -2457,7 +2580,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>DenityGammaModal</v>
@@ -2466,7 +2589,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronRtModal</v>
@@ -2475,7 +2598,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>DensitySonicModal</v>
@@ -2484,7 +2607,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>DensityRtModal</v>
@@ -2493,7 +2616,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>SonicDensityModal</v>
@@ -2502,7 +2625,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>SonicRtModal</v>
@@ -2511,7 +2634,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>RtRx0Modal</v>
@@ -2520,7 +2643,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>PickettModal</v>
@@ -2529,7 +2652,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>HistogramModal</v>
@@ -2538,7 +2661,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>BlankHistogramModal</v>
@@ -2547,7 +2670,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>PHI_TOTALModal</v>
@@ -2556,7 +2679,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>GammaRayModal</v>
@@ -2565,7 +2688,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>NeutronModal</v>
@@ -2574,7 +2697,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>DensityModal</v>
@@ -2583,7 +2706,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>HistogramMoreModal</v>
@@ -2592,7 +2715,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>SonicModal</v>
@@ -2601,16 +2724,16 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>SallowResistivityModal</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>DeepResistivityModal</v>
@@ -2619,7 +2742,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>MSFLHistogramModal</v>
@@ -2628,484 +2751,484 @@
         <v>238</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">SUBSTITUTE(CONCATENATE(B67,"Modal")," ","")</f>
         <v>AddCurveModal</v>
       </c>
       <c r="B67" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveEditModal</v>
       </c>
       <c r="B68" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveBaselineShiftModal</v>
       </c>
       <c r="B69" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurveModal</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurvesModal</v>
       </c>
       <c r="B71" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveSplitModal</v>
       </c>
       <c r="B72" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" t="str">
+        <f t="shared" si="2"/>
+        <v>MergeCurvesModal</v>
+      </c>
+      <c r="B73" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
-        <f t="shared" si="2"/>
-        <v>MergeCurvesModal</v>
-      </c>
-      <c r="B73" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>CurvesHeaderModal</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>FillDataGapsModal</v>
       </c>
       <c r="B75" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>CurveFilterModal</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>CurveConvolutionModal</v>
       </c>
       <c r="B77" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>CurveDeconvolutionModal</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>CurveDerivativeModal</v>
       </c>
       <c r="B79" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>CurveRescaleModal</v>
       </c>
       <c r="B80" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>CurveComrarisonModal</v>
       </c>
       <c r="B81" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>CurveAverageModal</v>
       </c>
       <c r="B82" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FormationResistivityModal</v>
       </c>
       <c r="B83" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Badhole/Coal/SaltModal</v>
       </c>
       <c r="B84" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" t="str">
+        <f t="shared" si="2"/>
+        <v>UserFormulaModal</v>
+      </c>
+      <c r="B85" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
       </c>
-      <c r="B85" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
-        <f t="shared" si="2"/>
-        <v>UserFormulaModal</v>
-      </c>
       <c r="B86" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>UserProgramModal</v>
       </c>
       <c r="B87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" t="str">
+        <f t="shared" si="2"/>
+        <v>PythonProgramModal</v>
+      </c>
+      <c r="B88" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
-        <f t="shared" si="2"/>
-        <v>PythonProgramModal</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" t="str">
+        <f t="shared" si="2"/>
+        <v>CalculationModal</v>
+      </c>
+      <c r="B89" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
-        <f t="shared" si="2"/>
-        <v>CalculationModal</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" t="str">
+        <f t="shared" si="2"/>
+        <v>TVDConversionModal</v>
+      </c>
+      <c r="B90" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
-        <f t="shared" si="2"/>
-        <v>TVDConversionModal</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" t="str">
+        <f t="shared" si="2"/>
+        <v>PCAAnalysisModal</v>
+      </c>
+      <c r="B91" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" t="str">
+        <f t="shared" si="2"/>
+        <v>Multi-LinearRegressionModal</v>
+      </c>
+      <c r="B92" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
-        <f t="shared" si="2"/>
-        <v>PCAAnalysisModal</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" t="str">
+        <f t="shared" si="2"/>
+        <v>NeuralNetworkModal</v>
+      </c>
+      <c r="B93" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
-        <f t="shared" si="2"/>
-        <v>Multi-LinearRegressionModal</v>
-      </c>
-      <c r="B92" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
-        <f t="shared" si="2"/>
-        <v>NeuralNetworkModal</v>
-      </c>
-      <c r="B93" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="str">
         <f t="shared" ref="A95:A116" si="3">SUBSTITUTE(CONCATENATE(B95,"Modal")," ","")</f>
         <v>EditZonesModal</v>
       </c>
       <c r="B95" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" t="str">
+        <f t="shared" si="3"/>
+        <v>InputCurvesModal</v>
+      </c>
+      <c r="B96" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" t="str">
+        <f t="shared" si="3"/>
+        <v>InputFuidModal</v>
+      </c>
+      <c r="B97" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
-        <f t="shared" si="3"/>
-        <v>InputCurvesModal</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" t="str">
+        <f t="shared" si="3"/>
+        <v>BuildMineralParametersModal</v>
+      </c>
+      <c r="B98" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
-        <f t="shared" si="3"/>
-        <v>InputFuidModal</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" t="str">
+        <f t="shared" si="3"/>
+        <v>InputMineralZonesModal</v>
+      </c>
+      <c r="B99" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
-        <f t="shared" si="3"/>
-        <v>BuildMineralParametersModal</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" t="str">
+        <f t="shared" si="3"/>
+        <v>Multi-MineralSolverModal</v>
+      </c>
+      <c r="B100" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
-        <f t="shared" si="3"/>
-        <v>InputMineralZonesModal</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" t="str">
+        <f t="shared" si="3"/>
+        <v>ClayMineralsVolumeModal</v>
+      </c>
+      <c r="B101" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
-        <f t="shared" si="3"/>
-        <v>Multi-MineralSolverModal</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" t="str">
+        <f t="shared" si="3"/>
+        <v>Fracture-VugPorosityModal</v>
+      </c>
+      <c r="B102" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
-        <f t="shared" si="3"/>
-        <v>ClayMineralsVolumeModal</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" t="str">
+        <f t="shared" si="3"/>
+        <v>OpenPorosityModal</v>
+      </c>
+      <c r="B103" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
-        <f t="shared" si="3"/>
-        <v>Fracture-VugPorosityModal</v>
-      </c>
-      <c r="B102" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
-        <f t="shared" si="3"/>
-        <v>OpenPorosityModal</v>
-      </c>
-      <c r="B103" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>SecondaryPorosityModal</v>
       </c>
       <c r="B104" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" t="str">
+        <f t="shared" si="3"/>
+        <v>FracturePorosityModal</v>
+      </c>
+      <c r="B105" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" t="str">
+        <f t="shared" si="3"/>
+        <v>FilteringFractureModal</v>
+      </c>
+      <c r="B106" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
-        <f t="shared" si="3"/>
-        <v>FracturePorosityModal</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" t="str">
+        <f t="shared" si="3"/>
+        <v>Micro&amp;MacroPorosityModal</v>
+      </c>
+      <c r="B107" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
-        <f t="shared" si="3"/>
-        <v>FilteringFractureModal</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" t="str">
+        <f t="shared" si="3"/>
+        <v>WaterSaturationModal</v>
+      </c>
+      <c r="B108" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
-        <f t="shared" si="3"/>
-        <v>Micro&amp;MacroPorosityModal</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" t="str">
+        <f t="shared" si="3"/>
+        <v>PermeabilityModal</v>
+      </c>
+      <c r="B109" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
-        <f t="shared" si="3"/>
-        <v>WaterSaturationModal</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" t="str">
+        <f t="shared" si="3"/>
+        <v>CutoffandSummationModal</v>
+      </c>
+      <c r="B110" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
-        <f t="shared" si="3"/>
-        <v>PermeabilityModal</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" t="str">
+        <f t="shared" si="3"/>
+        <v>FilteringModal</v>
+      </c>
+      <c r="B111" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" t="str">
+        <f t="shared" si="3"/>
+        <v>ClasticModal</v>
+      </c>
+      <c r="B112" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" t="str">
+        <f t="shared" si="3"/>
+        <v>BasicAnalysisModal</v>
+      </c>
+      <c r="B113" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" t="str">
+        <f t="shared" si="3"/>
+        <v>ClayVolumeModal</v>
+      </c>
+      <c r="B114" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" t="str">
+        <f t="shared" si="3"/>
+        <v>Porosity&amp;WaterSaturationModal</v>
+      </c>
+      <c r="B115" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
       </c>
-      <c r="B110" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
-        <f t="shared" si="3"/>
-        <v>FilteringModal</v>
-      </c>
-      <c r="B111" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
-        <f t="shared" si="3"/>
-        <v>ClasticModal</v>
-      </c>
-      <c r="B112" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
-        <f t="shared" si="3"/>
-        <v>BasicAnalysisModal</v>
-      </c>
-      <c r="B113" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
-        <f t="shared" si="3"/>
-        <v>ClayVolumeModal</v>
-      </c>
-      <c r="B114" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
-        <f t="shared" si="3"/>
-        <v>Porosity&amp;WaterSaturationModal</v>
-      </c>
-      <c r="B115" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="str">
-        <f t="shared" si="3"/>
-        <v>CutoffandSummationModal</v>
-      </c>
       <c r="B116" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="str">
         <f>SUBSTITUTE(CONCATENATE(B118,"Modal")," ","")</f>
         <v>AboutModal</v>
       </c>
       <c r="B118" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="str">
         <f>SUBSTITUTE(CONCATENATE(B119,"Modal")," ","")</f>
         <v>UnlockModal</v>
       </c>
       <c r="B119" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3119,15 +3242,16 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="18.59765625" customWidth="1"/>
+    <col min="2" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3141,7 +3265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3153,8 +3277,8 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3164,8 +3288,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="19">
         <v>1.2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3175,8 +3299,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="19">
         <v>1.3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3186,8 +3310,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="19">
         <v>1.4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3197,8 +3321,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="19">
         <v>1.5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3208,8 +3332,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="19">
         <v>1.6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3237,22 +3361,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView zoomScale="88" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
-    <col min="2" max="2" width="33.42578125"/>
-    <col min="3" max="3" width="15.5703125"/>
-    <col min="4" max="4" width="8.7109375"/>
-    <col min="5" max="6" width="31.5703125"/>
-    <col min="7" max="7" width="15.28515625"/>
-    <col min="8" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="19.06640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3984375"/>
+    <col min="3" max="3" width="15.59765625"/>
+    <col min="4" max="4" width="8.73046875"/>
+    <col min="5" max="6" width="31.59765625"/>
+    <col min="7" max="7" width="15.265625"/>
+    <col min="8" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3290,7 +3414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3319,8 +3443,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="20">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -3359,8 +3483,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="20">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -3399,8 +3523,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="20">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -3439,8 +3563,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="20">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -3479,37 +3603,37 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>SaveProjectDropdown</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="13" t="str">
+      <c r="D7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Dropdown</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="11" t="str">
         <f t="shared" si="2"/>
         <v>save-32x32</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+      <c r="H7" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
@@ -3520,8 +3644,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="3" t="str">
@@ -3535,7 +3659,7 @@
         <f t="shared" si="1"/>
         <v>Button</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>48</v>
       </c>
       <c r="F8" t="str">
@@ -3543,7 +3667,7 @@
         <v>save-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -3559,8 +3683,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="3" t="str">
@@ -3598,8 +3722,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="3" t="str">
@@ -3638,8 +3762,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="3" t="str">
@@ -3678,7 +3802,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -3717,8 +3841,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="20">
         <v>2.1</v>
       </c>
       <c r="B13" s="3" t="str">
@@ -3757,8 +3881,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="20">
         <v>2.2000000000000002</v>
       </c>
       <c r="B14" s="3" t="str">
@@ -3797,8 +3921,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3835,8 +3959,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3873,8 +3997,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3907,8 +4031,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3942,8 +4066,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="23" t="s">
         <v>83</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3977,8 +4101,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3993,7 +4117,7 @@
       <c r="E20" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="13" t="s">
         <v>89</v>
       </c>
       <c r="G20" t="s">
@@ -4010,8 +4134,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B21" s="3" t="str">
@@ -4050,44 +4174,44 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>3</v>
       </c>
-      <c r="B22" s="19" t="str">
+      <c r="B22" s="14" t="str">
         <f>SUBSTITUTE(CONCATENATE(G22,D22)," ","")</f>
         <v>ExitToolbar</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="20" t="str">
+      <c r="D22" s="15" t="str">
         <f>REPLACE(C22, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="str">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="str">
         <f>SUBSTITUTE(E22,"_","-")</f>
         <v/>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="20" t="str">
+      <c r="H22" s="15" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E22)), "icon-left","")</f>
         <v/>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="20">
         <v>3.1</v>
       </c>
       <c r="B23" s="3" t="str">
@@ -4137,15 +4261,16 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="2" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4183,7 +4308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4205,15 +4330,15 @@
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -4241,7 +4366,7 @@
         <f t="shared" ref="H3:H26" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K3" t="s">
@@ -4252,8 +4377,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="19">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -4281,7 +4406,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K4" t="s">
@@ -4292,8 +4417,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="19">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -4321,7 +4446,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K5" t="s">
@@ -4332,8 +4457,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="19">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -4361,7 +4486,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
@@ -4372,8 +4497,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="19">
         <v>1.5</v>
       </c>
       <c r="B7" s="3" t="str">
@@ -4401,7 +4526,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
@@ -4412,7 +4537,7 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
@@ -4440,44 +4565,44 @@
         <v/>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="24">
         <v>2.1</v>
       </c>
-      <c r="B9" s="11" t="str">
+      <c r="B9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ImportDropdown</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Dropdown</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="13" t="str">
+      <c r="F9" s="11" t="str">
         <f t="shared" si="2"/>
         <v>file-import-32x32</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15" t="s">
+      <c r="H9" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
@@ -4488,11 +4613,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIButton</v>
       </c>
@@ -4517,7 +4642,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K10" t="s">
@@ -4527,11 +4652,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIButton</v>
       </c>
@@ -4556,7 +4681,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K11" t="s">
@@ -4566,11 +4691,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASButton</v>
       </c>
@@ -4595,7 +4720,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
@@ -4605,11 +4730,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASButton</v>
       </c>
@@ -4634,7 +4759,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
@@ -4644,11 +4769,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderButton</v>
       </c>
@@ -4673,7 +4798,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K14" t="s">
@@ -4683,11 +4808,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderButton</v>
       </c>
@@ -4712,7 +4837,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K15" t="s">
@@ -4722,11 +4847,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="21" t="str">
+      <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderButton</v>
       </c>
@@ -4751,7 +4876,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K16" t="s">
@@ -4761,11 +4886,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopButton</v>
       </c>
@@ -4790,7 +4915,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K17" t="s">
@@ -4800,37 +4925,37 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="11" t="str">
+      <c r="B18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ExportDropdown</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="12" t="str">
+      <c r="D18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Dropdown</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="13" t="str">
+      <c r="F18" s="11" t="str">
         <f t="shared" si="2"/>
         <v>file-export-32x32</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="15" t="s">
+      <c r="H18" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K18" t="s">
@@ -4841,11 +4966,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIButton</v>
       </c>
@@ -4870,7 +4995,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K19" t="s">
@@ -4880,11 +5005,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIButton</v>
       </c>
@@ -4909,7 +5034,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K20" t="s">
@@ -4919,11 +5044,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASButton</v>
       </c>
@@ -4948,7 +5073,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K21" t="s">
@@ -4958,11 +5083,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASButton</v>
       </c>
@@ -4987,7 +5112,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K22" t="s">
@@ -4997,11 +5122,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataButton</v>
       </c>
@@ -5026,7 +5151,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K23" t="s">
@@ -5036,11 +5161,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="21" t="str">
+      <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderButton</v>
       </c>
@@ -5065,7 +5190,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K24" t="s">
@@ -5075,11 +5200,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="21" t="str">
+      <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderButton</v>
       </c>
@@ -5104,7 +5229,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K25" t="s">
@@ -5114,11 +5239,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="21" t="str">
+      <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopButton</v>
       </c>
@@ -5143,7 +5268,7 @@
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K26" t="s">
@@ -5163,17 +5288,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="18.53125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875"/>
+    <col min="4" max="4" width="19.1328125" customWidth="1"/>
+    <col min="5" max="5" width="22.46484375" customWidth="1"/>
+    <col min="6" max="6" width="38.19921875" customWidth="1"/>
+    <col min="7" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5211,7 +5341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5240,8 +5370,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="20">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -5280,8 +5410,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="20">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -5320,8 +5450,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="20">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -5360,8 +5490,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="20">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -5400,36 +5530,36 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
         <v>1.5</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>LogMoreDropdown</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Dropdown</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="11" t="str">
         <f t="shared" si="2"/>
         <v>logplot-more-32x32</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I7" s="13"/>
+      <c r="H7" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I7" s="11"/>
       <c r="J7" t="s">
         <v>31</v>
       </c>
@@ -5441,11 +5571,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="21" t="str">
+      <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3TracksBlankButton</v>
       </c>
@@ -5480,11 +5610,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="21" t="str">
+      <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>InputCurveButton</v>
       </c>
@@ -5519,11 +5649,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Litho+Syn.CurveButton</v>
       </c>
@@ -5558,11 +5688,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Syn.CurveButton</v>
       </c>
@@ -5597,11 +5727,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ResultButton</v>
       </c>
@@ -5636,7 +5766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -5674,8 +5804,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="20">
         <v>2.1</v>
       </c>
       <c r="B14" s="3" t="str">
@@ -5714,8 +5844,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="20">
         <v>2.2000000000000002</v>
       </c>
       <c r="B15" s="3" t="str">
@@ -5754,8 +5884,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="20">
         <v>2.2999999999999998</v>
       </c>
       <c r="B16" s="3" t="str">
@@ -5794,8 +5924,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="20">
         <v>2.4</v>
       </c>
       <c r="B17" s="3" t="str">
@@ -5834,8 +5964,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="20">
         <v>2.5</v>
       </c>
       <c r="B18" s="3" t="str">
@@ -5874,36 +6004,36 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="21">
         <v>2.6</v>
       </c>
-      <c r="B19" s="11" t="str">
+      <c r="B19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CrossMoreDropdown</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="12" t="str">
+      <c r="D19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Dropdown</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="13" t="str">
+      <c r="F19" s="11" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-result-16x16</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="13" t="str">
+      <c r="H19" s="11" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="11"/>
       <c r="J19" t="s">
         <v>31</v>
       </c>
@@ -5915,11 +6045,11 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>NeuTronSonicButton</v>
       </c>
@@ -5954,11 +6084,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DenityGammaButton</v>
       </c>
@@ -5993,11 +6123,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>NeuTronRtButton</v>
       </c>
@@ -6032,11 +6162,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DensitySonicButton</v>
       </c>
@@ -6071,11 +6201,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="21" t="str">
+      <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DensityRtButton</v>
       </c>
@@ -6110,11 +6240,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="B25" s="21" t="str">
+      <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SonicDensityButton</v>
       </c>
@@ -6149,11 +6279,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="21" t="str">
+      <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SonicRtButton</v>
       </c>
@@ -6188,11 +6318,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>RtRx0Button</v>
       </c>
@@ -6227,11 +6357,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="B28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PickettButton</v>
       </c>
@@ -6266,7 +6396,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -6301,8 +6431,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="3" t="str">
@@ -6341,8 +6471,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="20" t="s">
         <v>216</v>
       </c>
       <c r="B31" s="3" t="str">
@@ -6381,11 +6511,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B32" s="21" t="str">
+      <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SonicButton</v>
       </c>
@@ -6417,8 +6547,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="20" t="s">
         <v>222</v>
       </c>
       <c r="B33" s="3" t="str">
@@ -6457,8 +6587,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="20" t="s">
         <v>225</v>
       </c>
       <c r="B34" s="3" t="str">
@@ -6497,36 +6627,36 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" s="21">
         <v>3.6</v>
       </c>
-      <c r="B35" s="11" t="str">
+      <c r="B35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>HistogramMoreDropdown</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="12" t="str">
+      <c r="D35" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Dropdown</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F35" s="13" t="str">
+      <c r="F35" s="11" t="str">
         <f t="shared" si="2"/>
         <v>histogram-result-32x32</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H35" s="13" t="str">
+      <c r="H35" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I35" s="13"/>
+      <c r="I35" s="11"/>
       <c r="J35" t="s">
         <v>31</v>
       </c>
@@ -6538,8 +6668,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="23" t="s">
         <v>230</v>
       </c>
       <c r="B36" s="3" t="str">
@@ -6577,11 +6707,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="B37" s="21" t="str">
+      <c r="B37" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DeepResistivityButton</v>
       </c>
@@ -6616,11 +6746,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="B38" s="21" t="str">
+      <c r="B38" s="16" t="str">
         <f t="shared" si="0"/>
         <v>MSFLHistogramButton</v>
       </c>
@@ -6655,229 +6785,229 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="15"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C48" s="15"/>
-      <c r="G48" s="15"/>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="15"/>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="15"/>
-      <c r="G60" s="15"/>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="15"/>
-      <c r="G70" s="15"/>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="15"/>
-      <c r="G76" s="15"/>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C43" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C54" s="12"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C60" s="12"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C70" s="12"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C76" s="12"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D119" t="str">
         <f t="shared" ref="D119:D152" si="7">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D120" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D121" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D123" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D124" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D127" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D129" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D131" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D132" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D133" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D134" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D135" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D136" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D137" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D138" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D139" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D140" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D141" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D142" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D143" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D144" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D145" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D146" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D147" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D148" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D149" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D152" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6893,17 +7023,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="28.73046875" style="5" customWidth="1"/>
+    <col min="2" max="11" width="8.73046875"/>
+    <col min="12" max="12" width="12.73046875" customWidth="1"/>
+    <col min="13" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6941,7 +7073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -6970,33 +7102,33 @@
         <v>32</v>
       </c>
       <c r="L2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>AddCurveButton</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E3" t="s">
         <v>241</v>
-      </c>
-      <c r="B3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>AddCurveButton</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E3" t="s">
-        <v>242</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F32" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>curve-new-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H32" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -7013,30 +7145,30 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EditTextCurveButton</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E4" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>EditTextCurveButton</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>edit-curve-text-32x32</v>
+      </c>
+      <c r="G4" t="s">
         <v>245</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="2"/>
-        <v>edit-curve-text-32x32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>246</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -7053,36 +7185,36 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>EditCurveDropdown</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Dropdown</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>EditCurveDropdown</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Dropdown</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-edit-32x32</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-edit-32x32</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="H5" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I5" s="13"/>
+      <c r="H5" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I5" s="11"/>
       <c r="J5" t="s">
         <v>31</v>
       </c>
@@ -7094,11 +7226,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="21" t="str">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CurveListing/EditButton</v>
       </c>
@@ -7117,7 +7249,7 @@
         <v>curve-listing-16x16</v>
       </c>
       <c r="G6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -7133,30 +7265,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>InteractiveCurveEditButton</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E7" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>InteractiveCurveEditButton</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-interactive-edit-16x16</v>
+      </c>
+      <c r="G7" t="s">
         <v>253</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-interactive-edit-16x16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>254</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
@@ -7172,30 +7304,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>InteractiveBaselineShiftButton</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E8" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>InteractiveBaselineShiftButton</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-interactive-baseline-edit-16x16</v>
+      </c>
+      <c r="G8" t="s">
         <v>256</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-interactive-baseline-edit-16x16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>257</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -7211,36 +7343,36 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>SplitCurveDropdown</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Dropdown</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>SplitCurveDropdown</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Dropdown</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-splice-32x32</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="F9" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-splice-32x32</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I9" s="13"/>
+      <c r="H9" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I9" s="11"/>
       <c r="J9" t="s">
         <v>31</v>
       </c>
@@ -7252,30 +7384,30 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>SplitCurvesButton</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E10" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>SplitCurvesButton</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>cureve-splice-16x16</v>
+      </c>
+      <c r="G10" t="s">
         <v>262</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="2"/>
-        <v>cureve-splice-16x16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>263</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -7291,30 +7423,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>InteractiveCurveSplitButton</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E11" t="s">
         <v>264</v>
       </c>
-      <c r="B11" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>InteractiveCurveSplitButton</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-splice-interactive-16x16</v>
+      </c>
+      <c r="G11" t="s">
         <v>265</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-splice-interactive-16x16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>266</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -7330,8 +7462,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="str">
@@ -7353,7 +7485,7 @@
         <v>caculation-multilinerregression-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -7370,8 +7502,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="3" t="str">
@@ -7386,14 +7518,14 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-header-edit-16x16</v>
+      </c>
+      <c r="G13" t="s">
         <v>268</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-header-edit-16x16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>269</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
@@ -7410,8 +7542,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="3" t="str">
@@ -7426,14 +7558,14 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-fill-data-gaps-16x16</v>
+      </c>
+      <c r="G14" t="s">
         <v>270</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-fill-data-gaps-16x16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>271</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -7450,30 +7582,30 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveFilterButton</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E15" t="s">
         <v>272</v>
       </c>
-      <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveFilterButton</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-filter-16x16</v>
+      </c>
+      <c r="G15" t="s">
         <v>273</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-filter-16x16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>274</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -7490,30 +7622,30 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveConvolutionButton</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E16" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveConvolutionButton</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-convolution-16x16</v>
+      </c>
+      <c r="G16" t="s">
         <v>276</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-convolution-16x16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>277</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -7530,30 +7662,30 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveDeconvolutionButton</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E17" t="s">
         <v>278</v>
       </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveDeconvolutionButton</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-deconvolution-16x16</v>
+      </c>
+      <c r="G17" t="s">
         <v>279</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-deconvolution-16x16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>280</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -7570,30 +7702,30 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveDerivativeButton</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E18" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveDerivativeButton</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-edit-16x16</v>
+      </c>
+      <c r="G18" t="s">
         <v>282</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-edit-16x16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>283</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -7610,30 +7742,30 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveRescaleButton</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E19" t="s">
         <v>284</v>
       </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveRescaleButton</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-rescale-16x16</v>
+      </c>
+      <c r="G19" t="s">
         <v>285</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-rescale-16x16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>286</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -7650,30 +7782,30 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveComrarisonButton</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E20" t="s">
         <v>287</v>
       </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveComrarisonButton</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-compare-16x16</v>
+      </c>
+      <c r="G20" t="s">
         <v>288</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-compare-16x16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>289</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -7690,30 +7822,30 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveAverageButton</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E21" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveAverageButton</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>curve-average-16x16</v>
+      </c>
+      <c r="G21" t="s">
         <v>291</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="2"/>
-        <v>curve-average-16x16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>292</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -7730,30 +7862,30 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FormationResistivityButton</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E22" t="s">
         <v>293</v>
       </c>
-      <c r="B22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FormationResistivityButton</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v>formation-resistivity-16x16</v>
+      </c>
+      <c r="G22" t="s">
         <v>294</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="2"/>
-        <v>formation-resistivity-16x16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>295</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -7770,30 +7902,30 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Badhole/Coal/SaltButton</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E23" t="s">
         <v>296</v>
       </c>
-      <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Badhole/Coal/SaltButton</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>badhole-coal-salt-16x16</v>
+      </c>
+      <c r="G23" t="s">
         <v>297</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="2"/>
-        <v>badhole-coal-salt-16x16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>298</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -7810,66 +7942,66 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="20" t="str">
+      <c r="B24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>UserFormulaToolbar</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="20" t="str">
+      <c r="D24" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="F24" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G24" s="20" t="s">
+      <c r="F24" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="H24" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="20" t="s">
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>UserFormulaButton</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E25" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>UserFormulaButton</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E25" t="s">
-        <v>302</v>
-      </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>user-formula-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -7886,8 +8018,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="20" t="s">
         <v>131</v>
       </c>
       <c r="B26" s="3" t="str">
@@ -7902,14 +8034,14 @@
         <v>Button</v>
       </c>
       <c r="E26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>user-formula-multiline-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -7926,8 +8058,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="3" t="str">
@@ -7942,14 +8074,14 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v>python-program-16x16</v>
       </c>
       <c r="G27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
@@ -7966,66 +8098,66 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>CalculationToolbar</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Toolbar</v>
+      </c>
+      <c r="F28" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H28" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TVDConversionButton</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E29" t="s">
         <v>307</v>
       </c>
-      <c r="B28" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>CalculationToolbar</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>Toolbar</v>
-      </c>
-      <c r="F28" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G28" s="20" t="s">
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>true-vertical-depth-32x32</v>
+      </c>
+      <c r="G29" t="s">
         <v>308</v>
-      </c>
-      <c r="H28" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TVDConversionButton</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E29" t="s">
-        <v>310</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="2"/>
-        <v>true-vertical-depth-32x32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>311</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="3"/>
@@ -8042,8 +8174,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="20" t="s">
         <v>216</v>
       </c>
       <c r="B30" s="3" t="str">
@@ -8058,14 +8190,14 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="2"/>
         <v>pca-analysis-16x16</v>
       </c>
       <c r="G30" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
@@ -8082,8 +8214,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="20" t="s">
         <v>219</v>
       </c>
       <c r="B31" s="3" t="str">
@@ -8105,7 +8237,7 @@
         <v>caculation-multilinerregression-16x16</v>
       </c>
       <c r="G31" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
@@ -8122,8 +8254,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="20" t="s">
         <v>222</v>
       </c>
       <c r="B32" s="3" t="str">
@@ -8138,14 +8270,14 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
         <v>Neural-Network-16x16</v>
       </c>
       <c r="G32" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
@@ -8170,19 +8302,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="13.06640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.86328125" customWidth="1"/>
+    <col min="3" max="3" width="21.73046875" customWidth="1"/>
+    <col min="4" max="4" width="8.73046875"/>
+    <col min="5" max="5" width="26.86328125" customWidth="1"/>
+    <col min="6" max="6" width="29.53125" customWidth="1"/>
+    <col min="7" max="7" width="35.3984375" customWidth="1"/>
+    <col min="8" max="11" width="8.73046875"/>
+    <col min="12" max="12" width="11.265625" customWidth="1"/>
+    <col min="13" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8220,40 +8360,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+    <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="str">
-        <f t="shared" ref="B2:B24" si="0">SUBSTITUTE(CONCATENATE(G2,D2)," ","")</f>
+      <c r="B2" s="15" t="str">
+        <f t="shared" ref="B2:B50" si="0">SUBSTITUTE(CONCATENATE(G2,D2)," ","")</f>
         <v>Basement/TightSandstoneToolbar</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="20" t="str">
-        <f t="shared" ref="D2:D24" si="1">REPLACE(C2, 1, 2, "")</f>
+      <c r="D2" s="15" t="str">
+        <f t="shared" ref="D2:D50" si="1">REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="F2" s="20" t="str">
-        <f t="shared" ref="F2:F24" si="2">SUBSTITUTE(E2,"_","-")</f>
-        <v/>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="F2" s="15" t="str">
+        <f t="shared" ref="F2:F50" si="2">SUBSTITUTE(E2,"_","-")</f>
+        <v/>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="18">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -8268,17 +8408,17 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-edit-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H36" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
+        <f t="shared" ref="H3:H50" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J3" t="s">
@@ -8292,8 +8432,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="18">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -8308,14 +8448,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>curve-input-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -8332,8 +8472,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="18">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -8348,14 +8488,14 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v>fluid-input-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
@@ -8372,8 +8512,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="18">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -8388,14 +8528,14 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-parameter-build-16x16</v>
       </c>
       <c r="G6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -8412,8 +8552,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="18">
         <v>1.5</v>
       </c>
       <c r="B7" s="3" t="str">
@@ -8428,14 +8568,14 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-edit-16x16</v>
       </c>
       <c r="G7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
@@ -8452,8 +8592,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="18">
         <v>1.6</v>
       </c>
       <c r="B8" s="3" t="str">
@@ -8468,14 +8608,14 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>multi-mineral-solver-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -8492,8 +8632,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="18">
         <v>1.7</v>
       </c>
       <c r="B9" s="3" t="str">
@@ -8508,14 +8648,14 @@
         <v>Button</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
         <v>Vclay-16x16</v>
       </c>
       <c r="G9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="3"/>
@@ -8532,8 +8672,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="18">
         <v>1.8</v>
       </c>
       <c r="B10" s="3" t="str">
@@ -8548,14 +8688,14 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>secondary-porosity-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -8572,8 +8712,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="18">
         <v>1.9</v>
       </c>
       <c r="B11" s="3" t="str">
@@ -8588,14 +8728,14 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -8612,9 +8752,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>278</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8628,14 +8768,14 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>secondary-porosity-16x16</v>
+      </c>
+      <c r="G12" t="s">
         <v>333</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="2"/>
-        <v>secondary-porosity-16x16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>337</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -8652,9 +8792,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>281</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8668,14 +8808,14 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>fracture-porosity-permeability-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
@@ -8692,9 +8832,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>284</v>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8708,14 +8848,14 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>phi2fil-phio-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -8732,9 +8872,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>287</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8748,14 +8888,14 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>mineral-volume-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -8772,9 +8912,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>290</v>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8788,14 +8928,14 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -8812,9 +8952,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>293</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8828,14 +8968,14 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>calculate-permeability-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -8852,9 +8992,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>296</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8868,14 +9008,14 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>summation-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -8892,9 +9032,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>350</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
+        <v>346</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8908,14 +9048,14 @@
         <v>Button</v>
       </c>
       <c r="E19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>curve-filter-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -8932,45 +9072,45 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="17">
         <v>2</v>
       </c>
-      <c r="B20" s="20" t="str">
+      <c r="B20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ClasticToolbar</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="20" t="str">
+      <c r="D20" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="F20" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="H20" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>2.1</v>
+      <c r="F20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="H20" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
+        <v>299</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8984,14 +9124,14 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>sand-32x32</v>
       </c>
       <c r="G21" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -9008,33 +9148,33 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="18">
         <v>2.2000000000000002</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClayVolumeButton</v>
+        <v>ClayVolumeDropdown</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
-        <v>Button</v>
+        <v>Dropdown</v>
       </c>
       <c r="E22" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("16x16",E22)), "icon-left","")</f>
         <v>icon-left</v>
       </c>
       <c r="J22" t="s">
@@ -9048,189 +9188,1206 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>GammaRayButton</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E23" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>clay-volume-16x16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Neutron-DensityButton</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E24" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>clay-volume-16x16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>380</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Neutron-SonicButton</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E25" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>clay-volume-16x16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>383</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Density-SonicButton</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E26" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>clay-volume-16x16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>384</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ResistivityButton</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E27" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>clay-volume-16x16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>385</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>SpontaneouspotentialButton</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>clay-volume-16x16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ThermalNeutronButton</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E29" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>clay-volume-16x16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PotassiumButton</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>clay-volume-16x16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>388</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ThoriumButton</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E31" t="s">
+        <v>351</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>clay-volume-16x16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>389</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FinalClayVolumeButton</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E32" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>clay-volume-16x16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>406</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Porosity&amp;WaterSaturationButton</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PorosityDropdown</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="str">
+        <f>REPLACE(C33, 1, 2, "")</f>
+        <v>Dropdown</v>
+      </c>
+      <c r="E33" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>calculate-open-porosity-16x16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>391</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J33" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E33)),"fix-btn-sm", "height65")</f>
+        <v>fix-btn-sm</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f>SUBSTITUTE(CONCATENATE($G$33,G34,D34)," ","")</f>
+        <v>PorosityDensityButton</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="str">
+        <f>REPLACE(C34, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E34" t="s">
+        <v>392</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v>calculate-open-porosity-16x16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" ref="B35:B39" si="5">SUBSTITUTE(CONCATENATE($G$33,G35,D35)," ","")</f>
+        <v>PorosityNeutronButton</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" ref="D35:D39" si="6">REPLACE(C35, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E35" t="s">
+        <v>392</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v>calculate-open-porosity-16x16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>PorositySonicButton</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="6"/>
+        <v>Button</v>
+      </c>
+      <c r="E36" t="s">
+        <v>392</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v>calculate-open-porosity-16x16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J36" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>PorosityNeutron-DensityButton</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="6"/>
+        <v>Button</v>
+      </c>
+      <c r="E37" t="s">
+        <v>392</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>calculate-open-porosity-16x16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>380</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>PorosityNeutron-SonicButton</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="6"/>
+        <v>Button</v>
+      </c>
+      <c r="E38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v>calculate-open-porosity-16x16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>383</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>PorosityFinalButton</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="6"/>
+        <v>Button</v>
+      </c>
+      <c r="E39" t="s">
+        <v>392</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="2"/>
+        <v>calculate-open-porosity-16x16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>390</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>WaterSaturationDropdown</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="str">
+        <f>REPLACE(C40, 1, 2, "")</f>
+        <v>Dropdown</v>
+      </c>
+      <c r="E40" t="s">
+        <v>340</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v>water-saturation-16x16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>341</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E40)),"fix-btn-sm", "height65")</f>
+        <v>fix-btn-sm</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ArchieButton</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="str">
+        <f>REPLACE(C41, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E41" t="s">
+        <v>340</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="2"/>
+        <v>water-saturation-16x16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>407</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>IndonesiaButton</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" ref="D42:D49" si="7">REPLACE(C42, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E42" t="s">
+        <v>340</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v>water-saturation-16x16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>408</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ModifiedIndonesiaButton</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="7"/>
+        <v>Button</v>
+      </c>
+      <c r="E43" t="s">
+        <v>340</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="2"/>
+        <v>water-saturation-16x16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>409</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>SimandouxButton</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="7"/>
+        <v>Button</v>
+      </c>
+      <c r="E44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="2"/>
+        <v>water-saturation-16x16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>410</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="B45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ModifiedSimandouxButton</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="7"/>
+        <v>Button</v>
+      </c>
+      <c r="E45" t="s">
+        <v>340</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="2"/>
+        <v>water-saturation-16x16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>411</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Dual-WaterButton</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="7"/>
+        <v>Button</v>
+      </c>
+      <c r="E46" t="s">
+        <v>340</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="2"/>
+        <v>water-saturation-16x16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>412</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J46" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="B47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>WaxMan-SmithButton</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="7"/>
+        <v>Button</v>
+      </c>
+      <c r="E47" t="s">
+        <v>340</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="2"/>
+        <v>water-saturation-16x16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>413</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J47" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>JuhaszButton</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="7"/>
+        <v>Button</v>
+      </c>
+      <c r="E48" t="s">
+        <v>340</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="2"/>
+        <v>water-saturation-16x16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>414</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J48" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>FinalWaterSaturationButton</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="7"/>
+        <v>Button</v>
+      </c>
+      <c r="E49" t="s">
+        <v>340</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="2"/>
+        <v>water-saturation-16x16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>415</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A50" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CutoffandSummationButton</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E50" t="s">
         <v>344</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="2"/>
-        <v>water-saturation-16x16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>357</v>
-      </c>
-      <c r="H23" t="str">
+      <c r="F50" t="str">
+        <f t="shared" si="2"/>
+        <v>summation-16x16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" t="str">
         <f t="shared" si="3"/>
         <v>icon-left</v>
       </c>
-      <c r="J23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E23)),"fix-btn-sm", "height65")</f>
+      <c r="J50" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E50)),"fix-btn-sm", "height65")</f>
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CutoffandSummationButton</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E24" t="s">
-        <v>348</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="2"/>
-        <v>summation-16x16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>349</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="3"/>
-        <v>icon-left</v>
-      </c>
-      <c r="J24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E24)),"fix-btn-sm", "height65")</f>
-        <v>fix-btn-sm</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="H25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="H26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="H29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="H30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="H31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="H32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="H33" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="H34" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="H35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="H36" t="str">
-        <f t="shared" si="3"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A52"/>
+      <c r="H52" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E51)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H53" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E52)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E53)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="H55" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E54)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="H56" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E55)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="H57" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E56)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="H58" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E57)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="H59" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E58)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="H60" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E59)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="H61" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E60)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="H62" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E61)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H63" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E62)), "icon-left","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9239,16 +10396,16 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="14.9296875" style="5" customWidth="1"/>
+    <col min="2" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9286,7 +10443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -9304,7 +10461,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -9315,9 +10472,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>241</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>SUBSTITUTE(CONCATENATE(G3,D3)," ","")</f>
@@ -9331,14 +10488,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
         <v>help-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H3" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -9351,11 +10508,11 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="20">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -9370,14 +10527,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F4" t="str">
         <f>SUBSTITUTE(E4,"_","-")</f>
         <v>info-frp-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H4" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E4)), "icon-left","")</f>
@@ -9390,11 +10547,11 @@
         <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="20">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -9409,14 +10566,14 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F5" t="str">
         <f>SUBSTITUTE(E5,"_","-")</f>
         <v>unlock1-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H5" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E5)), "icon-left","")</f>
@@ -9429,7 +10586,7 @@
         <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -9443,16 +10600,16 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="17.53125" style="5" customWidth="1"/>
+    <col min="2" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9487,7 +10644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -9516,8 +10673,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="20">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -9532,7 +10689,7 @@
         <v>Toolbar</v>
       </c>
       <c r="E3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
@@ -9548,8 +10705,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="20">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -9557,14 +10714,14 @@
         <v>ProjectTreeview</v>
       </c>
       <c r="C4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D4" t="str">
         <f>REPLACE(C4, 1, 2, "")</f>
         <v>Treeview</v>
       </c>
       <c r="E4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F4" t="str">
         <f>SUBSTITUTE(E4,"_","-")</f>
@@ -9580,7 +10737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -9589,7 +10746,7 @@
         <v>PropertiesTabs</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>REPLACE(C5, 1, 2, "")</f>
@@ -9601,7 +10758,7 @@
         <v/>
       </c>
       <c r="G5" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -9612,8 +10769,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="20">
         <v>2.1</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -9621,7 +10778,7 @@
         <v>PropertyList</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D6" t="str">
         <f>REPLACE(C6, 1, 2, "")</f>
@@ -9632,7 +10789,7 @@
         <v/>
       </c>
       <c r="G6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_space\GitHub\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\workspace\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="420">
   <si>
     <t>Code</t>
   </si>
@@ -297,18 +297,6 @@
     <t>2.4</t>
   </si>
   <si>
-    <t>ExportToolButton</t>
-  </si>
-  <si>
-    <t>export_well_top_32x32</t>
-  </si>
-  <si>
-    <t>export-well-top-32x32</t>
-  </si>
-  <si>
-    <t>Export Tool</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
@@ -1285,13 +1273,34 @@
   </si>
   <si>
     <t>width-390</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>file_export_16x16</t>
+  </si>
+  <si>
+    <t>file-export-16x16</t>
+  </si>
+  <si>
+    <t>ExportFromInventoryButton</t>
+  </si>
+  <si>
+    <t>ExportFromProjectButton</t>
+  </si>
+  <si>
+    <t>ExportDropdown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1306,12 +1315,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1353,7 +1356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1375,7 +1378,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
@@ -1416,8 +1418,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1766,12 +1796,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.73046875"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1796,7 +1826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1807,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1818,7 +1848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1848,13 +1878,13 @@
       <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.9296875" style="5" customWidth="1"/>
-    <col min="2" max="1025" width="8.73046875"/>
+    <col min="1" max="1" width="24" style="5" customWidth="1"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1898,7 +1928,7 @@
         <v>WorkingTabs</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D9" si="0">REPLACE(C2, 1, 2, "")</f>
@@ -1907,7 +1937,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1918,8 +1948,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="20">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -1934,14 +1964,14 @@
         <v>Toolbar</v>
       </c>
       <c r="E3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F9" si="1">SUBSTITUTE(E3,"_","-")</f>
         <v>help-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -1950,8 +1980,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="20">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -1959,21 +1989,21 @@
         <v>WorkingSlidingbar</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>Slidingbar</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
         <v>info-frp-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -1982,7 +2012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1991,7 +2021,7 @@
         <v>WorkflowsTabs</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2014,8 +2044,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="21">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <v>2.1</v>
       </c>
       <c r="B6" s="9" t="str">
@@ -2035,7 +2065,7 @@
         <v/>
       </c>
       <c r="G6" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2046,13 +2076,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="20">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2072,8 +2102,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="20">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
         <v>2.2999999999999998</v>
       </c>
       <c r="B8" s="3"/>
@@ -2098,7 +2128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2116,7 +2146,7 @@
         <v/>
       </c>
       <c r="G9" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2141,33 +2171,33 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.9296875" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="1025" width="8.73046875"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -2179,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -2191,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -2203,10 +2233,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -2218,1017 +2248,1017 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
       </c>
       <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>WellHeaderModal</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>DepthConversionModal</v>
+      </c>
+      <c r="B11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>WellHeaderModal</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>CurveAliasModal</v>
+      </c>
+      <c r="B12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>DepthConversionModal</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>FamilyEditModal</v>
+      </c>
+      <c r="B13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>CurveAliasModal</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>Input/OutputModal</v>
+      </c>
+      <c r="B14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>FamilyEditModal</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>Input/OutputModal</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>ImportASCIIModal</v>
+      </c>
+      <c r="B15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>ImportASCIIModal</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASModal</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASModal</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderModal</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderModal</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopModal</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIModal</v>
       </c>
       <c r="B23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportMultiASCIIModal</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportLASModal</v>
+      </c>
+      <c r="B25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>ExportMultiASCIIModal</v>
-      </c>
-      <c r="B24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>ExportLASModal</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportMultiLASModal</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>ExportCoreDataModal</v>
+      </c>
+      <c r="B27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>ExportMultiLASModal</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>ExportCoreDataModal</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderModal</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopModal</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A65" si="1">SUBSTITUTE(CONCATENATE(B32,"Modal")," ","")</f>
         <v>BlankLogplotModal</v>
       </c>
       <c r="B32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="1"/>
+        <v>TrippleComboModal</v>
+      </c>
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="1"/>
+        <v>DensityNeutronModal</v>
+      </c>
+      <c r="B34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="str">
-        <f t="shared" si="1"/>
-        <v>TrippleComboModal</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
+        <v>ResistivitySonicModal</v>
+      </c>
+      <c r="B35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" t="str">
-        <f t="shared" si="1"/>
-        <v>DensityNeutronModal</v>
-      </c>
-      <c r="B34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" t="str">
-        <f t="shared" si="1"/>
-        <v>ResistivitySonicModal</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>3TracksBlankModal</v>
+      </c>
+      <c r="B36" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" t="str">
-        <f t="shared" si="1"/>
-        <v>3TracksBlankModal</v>
-      </c>
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>InputCurveModal</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>Litho+Syn.CurveModal</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>Syn.CurveModal</v>
       </c>
       <c r="B39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v>CrossPlotModal</v>
+      </c>
+      <c r="B40" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" t="str">
-        <f t="shared" si="1"/>
-        <v>CrossPlotModal</v>
-      </c>
-      <c r="B40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>BlankCrossPlotModal</v>
       </c>
       <c r="B41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v>SonicPHI_TOTALModal</v>
+      </c>
+      <c r="B42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v>NeutronDensityModal</v>
+      </c>
+      <c r="B43" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="str">
-        <f t="shared" si="1"/>
-        <v>SonicPHI_TOTALModal</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
+        <v>NeutronGammaModal</v>
+      </c>
+      <c r="B44" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" t="str">
-        <f t="shared" si="1"/>
-        <v>NeutronDensityModal</v>
-      </c>
-      <c r="B43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" t="str">
-        <f t="shared" si="1"/>
-        <v>NeutronGammaModal</v>
-      </c>
-      <c r="B44" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>SonicGammaModal</v>
       </c>
       <c r="B45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="1"/>
+        <v>NeuTronSonicModal</v>
+      </c>
+      <c r="B46" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" t="str">
-        <f t="shared" si="1"/>
-        <v>NeuTronSonicModal</v>
-      </c>
-      <c r="B46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>DenityGammaModal</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronRtModal</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>DensitySonicModal</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>DensityRtModal</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>SonicDensityModal</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>SonicRtModal</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>RtRx0Modal</v>
       </c>
       <c r="B53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="1"/>
+        <v>PickettModal</v>
+      </c>
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="1"/>
+        <v>HistogramModal</v>
+      </c>
+      <c r="B55" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" t="str">
-        <f t="shared" si="1"/>
-        <v>PickettModal</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="1"/>
+        <v>BlankHistogramModal</v>
+      </c>
+      <c r="B56" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" t="str">
-        <f t="shared" si="1"/>
-        <v>HistogramModal</v>
-      </c>
-      <c r="B55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" t="str">
-        <f t="shared" si="1"/>
-        <v>BlankHistogramModal</v>
-      </c>
-      <c r="B56" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>PHI_TOTALModal</v>
       </c>
       <c r="B57" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>GammaRayModal</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>NeutronModal</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>DensityModal</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>HistogramMoreModal</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>SonicModal</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>SallowResistivityModal</v>
       </c>
       <c r="B63" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>DeepResistivityModal</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>MSFLHistogramModal</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">SUBSTITUTE(CONCATENATE(B67,"Modal")," ","")</f>
         <v>AddCurveModal</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveEditModal</v>
       </c>
       <c r="B68" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveBaselineShiftModal</v>
       </c>
       <c r="B69" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurveModal</v>
       </c>
       <c r="B70" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurvesModal</v>
       </c>
       <c r="B71" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="2"/>
+        <v>InteractiveCurveSplitModal</v>
+      </c>
+      <c r="B72" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="2"/>
+        <v>MergeCurvesModal</v>
+      </c>
+      <c r="B73" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" t="str">
-        <f t="shared" si="2"/>
-        <v>InteractiveCurveSplitModal</v>
-      </c>
-      <c r="B72" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" t="str">
-        <f t="shared" si="2"/>
-        <v>MergeCurvesModal</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="2"/>
+        <v>CurvesHeaderModal</v>
+      </c>
+      <c r="B74" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="2"/>
+        <v>FillDataGapsModal</v>
+      </c>
+      <c r="B75" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" t="str">
-        <f t="shared" si="2"/>
-        <v>CurvesHeaderModal</v>
-      </c>
-      <c r="B74" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" t="str">
-        <f t="shared" si="2"/>
-        <v>FillDataGapsModal</v>
-      </c>
-      <c r="B75" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>CurveFilterModal</v>
       </c>
       <c r="B76" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>CurveConvolutionModal</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>CurveDeconvolutionModal</v>
       </c>
       <c r="B78" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>CurveDerivativeModal</v>
       </c>
       <c r="B79" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>CurveRescaleModal</v>
       </c>
       <c r="B80" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>CurveComrarisonModal</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>CurveAverageModal</v>
       </c>
       <c r="B82" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FormationResistivityModal</v>
       </c>
       <c r="B83" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="2"/>
+        <v>Badhole/Coal/SaltModal</v>
+      </c>
+      <c r="B84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="2"/>
+        <v>UserFormulaModal</v>
+      </c>
+      <c r="B85" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" t="str">
-        <f t="shared" si="2"/>
-        <v>Badhole/Coal/SaltModal</v>
-      </c>
-      <c r="B84" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" t="str">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="2"/>
+        <v>UserProgramModal</v>
+      </c>
+      <c r="B87" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" t="str">
-        <f t="shared" si="2"/>
-        <v>UserFormulaModal</v>
-      </c>
-      <c r="B86" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" t="str">
-        <f t="shared" si="2"/>
-        <v>UserProgramModal</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="2"/>
+        <v>PythonProgramModal</v>
+      </c>
+      <c r="B88" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="2"/>
+        <v>CalculationModal</v>
+      </c>
+      <c r="B89" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" t="str">
-        <f t="shared" si="2"/>
-        <v>PythonProgramModal</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="2"/>
+        <v>TVDConversionModal</v>
+      </c>
+      <c r="B90" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" t="str">
-        <f t="shared" si="2"/>
-        <v>CalculationModal</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="2"/>
+        <v>PCAAnalysisModal</v>
+      </c>
+      <c r="B91" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" t="str">
-        <f t="shared" si="2"/>
-        <v>TVDConversionModal</v>
-      </c>
-      <c r="B90" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" t="str">
-        <f t="shared" si="2"/>
-        <v>PCAAnalysisModal</v>
-      </c>
-      <c r="B91" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Multi-LinearRegressionModal</v>
       </c>
       <c r="B92" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>NeuralNetworkModal</v>
       </c>
       <c r="B93" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" ref="A95:A116" si="3">SUBSTITUTE(CONCATENATE(B95,"Modal")," ","")</f>
         <v>EditZonesModal</v>
       </c>
       <c r="B95" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" si="3"/>
+        <v>InputCurvesModal</v>
+      </c>
+      <c r="B96" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" si="3"/>
+        <v>InputFuidModal</v>
+      </c>
+      <c r="B97" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" t="str">
-        <f t="shared" si="3"/>
-        <v>InputCurvesModal</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f t="shared" si="3"/>
+        <v>BuildMineralParametersModal</v>
+      </c>
+      <c r="B98" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" t="str">
-        <f t="shared" si="3"/>
-        <v>InputFuidModal</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" si="3"/>
+        <v>InputMineralZonesModal</v>
+      </c>
+      <c r="B99" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98" t="str">
-        <f t="shared" si="3"/>
-        <v>BuildMineralParametersModal</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" si="3"/>
+        <v>Multi-MineralSolverModal</v>
+      </c>
+      <c r="B100" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99" t="str">
-        <f t="shared" si="3"/>
-        <v>InputMineralZonesModal</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="3"/>
+        <v>ClayMineralsVolumeModal</v>
+      </c>
+      <c r="B101" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A100" t="str">
-        <f t="shared" si="3"/>
-        <v>Multi-MineralSolverModal</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="3"/>
+        <v>Fracture-VugPorosityModal</v>
+      </c>
+      <c r="B102" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101" t="str">
-        <f t="shared" si="3"/>
-        <v>ClayMineralsVolumeModal</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="3"/>
+        <v>OpenPorosityModal</v>
+      </c>
+      <c r="B103" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A102" t="str">
-        <f t="shared" si="3"/>
-        <v>Fracture-VugPorosityModal</v>
-      </c>
-      <c r="B102" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103" t="str">
-        <f t="shared" si="3"/>
-        <v>OpenPorosityModal</v>
-      </c>
-      <c r="B103" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>SecondaryPorosityModal</v>
       </c>
       <c r="B104" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" si="3"/>
+        <v>FracturePorosityModal</v>
+      </c>
+      <c r="B105" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" si="3"/>
+        <v>FilteringFractureModal</v>
+      </c>
+      <c r="B106" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" t="str">
-        <f t="shared" si="3"/>
-        <v>FracturePorosityModal</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" si="3"/>
+        <v>Micro&amp;MacroPorosityModal</v>
+      </c>
+      <c r="B107" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106" t="str">
-        <f t="shared" si="3"/>
-        <v>FilteringFractureModal</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" si="3"/>
+        <v>WaterSaturationModal</v>
+      </c>
+      <c r="B108" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" t="str">
-        <f t="shared" si="3"/>
-        <v>Micro&amp;MacroPorosityModal</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" si="3"/>
+        <v>PermeabilityModal</v>
+      </c>
+      <c r="B109" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108" t="str">
-        <f t="shared" si="3"/>
-        <v>WaterSaturationModal</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="3"/>
+        <v>CutoffandSummationModal</v>
+      </c>
+      <c r="B110" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" t="str">
-        <f t="shared" si="3"/>
-        <v>PermeabilityModal</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="3"/>
+        <v>FilteringModal</v>
+      </c>
+      <c r="B111" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A110" t="str">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" si="3"/>
+        <v>ClasticModal</v>
+      </c>
+      <c r="B112" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" si="3"/>
+        <v>BasicAnalysisModal</v>
+      </c>
+      <c r="B113" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f t="shared" si="3"/>
+        <v>ClayVolumeModal</v>
+      </c>
+      <c r="B114" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f t="shared" si="3"/>
+        <v>Porosity&amp;WaterSaturationModal</v>
+      </c>
+      <c r="B115" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
       </c>
-      <c r="B110" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A111" t="str">
-        <f t="shared" si="3"/>
-        <v>FilteringModal</v>
-      </c>
-      <c r="B111" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A112" t="str">
-        <f t="shared" si="3"/>
-        <v>ClasticModal</v>
-      </c>
-      <c r="B112" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" t="str">
-        <f t="shared" si="3"/>
-        <v>BasicAnalysisModal</v>
-      </c>
-      <c r="B113" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" t="str">
-        <f t="shared" si="3"/>
-        <v>ClayVolumeModal</v>
-      </c>
-      <c r="B114" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" t="str">
-        <f t="shared" si="3"/>
-        <v>Porosity&amp;WaterSaturationModal</v>
-      </c>
-      <c r="B115" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" t="str">
-        <f t="shared" si="3"/>
-        <v>CutoffandSummationModal</v>
-      </c>
       <c r="B116" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>SUBSTITUTE(CONCATENATE(B118,"Modal")," ","")</f>
         <v>AboutModal</v>
       </c>
       <c r="B118" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>SUBSTITUTE(CONCATENATE(B119,"Modal")," ","")</f>
         <v>UnlockModal</v>
       </c>
       <c r="B119" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3245,13 +3275,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" customWidth="1"/>
-    <col min="2" max="1025" width="8.73046875"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3265,7 +3295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3277,8 +3307,8 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="19">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3288,8 +3318,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="19">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>1.2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3299,8 +3329,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="19">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>1.3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3310,8 +3340,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="19">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>1.4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3321,8 +3351,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="19">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>1.5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3332,8 +3362,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="19">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>1.6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3359,24 +3389,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.06640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.3984375"/>
-    <col min="3" max="3" width="15.59765625"/>
-    <col min="4" max="4" width="8.73046875"/>
-    <col min="5" max="6" width="31.59765625"/>
-    <col min="7" max="7" width="15.265625"/>
-    <col min="8" max="1025" width="8.73046875"/>
+    <col min="1" max="1" width="19" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125"/>
+    <col min="3" max="3" width="15.5703125"/>
+    <col min="4" max="4" width="8.7109375"/>
+    <col min="5" max="6" width="31.5703125"/>
+    <col min="7" max="7" width="15.28515625"/>
+    <col min="8" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3414,19 +3444,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f t="shared" ref="B2:B14" si="0">SUBSTITUTE(CONCATENATE(G2,D2)," ","")</f>
+        <f t="shared" ref="B2:B17" si="0">SUBSTITUTE(CONCATENATE(G2,D2)," ","")</f>
         <v>DatabasesToolbar</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D17" si="1">REPLACE(C2, 1, 2, "")</f>
+        <f t="shared" ref="D2:D20" si="1">REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
       <c r="E2" s="2"/>
@@ -3443,8 +3473,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="20">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -3462,14 +3492,14 @@
         <v>34</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F16" si="2">SUBSTITUTE(E3,"_","-")</f>
+        <f t="shared" ref="F3:F19" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>project-new-32x32</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H16" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
+        <f t="shared" ref="H3:H19" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J3" t="s">
@@ -3483,8 +3513,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="20">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -3523,8 +3553,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="20">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -3563,8 +3593,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="20">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -3603,8 +3633,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="9" t="str">
@@ -3644,8 +3674,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="3" t="str">
@@ -3667,7 +3697,7 @@
         <v>save-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -3683,8 +3713,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="3" t="str">
@@ -3722,8 +3752,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="3" t="str">
@@ -3762,8 +3792,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="3" t="str">
@@ -3802,207 +3832,200 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ViewToolbar</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Toolbar</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>Dropdown</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>file-export-32x32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L12" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E12)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="20">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>las-export-16x16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E14" t="s">
+        <v>415</v>
+      </c>
+      <c r="F14" t="s">
+        <v>416</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ViewToolbar</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Toolbar</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E15)),"fix-button-sm", "height65")</f>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
         <v>2.1</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ProjectButton</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E16" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>project-normal-32x32</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G16" t="s">
         <v>61</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E13)),"fix-button-sm", "height65")</f>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E16)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="20">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>WorkflowsDropdown</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>Dropdown</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="2"/>
-        <v>workflow-32x32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E14)),"fix-button-sm", "height65")</f>
-        <v>height65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="2"/>
-        <v>workflow-16x16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="3"/>
-        <v>icon-left</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="2"/>
-        <v>workflow-16x16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="3"/>
-        <v>icon-left</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -4012,13 +4035,18 @@
         <v>Dropdown</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>workflow-32x32</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J17" t="s">
         <v>31</v>
@@ -4031,30 +4059,33 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="23" t="s">
-        <v>76</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
-        <v>78</v>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>workflow-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
@@ -4066,30 +4097,33 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="23" t="s">
-        <v>83</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
-        <v>78</v>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>workflow-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
+        <v>70</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
@@ -4101,27 +4135,28 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="22" t="s">
-        <v>86</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>Dropdown</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
@@ -4134,34 +4169,30 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="3" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G21,D21)," ","")</f>
-        <v>PropertyGridButton</v>
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="str">
-        <f>REPLACE(C21, 1, 2, "")</f>
-        <v>Button</v>
+      <c r="D21" t="s">
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" t="str">
-        <f>SUBSTITUTE(E21,"_","-")</f>
-        <v>property-grid-32x32</v>
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E21)), "icon-left","")</f>
-        <v/>
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
       </c>
       <c r="J21" t="s">
         <v>31</v>
@@ -4169,54 +4200,52 @@
       <c r="K21" t="s">
         <v>32</v>
       </c>
-      <c r="L21" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E21)),"fix-button-sm", "height65")</f>
-        <v>height65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
-        <v>3</v>
-      </c>
-      <c r="B22" s="14" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G22,D22)," ","")</f>
-        <v>ExitToolbar</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="15" t="str">
-        <f>REPLACE(C22, 1, 2, "")</f>
-        <v>Toolbar</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="str">
-        <f>SUBSTITUTE(E22,"_","-")</f>
-        <v/>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="15" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E22)), "icon-left","")</f>
-        <v/>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="20">
-        <v>3.1</v>
+      <c r="L21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="B23" s="3" t="str">
         <f>SUBSTITUTE(CONCATENATE(G23,D23)," ","")</f>
-        <v>ExitButton</v>
+        <v>PropertyGridButton</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -4226,14 +4255,14 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F23" t="str">
         <f>SUBSTITUTE(E23,"_","-")</f>
-        <v>exit-32x32</v>
+        <v>property-grid-32x32</v>
       </c>
       <c r="G23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H23" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E23)), "icon-left","")</f>
@@ -4243,10 +4272,86 @@
         <v>31</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L23" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E23)),"fix-button-sm", "height65")</f>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>3</v>
+      </c>
+      <c r="B24" s="13" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G24,D24)," ","")</f>
+        <v>ExitToolbar</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="14" t="str">
+        <f>REPLACE(C24, 1, 2, "")</f>
+        <v>Toolbar</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="str">
+        <f>SUBSTITUTE(E24,"_","-")</f>
+        <v/>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="14" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E24)), "icon-left","")</f>
+        <v/>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G25,D25)," ","")</f>
+        <v>ExitButton</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="str">
+        <f>REPLACE(C25, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="str">
+        <f>SUBSTITUTE(E25,"_","-")</f>
+        <v>exit-32x32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E25)), "icon-left","")</f>
+        <v/>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E25)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
@@ -4264,13 +4369,13 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="1025" width="8.73046875"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +4413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4326,7 +4431,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -4337,8 +4442,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="19">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -4353,14 +4458,14 @@
         <v>Button</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F26" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>well-new-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H26" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -4377,8 +4482,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="19">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -4393,14 +4498,14 @@
         <v>Button</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -4417,8 +4522,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="19">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -4433,14 +4538,14 @@
         <v>Button</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v>well-depth-convertion-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
@@ -4457,8 +4562,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="19">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -4473,14 +4578,14 @@
         <v>Button</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>curve-alias-32x32</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -4497,8 +4602,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="19">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>1.5</v>
       </c>
       <c r="B7" s="3" t="str">
@@ -4513,14 +4618,14 @@
         <v>Button</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
         <v>family-edit-32x32</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
@@ -4537,9 +4642,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4558,7 +4663,7 @@
         <v/>
       </c>
       <c r="G8" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H8" s="8" t="str">
         <f t="shared" si="3"/>
@@ -4572,8 +4677,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="24">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>2.1</v>
       </c>
       <c r="B9" s="9" t="str">
@@ -4588,7 +4693,7 @@
         <v>Dropdown</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F9" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4613,11 +4718,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="16" t="str">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIButton</v>
       </c>
@@ -4629,14 +4734,14 @@
         <v>Button</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>ascii-import-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -4652,11 +4757,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="16" t="str">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIButton</v>
       </c>
@@ -4668,14 +4773,14 @@
         <v>Button</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>ascii-import-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -4691,11 +4796,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="16" t="str">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASButton</v>
       </c>
@@ -4707,14 +4812,14 @@
         <v>Button</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -4730,11 +4835,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="16" t="str">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASButton</v>
       </c>
@@ -4746,14 +4851,14 @@
         <v>Button</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
@@ -4769,11 +4874,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="16" t="str">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderButton</v>
       </c>
@@ -4785,14 +4890,14 @@
         <v>Button</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>curve-listing-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -4808,11 +4913,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="16" t="str">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderButton</v>
       </c>
@@ -4824,14 +4929,14 @@
         <v>Button</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>load-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -4847,11 +4952,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="16" t="str">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderButton</v>
       </c>
@@ -4863,14 +4968,14 @@
         <v>Button</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -4886,11 +4991,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="16" t="str">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopButton</v>
       </c>
@@ -4902,14 +5007,14 @@
         <v>Button</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -4925,9 +5030,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="24" t="s">
-        <v>131</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4941,14 +5046,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F18" s="11" t="str">
         <f t="shared" si="2"/>
         <v>file-export-32x32</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H18" s="11" t="str">
         <f t="shared" si="3"/>
@@ -4966,11 +5071,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIButton</v>
       </c>
@@ -4982,14 +5087,14 @@
         <v>Button</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>ascii-export-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -5005,11 +5110,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIButton</v>
       </c>
@@ -5021,14 +5126,14 @@
         <v>Button</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>ascii-export-16x16</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -5044,11 +5149,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="16" t="str">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASButton</v>
       </c>
@@ -5060,14 +5165,14 @@
         <v>Button</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>las-export-16x16</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -5083,11 +5188,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="16" t="str">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASButton</v>
       </c>
@@ -5099,14 +5204,14 @@
         <v>Button</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>las-export-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -5122,11 +5227,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="16" t="str">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataButton</v>
       </c>
@@ -5138,14 +5243,14 @@
         <v>Button</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>curve-listing-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -5161,11 +5266,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="16" t="str">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderButton</v>
       </c>
@@ -5177,14 +5282,14 @@
         <v>Button</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
@@ -5200,11 +5305,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="16" t="str">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderButton</v>
       </c>
@@ -5216,14 +5321,14 @@
         <v>Button</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -5239,11 +5344,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="16" t="str">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopButton</v>
       </c>
@@ -5255,14 +5360,14 @@
         <v>Button</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>export-well-top-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -5292,18 +5397,18 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.53125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.796875" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875"/>
-    <col min="4" max="4" width="19.1328125" customWidth="1"/>
-    <col min="5" max="5" width="22.46484375" customWidth="1"/>
-    <col min="6" max="6" width="38.19921875" customWidth="1"/>
-    <col min="7" max="1025" width="8.73046875"/>
+    <col min="1" max="1" width="18.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="7" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5341,7 +5446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5359,7 +5464,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -5370,8 +5475,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="20">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -5386,14 +5491,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F38" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>logplot-blank-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H31" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -5410,8 +5515,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="20">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -5426,14 +5531,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>logplot-triple-combo-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -5450,8 +5555,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="20">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -5466,14 +5571,14 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v>logplot-predefine-RHOB-NPHI-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
@@ -5490,8 +5595,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="20">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -5506,14 +5611,14 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>logplot-predefine-RDT-32x32</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -5530,8 +5635,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="21">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>1.5</v>
       </c>
       <c r="B7" s="9" t="str">
@@ -5546,14 +5651,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F7" s="11" t="str">
         <f t="shared" si="2"/>
         <v>logplot-more-32x32</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H7" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5571,11 +5676,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>3TracksBlankButton</v>
       </c>
@@ -5587,14 +5692,14 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>tri-tracks-blank-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -5610,11 +5715,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>InputCurveButton</v>
       </c>
@@ -5626,14 +5731,14 @@
         <v>Button</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
         <v>curve-input-16x16</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="3"/>
@@ -5649,11 +5754,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="16" t="str">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Litho+Syn.CurveButton</v>
       </c>
@@ -5665,14 +5770,14 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>logplot-lythosyn-curve-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -5688,11 +5793,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="16" t="str">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Syn.CurveButton</v>
       </c>
@@ -5704,14 +5809,14 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>logplot-syn-curve-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -5727,11 +5832,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="16" t="str">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ResultButton</v>
       </c>
@@ -5743,14 +5848,14 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v>logplot-result-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -5766,7 +5871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -5787,7 +5892,7 @@
         <v/>
       </c>
       <c r="G13" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H13" s="8" t="str">
         <f t="shared" si="3"/>
@@ -5801,11 +5906,11 @@
         <v>32</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="20">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
         <v>2.1</v>
       </c>
       <c r="B14" s="3" t="str">
@@ -5820,14 +5925,14 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-new-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -5844,8 +5949,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="20">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
         <v>2.2000000000000002</v>
       </c>
       <c r="B15" s="3" t="str">
@@ -5860,14 +5965,14 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-result-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -5884,8 +5989,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="20">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
         <v>2.2999999999999998</v>
       </c>
       <c r="B16" s="3" t="str">
@@ -5900,14 +6005,14 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-ND-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -5924,8 +6029,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="20">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>2.4</v>
       </c>
       <c r="B17" s="3" t="str">
@@ -5940,14 +6045,14 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -5964,8 +6069,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="20">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
         <v>2.5</v>
       </c>
       <c r="B18" s="3" t="str">
@@ -5980,14 +6085,14 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -6004,8 +6109,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="21">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
         <v>2.6</v>
       </c>
       <c r="B19" s="9" t="str">
@@ -6020,14 +6125,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F19" s="11" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-result-16x16</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H19" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6045,11 +6150,11 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="16" t="str">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>NeuTronSonicButton</v>
       </c>
@@ -6061,14 +6166,14 @@
         <v>Button</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NS-16x16</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -6084,11 +6189,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="16" t="str">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>DenityGammaButton</v>
       </c>
@@ -6100,14 +6205,14 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -6123,11 +6228,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="16" t="str">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>NeuTronRtButton</v>
       </c>
@@ -6139,14 +6244,14 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-Rt-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -6162,11 +6267,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="16" t="str">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>DensitySonicButton</v>
       </c>
@@ -6178,14 +6283,14 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-DS-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -6201,11 +6306,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="16" t="str">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>DensityRtButton</v>
       </c>
@@ -6217,14 +6322,14 @@
         <v>Button</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-DRt-16x16</v>
       </c>
       <c r="G24" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
@@ -6240,11 +6345,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="16" t="str">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>SonicDensityButton</v>
       </c>
@@ -6256,14 +6361,14 @@
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-SD-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -6279,11 +6384,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="16" t="str">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>SonicRtButton</v>
       </c>
@@ -6295,14 +6400,14 @@
         <v>Button</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-SRt-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -6318,11 +6423,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" s="16" t="str">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>RtRx0Button</v>
       </c>
@@ -6334,14 +6439,14 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-RtRxo-16x16</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
@@ -6357,11 +6462,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B28" s="16" t="str">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>PickettButton</v>
       </c>
@@ -6373,14 +6478,14 @@
         <v>Button</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-blank-16x16</v>
       </c>
       <c r="G28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="3"/>
@@ -6396,7 +6501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -6417,7 +6522,7 @@
         <v/>
       </c>
       <c r="G29" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H29" s="8" t="str">
         <f t="shared" si="3"/>
@@ -6431,9 +6536,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="20" t="s">
-        <v>213</v>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6447,14 +6552,14 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="2"/>
         <v>histogram-new-32x32</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
@@ -6471,9 +6576,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="20" t="s">
-        <v>216</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>212</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6487,14 +6592,14 @@
         <v>Button</v>
       </c>
       <c r="E31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-GR-32x32</v>
       </c>
       <c r="G31" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
@@ -6511,11 +6616,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B32" s="16" t="str">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="15" t="str">
         <f t="shared" si="0"/>
         <v>SonicButton</v>
       </c>
@@ -6527,14 +6632,14 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-DT-32x32</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J32" t="s">
         <v>31</v>
@@ -6547,9 +6652,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="20" t="s">
-        <v>222</v>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6563,14 +6668,14 @@
         <v>Button</v>
       </c>
       <c r="E33" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-NPHI-32x32</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" ref="H33:H38" si="6">IF(ISNUMBER(SEARCH("16x16",E33)), "icon-left","")</f>
@@ -6587,9 +6692,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="20" t="s">
-        <v>225</v>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6603,14 +6708,14 @@
         <v>Button</v>
       </c>
       <c r="E34" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-RHOB-32x32</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="6"/>
@@ -6627,8 +6732,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="21">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
         <v>3.6</v>
       </c>
       <c r="B35" s="9" t="str">
@@ -6643,14 +6748,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F35" s="11" t="str">
         <f t="shared" si="2"/>
         <v>histogram-result-32x32</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H35" s="11" t="str">
         <f t="shared" si="6"/>
@@ -6668,9 +6773,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
-        <v>230</v>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6684,14 +6789,14 @@
         <v>Button</v>
       </c>
       <c r="E36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="2"/>
         <v>histogram-result-16x16</v>
       </c>
       <c r="G36" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="6"/>
@@ -6707,11 +6812,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="B37" s="16" t="str">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="15" t="str">
         <f t="shared" si="0"/>
         <v>DeepResistivityButton</v>
       </c>
@@ -6723,14 +6828,14 @@
         <v>Button</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-LLD-16x16</v>
       </c>
       <c r="G37" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="6"/>
@@ -6746,11 +6851,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B38" s="16" t="str">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="15" t="str">
         <f t="shared" si="0"/>
         <v>MSFLHistogramButton</v>
       </c>
@@ -6762,14 +6867,14 @@
         <v>Button</v>
       </c>
       <c r="E38" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-MSFL-16x16</v>
       </c>
       <c r="G38" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="6"/>
@@ -6785,229 +6890,229 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="12"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" s="12"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="12"/>
       <c r="G70" s="12"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" t="str">
         <f t="shared" ref="D119:D152" si="7">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7027,15 +7132,15 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.73046875" style="5" customWidth="1"/>
-    <col min="2" max="11" width="8.73046875"/>
-    <col min="12" max="12" width="12.73046875" customWidth="1"/>
-    <col min="13" max="1025" width="8.73046875"/>
+    <col min="1" max="1" width="28.7109375" style="5" customWidth="1"/>
+    <col min="2" max="11" width="8.7109375"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7073,7 +7178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -7091,7 +7196,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -7102,12 +7207,12 @@
         <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="20" t="s">
-        <v>240</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7121,14 +7226,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F32" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>curve-new-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H32" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -7145,9 +7250,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="20" t="s">
-        <v>243</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7161,14 +7266,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>edit-curve-text-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -7185,9 +7290,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="s">
-        <v>246</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>242</v>
       </c>
       <c r="B5" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7201,14 +7306,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F5" s="10" t="str">
         <f t="shared" si="2"/>
         <v>curve-edit-32x32</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H5" s="11" t="str">
         <f t="shared" si="3"/>
@@ -7226,11 +7331,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" s="16" t="str">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CurveListing/EditButton</v>
       </c>
@@ -7242,14 +7347,14 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>curve-listing-16x16</v>
       </c>
       <c r="G6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -7265,11 +7370,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" s="16" t="str">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>InteractiveCurveEditButton</v>
       </c>
@@ -7281,14 +7386,14 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
         <v>curve-interactive-edit-16x16</v>
       </c>
       <c r="G7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
@@ -7304,11 +7409,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" s="16" t="str">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>InteractiveBaselineShiftButton</v>
       </c>
@@ -7320,14 +7425,14 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>curve-interactive-baseline-edit-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -7343,9 +7448,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="21" t="s">
-        <v>257</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="B9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7359,14 +7464,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>curve-splice-32x32</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H9" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7384,11 +7489,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="16" t="str">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>SplitCurvesButton</v>
       </c>
@@ -7400,14 +7505,14 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>cureve-splice-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -7423,11 +7528,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="16" t="str">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>InteractiveCurveSplitButton</v>
       </c>
@@ -7439,14 +7544,14 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>curve-splice-interactive-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -7462,8 +7567,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="str">
@@ -7485,7 +7590,7 @@
         <v>caculation-multilinerregression-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -7502,8 +7607,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="3" t="str">
@@ -7518,14 +7623,14 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>curve-header-edit-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
@@ -7542,8 +7647,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="3" t="str">
@@ -7558,14 +7663,14 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>curve-fill-data-gaps-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -7582,9 +7687,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="20" t="s">
-        <v>271</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7598,14 +7703,14 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>curve-filter-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -7622,9 +7727,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="20" t="s">
-        <v>274</v>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>270</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7638,14 +7743,14 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>curve-convolution-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -7662,9 +7767,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="20" t="s">
-        <v>277</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7678,14 +7783,14 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>curve-deconvolution-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -7702,9 +7807,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="20" t="s">
-        <v>280</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>276</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7718,14 +7823,14 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>curve-edit-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -7742,9 +7847,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="20" t="s">
-        <v>283</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>279</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7758,14 +7863,14 @@
         <v>Button</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>curve-rescale-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -7782,9 +7887,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="20" t="s">
-        <v>286</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7798,14 +7903,14 @@
         <v>Button</v>
       </c>
       <c r="E20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>curve-compare-16x16</v>
       </c>
       <c r="G20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -7822,9 +7927,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="20" t="s">
-        <v>289</v>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7838,14 +7943,14 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>curve-average-16x16</v>
       </c>
       <c r="G21" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -7862,9 +7967,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="20" t="s">
-        <v>292</v>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7878,14 +7983,14 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>formation-resistivity-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -7902,9 +8007,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="20" t="s">
-        <v>295</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7918,14 +8023,14 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>badhole-coal-salt-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -7942,45 +8047,45 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="15" t="str">
+    <row r="24" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>UserFormulaToolbar</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="15" t="str">
+      <c r="D24" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="F24" s="15" t="str">
+      <c r="F24" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="H24" s="15" t="str">
+      <c r="G24" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H24" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="20" t="s">
-        <v>299</v>
+      <c r="J24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>295</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7994,14 +8099,14 @@
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>user-formula-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -8018,9 +8123,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="20" t="s">
-        <v>131</v>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8034,14 +8139,14 @@
         <v>Button</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>user-formula-multiline-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -8058,8 +8163,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="3" t="str">
@@ -8074,14 +8179,14 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v>python-program-16x16</v>
       </c>
       <c r="G27" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
@@ -8098,45 +8203,45 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="B28" s="14" t="str">
+    <row r="28" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B28" s="13" t="str">
         <f t="shared" si="0"/>
         <v>CalculationToolbar</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="15" t="str">
+      <c r="D28" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="F28" s="15" t="str">
+      <c r="F28" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="H28" s="15" t="str">
+      <c r="G28" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="H28" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="20" t="s">
-        <v>213</v>
+      <c r="J28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8150,14 +8255,14 @@
         <v>Button</v>
       </c>
       <c r="E29" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="2"/>
         <v>true-vertical-depth-32x32</v>
       </c>
       <c r="G29" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="3"/>
@@ -8174,9 +8279,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="20" t="s">
-        <v>216</v>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>212</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8190,14 +8295,14 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="2"/>
         <v>pca-analysis-16x16</v>
       </c>
       <c r="G30" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
@@ -8214,9 +8319,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="20" t="s">
-        <v>219</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8237,7 +8342,7 @@
         <v>caculation-multilinerregression-16x16</v>
       </c>
       <c r="G31" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
@@ -8254,9 +8359,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="20" t="s">
-        <v>222</v>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8270,14 +8375,14 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
         <v>Neural-Network-16x16</v>
       </c>
       <c r="G32" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
@@ -8304,25 +8409,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A16" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.06640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.86328125" customWidth="1"/>
-    <col min="3" max="3" width="21.73046875" customWidth="1"/>
-    <col min="4" max="4" width="8.73046875"/>
-    <col min="5" max="5" width="26.86328125" customWidth="1"/>
-    <col min="6" max="6" width="29.53125" customWidth="1"/>
-    <col min="7" max="7" width="35.3984375" customWidth="1"/>
-    <col min="8" max="11" width="8.73046875"/>
-    <col min="12" max="12" width="11.265625" customWidth="1"/>
-    <col min="13" max="1025" width="8.73046875"/>
+    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="11" width="8.7109375"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8360,40 +8465,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="17">
+    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="str">
+      <c r="B2" s="14" t="str">
         <f t="shared" ref="B2:B50" si="0">SUBSTITUTE(CONCATENATE(G2,D2)," ","")</f>
         <v>Basement/TightSandstoneToolbar</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="15" t="str">
+      <c r="D2" s="14" t="str">
         <f t="shared" ref="D2:D50" si="1">REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="F2" s="15" t="str">
+      <c r="F2" s="14" t="str">
         <f t="shared" ref="F2:F50" si="2">SUBSTITUTE(E2,"_","-")</f>
         <v/>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="18">
+      <c r="G2" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -8408,14 +8513,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-edit-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H50" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -8432,8 +8537,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="18">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -8448,14 +8553,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>curve-input-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -8472,8 +8577,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="18">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -8488,14 +8593,14 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v>fluid-input-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
@@ -8512,8 +8617,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -8528,14 +8633,14 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-parameter-build-16x16</v>
       </c>
       <c r="G6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -8552,8 +8657,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="18">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>1.5</v>
       </c>
       <c r="B7" s="3" t="str">
@@ -8568,14 +8673,14 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-edit-16x16</v>
       </c>
       <c r="G7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
@@ -8592,8 +8697,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="18">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>1.6</v>
       </c>
       <c r="B8" s="3" t="str">
@@ -8608,14 +8713,14 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>multi-mineral-solver-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -8632,8 +8737,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="18">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>1.7</v>
       </c>
       <c r="B9" s="3" t="str">
@@ -8648,14 +8753,14 @@
         <v>Button</v>
       </c>
       <c r="E9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
         <v>Vclay-16x16</v>
       </c>
       <c r="G9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="3"/>
@@ -8672,8 +8777,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="18">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>1.8</v>
       </c>
       <c r="B10" s="3" t="str">
@@ -8688,14 +8793,14 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>secondary-porosity-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -8712,8 +8817,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>1.9</v>
       </c>
       <c r="B11" s="3" t="str">
@@ -8728,14 +8833,14 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -8752,9 +8857,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
-        <v>277</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8768,14 +8873,14 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>secondary-porosity-16x16</v>
+      </c>
+      <c r="G12" t="s">
         <v>329</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="2"/>
-        <v>secondary-porosity-16x16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>333</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -8792,9 +8897,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="18" t="s">
-        <v>280</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>276</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8808,14 +8913,14 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>fracture-porosity-permeability-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
@@ -8832,9 +8937,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
-        <v>283</v>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>279</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8848,14 +8953,14 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>phi2fil-phio-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -8872,9 +8977,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
-        <v>286</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>282</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8888,14 +8993,14 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>mineral-volume-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -8912,9 +9017,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
-        <v>289</v>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>285</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8928,14 +9033,14 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -8952,9 +9057,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
-        <v>292</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8968,14 +9073,14 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>calculate-permeability-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -8992,9 +9097,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
-        <v>295</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>291</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9008,14 +9113,14 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>summation-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -9032,9 +9137,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="s">
-        <v>346</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9048,14 +9153,14 @@
         <v>Button</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>curve-filter-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -9072,45 +9177,45 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="17">
+    <row r="20" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>2</v>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ClasticToolbar</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="15" t="str">
+      <c r="D20" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="F20" s="15" t="str">
+      <c r="F20" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="H20" s="15" t="str">
+      <c r="G20" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="H20" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
-        <v>299</v>
+      <c r="J20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>295</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9124,14 +9229,14 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>sand-32x32</v>
       </c>
       <c r="G21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -9148,8 +9253,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="18">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>2.2000000000000002</v>
       </c>
       <c r="B22" s="3" t="str">
@@ -9164,14 +9269,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H22" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E22)), "icon-left","")</f>
@@ -9188,8 +9293,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="3" t="str">
@@ -9204,14 +9309,14 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -9227,8 +9332,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="str">
@@ -9243,14 +9348,14 @@
         <v>Button</v>
       </c>
       <c r="E24" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
@@ -9266,9 +9371,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="26" t="s">
-        <v>137</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9282,14 +9387,14 @@
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -9305,9 +9410,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="26" t="s">
-        <v>140</v>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9321,14 +9426,14 @@
         <v>Button</v>
       </c>
       <c r="E26" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -9344,9 +9449,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="26" t="s">
-        <v>142</v>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9360,14 +9465,14 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
@@ -9383,9 +9488,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="26" t="s">
-        <v>144</v>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9399,14 +9504,14 @@
         <v>Button</v>
       </c>
       <c r="E28" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G28" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="3"/>
@@ -9422,9 +9527,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="26" t="s">
-        <v>145</v>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9438,14 +9543,14 @@
         <v>Button</v>
       </c>
       <c r="E29" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G29" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="3"/>
@@ -9461,9 +9566,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="26" t="s">
-        <v>147</v>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9477,14 +9582,14 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G30" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
@@ -9500,9 +9605,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="26" t="s">
-        <v>381</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>377</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9516,14 +9621,14 @@
         <v>Button</v>
       </c>
       <c r="E31" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G31" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
@@ -9539,9 +9644,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="26" t="s">
-        <v>382</v>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>378</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9555,14 +9660,14 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G32" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
@@ -9578,8 +9683,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="18">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>2.2999999999999998</v>
       </c>
       <c r="B33" s="3" t="str">
@@ -9594,14 +9699,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E33" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G33" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="3"/>
@@ -9618,8 +9723,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="3" t="str">
@@ -9634,14 +9739,14 @@
         <v>Button</v>
       </c>
       <c r="E34" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="3"/>
@@ -9657,8 +9762,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="26" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B35" s="3" t="str">
@@ -9673,14 +9778,14 @@
         <v>Button</v>
       </c>
       <c r="E35" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
@@ -9696,9 +9801,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="26" t="s">
-        <v>393</v>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>389</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="5"/>
@@ -9712,14 +9817,14 @@
         <v>Button</v>
       </c>
       <c r="E36" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G36" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
@@ -9735,9 +9840,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="26" t="s">
-        <v>394</v>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>390</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="5"/>
@@ -9751,14 +9856,14 @@
         <v>Button</v>
       </c>
       <c r="E37" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G37" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
@@ -9774,9 +9879,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="26" t="s">
-        <v>395</v>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>391</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="5"/>
@@ -9790,14 +9895,14 @@
         <v>Button</v>
       </c>
       <c r="E38" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G38" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="3"/>
@@ -9813,9 +9918,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="26" t="s">
-        <v>396</v>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="5"/>
@@ -9829,14 +9934,14 @@
         <v>Button</v>
       </c>
       <c r="E39" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G39" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
@@ -9852,8 +9957,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="18" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="3" t="str">
@@ -9868,14 +9973,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E40" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G40" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
@@ -9892,9 +9997,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="26" t="s">
-        <v>397</v>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>393</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9908,14 +10013,14 @@
         <v>Button</v>
       </c>
       <c r="E41" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G41" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
@@ -9931,9 +10036,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="26" t="s">
-        <v>398</v>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>394</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9947,14 +10052,14 @@
         <v>Button</v>
       </c>
       <c r="E42" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G42" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
@@ -9970,9 +10075,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A43" s="26" t="s">
-        <v>399</v>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>395</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9986,14 +10091,14 @@
         <v>Button</v>
       </c>
       <c r="E43" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G43" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="3"/>
@@ -10009,9 +10114,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A44" s="26" t="s">
-        <v>400</v>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>396</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10025,14 +10130,14 @@
         <v>Button</v>
       </c>
       <c r="E44" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G44" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="3"/>
@@ -10048,9 +10153,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45" s="26" t="s">
-        <v>401</v>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>397</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10064,14 +10169,14 @@
         <v>Button</v>
       </c>
       <c r="E45" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G45" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
@@ -10087,9 +10192,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A46" s="26" t="s">
-        <v>402</v>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>398</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10103,14 +10208,14 @@
         <v>Button</v>
       </c>
       <c r="E46" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G46" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
@@ -10126,9 +10231,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A47" s="26" t="s">
-        <v>403</v>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>399</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10142,14 +10247,14 @@
         <v>Button</v>
       </c>
       <c r="E47" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G47" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="3"/>
@@ -10165,9 +10270,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A48" s="26" t="s">
-        <v>404</v>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>400</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10181,14 +10286,14 @@
         <v>Button</v>
       </c>
       <c r="E48" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G48" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="3"/>
@@ -10204,9 +10309,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A49" s="26" t="s">
-        <v>405</v>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>401</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10220,14 +10325,14 @@
         <v>Button</v>
       </c>
       <c r="E49" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G49" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
@@ -10243,9 +10348,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50" s="18" t="s">
-        <v>91</v>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10259,14 +10364,14 @@
         <v>Button</v>
       </c>
       <c r="E50" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="2"/>
         <v>summation-16x16</v>
       </c>
       <c r="G50" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
@@ -10283,105 +10388,105 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="H52" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E51)), "icon-left","")</f>
+        <f t="shared" ref="H52:H63" si="8">IF(ISNUMBER(SEARCH("16x16",E51)), "icon-left","")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H53" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E52)), "icon-left","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E53)), "icon-left","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="D55" s="3"/>
       <c r="H55" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E54)), "icon-left","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="D56" s="3"/>
       <c r="H56" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E55)), "icon-left","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="D57" s="3"/>
       <c r="H57" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E56)), "icon-left","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
       <c r="H58" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E57)), "icon-left","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="D59" s="3"/>
       <c r="H59" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E58)), "icon-left","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="D60" s="3"/>
       <c r="H60" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E59)), "icon-left","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="D61" s="3"/>
       <c r="H61" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E60)), "icon-left","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="D62" s="3"/>
       <c r="H62" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E61)), "icon-left","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H63" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E62)), "icon-left","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -10399,13 +10504,13 @@
       <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.9296875" style="5" customWidth="1"/>
-    <col min="2" max="1025" width="8.73046875"/>
+    <col min="1" max="1" width="15" style="5" customWidth="1"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10443,7 +10548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -10461,7 +10566,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -10472,9 +10577,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="20" t="s">
-        <v>240</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>SUBSTITUTE(CONCATENATE(G3,D3)," ","")</f>
@@ -10488,14 +10593,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
         <v>help-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H3" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -10508,11 +10613,11 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="20">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -10527,14 +10632,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F4" t="str">
         <f>SUBSTITUTE(E4,"_","-")</f>
         <v>info-frp-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H4" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E4)), "icon-left","")</f>
@@ -10547,11 +10652,11 @@
         <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="20">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -10566,14 +10671,14 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F5" t="str">
         <f>SUBSTITUTE(E5,"_","-")</f>
         <v>unlock1-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H5" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E5)), "icon-left","")</f>
@@ -10586,7 +10691,7 @@
         <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -10603,13 +10708,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.53125" style="5" customWidth="1"/>
-    <col min="2" max="1025" width="8.73046875"/>
+    <col min="1" max="1" width="17.5703125" style="5" customWidth="1"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10644,7 +10749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -10673,8 +10778,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="20">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -10689,7 +10794,7 @@
         <v>Toolbar</v>
       </c>
       <c r="E3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
@@ -10705,8 +10810,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="20">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -10714,14 +10819,14 @@
         <v>ProjectTreeview</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D4" t="str">
         <f>REPLACE(C4, 1, 2, "")</f>
         <v>Treeview</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F4" t="str">
         <f>SUBSTITUTE(E4,"_","-")</f>
@@ -10737,7 +10842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -10746,7 +10851,7 @@
         <v>PropertiesTabs</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>REPLACE(C5, 1, 2, "")</f>
@@ -10758,7 +10863,7 @@
         <v/>
       </c>
       <c r="G5" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -10769,8 +10874,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="20">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <v>2.1</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -10778,7 +10883,7 @@
         <v>PropertyList</v>
       </c>
       <c r="C6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D6" t="str">
         <f>REPLACE(C6, 1, 2, "")</f>
@@ -10789,7 +10894,7 @@
         <v/>
       </c>
       <c r="G6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="416">
   <si>
     <t>Code</t>
   </si>
@@ -1252,9 +1252,6 @@
   </si>
   <si>
     <t>2.4.9</t>
-  </si>
-  <si>
-    <t>Final Clay Volume</t>
   </si>
   <si>
     <t>Archie</t>
@@ -8305,13 +8302,13 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.06640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.86328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.73046875" customWidth="1"/>
     <col min="4" max="4" width="8.73046875"/>
     <col min="5" max="5" width="26.86328125" customWidth="1"/>
@@ -9105,7 +9102,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -9193,8 +9190,8 @@
         <v>64</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>GammaRayButton</v>
+        <f>SUBSTITUTE(CONCATENATE($G$22,G23,D23)," ","")</f>
+        <v>ClayVolumeGammaRayButton</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -9232,8 +9229,8 @@
         <v>68</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Neutron-DensityButton</v>
+        <f t="shared" ref="B24:B32" si="5">SUBSTITUTE(CONCATENATE($G$22,G24,D24)," ","")</f>
+        <v>ClayVolumeNeutron-DensityButton</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -9271,8 +9268,8 @@
         <v>137</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Neutron-SonicButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeNeutron-SonicButton</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
@@ -9310,8 +9307,8 @@
         <v>140</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Density-SonicButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeDensity-SonicButton</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -9349,8 +9346,8 @@
         <v>142</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ResistivityButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeResistivityButton</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
@@ -9388,8 +9385,8 @@
         <v>144</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>SpontaneouspotentialButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeSpontaneouspotentialButton</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -9427,8 +9424,8 @@
         <v>145</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ThermalNeutronButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeThermalNeutronButton</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -9466,8 +9463,8 @@
         <v>147</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PotassiumButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumePotassiumButton</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -9505,8 +9502,8 @@
         <v>381</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ThoriumButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeThoriumButton</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -9544,8 +9541,8 @@
         <v>382</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FinalClayVolumeButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeFinalButton</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -9562,7 +9559,7 @@
         <v>clay-volume-16x16</v>
       </c>
       <c r="G32" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
@@ -9662,14 +9659,14 @@
         <v>83</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" ref="B35:B39" si="5">SUBSTITUTE(CONCATENATE($G$33,G35,D35)," ","")</f>
+        <f t="shared" ref="B35:B39" si="6">SUBSTITUTE(CONCATENATE($G$33,G35,D35)," ","")</f>
         <v>PorosityNeutronButton</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35:D39" si="6">REPLACE(C35, 1, 2, "")</f>
+        <f t="shared" ref="D35:D39" si="7">REPLACE(C35, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E35" t="s">
@@ -9701,14 +9698,14 @@
         <v>393</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PorositySonicButton</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="E36" t="s">
@@ -9740,14 +9737,14 @@
         <v>394</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PorosityNeutron-DensityButton</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="E37" t="s">
@@ -9779,14 +9776,14 @@
         <v>395</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PorosityNeutron-SonicButton</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="E38" t="s">
@@ -9818,14 +9815,14 @@
         <v>396</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PorosityFinalButton</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="E39" t="s">
@@ -9915,7 +9912,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
@@ -9943,7 +9940,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" ref="D42:D49" si="7">REPLACE(C42, 1, 2, "")</f>
+        <f t="shared" ref="D42:D49" si="8">REPLACE(C42, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E42" t="s">
@@ -9954,7 +9951,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
@@ -9982,7 +9979,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E43" t="s">
@@ -9993,7 +9990,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="3"/>
@@ -10021,7 +10018,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E44" t="s">
@@ -10032,7 +10029,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="3"/>
@@ -10060,7 +10057,7 @@
         <v>33</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E45" t="s">
@@ -10071,7 +10068,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
@@ -10099,7 +10096,7 @@
         <v>33</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E46" t="s">
@@ -10110,7 +10107,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
@@ -10138,7 +10135,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E47" t="s">
@@ -10149,7 +10146,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="3"/>
@@ -10177,7 +10174,7 @@
         <v>33</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E48" t="s">
@@ -10188,7 +10185,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="3"/>
@@ -10216,7 +10213,7 @@
         <v>33</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E49" t="s">
@@ -10227,7 +10224,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
@@ -10289,13 +10286,13 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52"/>
       <c r="H52" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E51)), "icon-left","")</f>
+        <f t="shared" ref="H52:H63" si="9">IF(ISNUMBER(SEARCH("16x16",E51)), "icon-left","")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H53" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E52)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10306,7 +10303,7 @@
       <c r="D54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E53)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10315,7 +10312,7 @@
       <c r="B55" s="3"/>
       <c r="D55" s="3"/>
       <c r="H55" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E54)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10324,7 +10321,7 @@
       <c r="B56" s="3"/>
       <c r="D56" s="3"/>
       <c r="H56" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E55)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10333,7 +10330,7 @@
       <c r="B57" s="3"/>
       <c r="D57" s="3"/>
       <c r="H57" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E56)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10342,7 +10339,7 @@
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
       <c r="H58" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E57)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10351,7 +10348,7 @@
       <c r="B59" s="3"/>
       <c r="D59" s="3"/>
       <c r="H59" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E58)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10359,7 +10356,7 @@
       <c r="B60" s="3"/>
       <c r="D60" s="3"/>
       <c r="H60" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E59)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10367,7 +10364,7 @@
       <c r="B61" s="3"/>
       <c r="D61" s="3"/>
       <c r="H61" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E60)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10375,13 +10372,13 @@
       <c r="B62" s="3"/>
       <c r="D62" s="3"/>
       <c r="H62" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E61)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H63" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E62)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="416">
   <si>
     <t>Code</t>
   </si>
@@ -1252,9 +1252,6 @@
   </si>
   <si>
     <t>2.4.9</t>
-  </si>
-  <si>
-    <t>Final Clay Volume</t>
   </si>
   <si>
     <t>Archie</t>
@@ -8305,7 +8302,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9105,7 +9102,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -9193,8 +9190,8 @@
         <v>64</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>GammaRayButton</v>
+        <f>SUBSTITUTE(CONCATENATE($G$22,G23,D23)," ","")</f>
+        <v>ClayVolumeGammaRayButton</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -9232,8 +9229,8 @@
         <v>68</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Neutron-DensityButton</v>
+        <f t="shared" ref="B24:B32" si="5">SUBSTITUTE(CONCATENATE($G$22,G24,D24)," ","")</f>
+        <v>ClayVolumeNeutron-DensityButton</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -9271,8 +9268,8 @@
         <v>137</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Neutron-SonicButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeNeutron-SonicButton</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
@@ -9310,8 +9307,8 @@
         <v>140</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Density-SonicButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeDensity-SonicButton</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -9349,8 +9346,8 @@
         <v>142</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ResistivityButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeResistivityButton</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
@@ -9388,8 +9385,8 @@
         <v>144</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>SpontaneouspotentialButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeSpontaneouspotentialButton</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -9427,8 +9424,8 @@
         <v>145</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ThermalNeutronButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeThermalNeutronButton</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -9466,8 +9463,8 @@
         <v>147</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PotassiumButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumePotassiumButton</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -9505,8 +9502,8 @@
         <v>381</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ThoriumButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeThoriumButton</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -9544,8 +9541,8 @@
         <v>382</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FinalClayVolumeButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeFinalButton</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -9562,7 +9559,7 @@
         <v>clay-volume-16x16</v>
       </c>
       <c r="G32" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
@@ -9662,14 +9659,14 @@
         <v>83</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" ref="B35:B39" si="5">SUBSTITUTE(CONCATENATE($G$33,G35,D35)," ","")</f>
+        <f t="shared" ref="B35:B39" si="6">SUBSTITUTE(CONCATENATE($G$33,G35,D35)," ","")</f>
         <v>PorosityNeutronButton</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35:D39" si="6">REPLACE(C35, 1, 2, "")</f>
+        <f t="shared" ref="D35:D39" si="7">REPLACE(C35, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E35" t="s">
@@ -9701,14 +9698,14 @@
         <v>393</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PorositySonicButton</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="E36" t="s">
@@ -9740,14 +9737,14 @@
         <v>394</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PorosityNeutron-DensityButton</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="E37" t="s">
@@ -9779,14 +9776,14 @@
         <v>395</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PorosityNeutron-SonicButton</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="E38" t="s">
@@ -9818,14 +9815,14 @@
         <v>396</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PorosityFinalButton</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="E39" t="s">
@@ -9915,7 +9912,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
@@ -9943,7 +9940,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" ref="D42:D49" si="7">REPLACE(C42, 1, 2, "")</f>
+        <f t="shared" ref="D42:D49" si="8">REPLACE(C42, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E42" t="s">
@@ -9954,7 +9951,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
@@ -9982,7 +9979,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E43" t="s">
@@ -9993,7 +9990,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="3"/>
@@ -10021,7 +10018,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E44" t="s">
@@ -10032,7 +10029,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="3"/>
@@ -10060,7 +10057,7 @@
         <v>33</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E45" t="s">
@@ -10071,7 +10068,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
@@ -10099,7 +10096,7 @@
         <v>33</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E46" t="s">
@@ -10110,7 +10107,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
@@ -10138,7 +10135,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E47" t="s">
@@ -10149,7 +10146,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="3"/>
@@ -10177,7 +10174,7 @@
         <v>33</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E48" t="s">
@@ -10188,7 +10185,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="3"/>
@@ -10216,7 +10213,7 @@
         <v>33</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E49" t="s">
@@ -10227,7 +10224,7 @@
         <v>water-saturation-16x16</v>
       </c>
       <c r="G49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
@@ -10289,13 +10286,13 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52"/>
       <c r="H52" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E51)), "icon-left","")</f>
+        <f t="shared" ref="H52:H63" si="9">IF(ISNUMBER(SEARCH("16x16",E51)), "icon-left","")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H53" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E52)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10306,7 +10303,7 @@
       <c r="D54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E53)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10315,7 +10312,7 @@
       <c r="B55" s="3"/>
       <c r="D55" s="3"/>
       <c r="H55" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E54)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10324,7 +10321,7 @@
       <c r="B56" s="3"/>
       <c r="D56" s="3"/>
       <c r="H56" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E55)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10333,7 +10330,7 @@
       <c r="B57" s="3"/>
       <c r="D57" s="3"/>
       <c r="H57" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E56)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10342,7 +10339,7 @@
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
       <c r="H58" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E57)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10351,7 +10348,7 @@
       <c r="B59" s="3"/>
       <c r="D59" s="3"/>
       <c r="H59" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E58)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10359,7 +10356,7 @@
       <c r="B60" s="3"/>
       <c r="D60" s="3"/>
       <c r="H60" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E59)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10367,7 +10364,7 @@
       <c r="B61" s="3"/>
       <c r="D61" s="3"/>
       <c r="H61" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E60)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10375,13 +10372,13 @@
       <c r="B62" s="3"/>
       <c r="D62" s="3"/>
       <c r="H62" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E61)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H63" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E62)), "icon-left","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>

--- a/Wi-UI.Tung.xlsx
+++ b/Wi-UI.Tung.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Desktop\workspace\wi-angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_space\GitHub\wi-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="WorkingBlock" sheetId="10" r:id="rId10"/>
     <sheet name="Dialogs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="416">
   <si>
     <t>Code</t>
   </si>
@@ -297,6 +297,18 @@
     <t>2.4</t>
   </si>
   <si>
+    <t>ExportToolButton</t>
+  </si>
+  <si>
+    <t>export_well_top_32x32</t>
+  </si>
+  <si>
+    <t>export-well-top-32x32</t>
+  </si>
+  <si>
+    <t>Export Tool</t>
+  </si>
+  <si>
     <t>2.5</t>
   </si>
   <si>
@@ -1242,9 +1254,6 @@
     <t>2.4.9</t>
   </si>
   <si>
-    <t>Final Clay Volume</t>
-  </si>
-  <si>
     <t>Archie</t>
   </si>
   <si>
@@ -1273,34 +1282,13 @@
   </si>
   <si>
     <t>width-390</t>
-  </si>
-  <si>
-    <t>1.8.1</t>
-  </si>
-  <si>
-    <t>1.8.2</t>
-  </si>
-  <si>
-    <t>file_export_16x16</t>
-  </si>
-  <si>
-    <t>file-export-16x16</t>
-  </si>
-  <si>
-    <t>ExportFromInventoryButton</t>
-  </si>
-  <si>
-    <t>ExportFromProjectButton</t>
-  </si>
-  <si>
-    <t>ExportDropdown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1315,6 +1303,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1356,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1378,6 +1372,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
@@ -1418,36 +1413,8 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1796,12 +1763,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col min="1" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1826,7 +1793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1837,7 +1804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1848,7 +1815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1878,13 +1845,13 @@
       <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24" style="5" customWidth="1"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="23.9296875" style="5" customWidth="1"/>
+    <col min="2" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +1886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1895,7 @@
         <v>WorkingTabs</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D9" si="0">REPLACE(C2, 1, 2, "")</f>
@@ -1937,7 +1904,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1948,8 +1915,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="20">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -1964,14 +1931,14 @@
         <v>Toolbar</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F9" si="1">SUBSTITUTE(E3,"_","-")</f>
         <v>help-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -1980,8 +1947,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="20">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -1989,21 +1956,21 @@
         <v>WorkingSlidingbar</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>Slidingbar</v>
       </c>
       <c r="E4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
         <v>info-frp-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
@@ -2012,7 +1979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -2021,7 +1988,7 @@
         <v>WorkflowsTabs</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2044,8 +2011,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
         <v>2.1</v>
       </c>
       <c r="B6" s="9" t="str">
@@ -2065,7 +2032,7 @@
         <v/>
       </c>
       <c r="G6" s="10" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2076,13 +2043,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="20">
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2102,8 +2069,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="20">
         <v>2.2999999999999998</v>
       </c>
       <c r="B8" s="3"/>
@@ -2128,7 +2095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2146,7 +2113,7 @@
         <v/>
       </c>
       <c r="G9" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2171,33 +2138,33 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="28.9296875" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>SUBSTITUTE(CONCATENATE(B3,"Modal")," ","")</f>
         <v>NewProjectModal</v>
@@ -2209,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>SUBSTITUTE(CONCATENATE(B4,"Modal")," ","")</f>
         <v>OpenProjectModal</v>
@@ -2221,7 +2188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>SUBSTITUTE(CONCATENATE(B5,"Modal")," ","")</f>
         <v>CloseProjectModal</v>
@@ -2233,10 +2200,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>SUBSTITUTE(CONCATENATE(B6,"Modal")," ","")</f>
         <v>UnitSettingsModal</v>
@@ -2248,1017 +2215,1017 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>SUBSTITUTE(CONCATENATE(B7,"Modal")," ","")</f>
         <v>ExitModal</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f t="shared" ref="A9:A30" si="0">SUBSTITUTE(CONCATENATE(B9,"Modal")," ","")</f>
         <v>AddNewModal</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>WellHeaderModal</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>DepthConversionModal</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CurveAliasModal</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>FamilyEditModal</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Input/OutputModal</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIModal</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIModal</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASModal</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASModal</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderModal</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderModal</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopModal</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIModal</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIModal</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASModal</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASModal</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataModal</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderModal</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderModal</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopModal</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A65" si="1">SUBSTITUTE(CONCATENATE(B32,"Modal")," ","")</f>
         <v>BlankLogplotModal</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>TrippleComboModal</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>DensityNeutronModal</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>ResistivitySonicModal</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>3TracksBlankModal</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>InputCurveModal</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>Litho+Syn.CurveModal</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>Syn.CurveModal</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>CrossPlotModal</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>BlankCrossPlotModal</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>SonicPHI_TOTALModal</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>NeutronDensityModal</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>NeutronGammaModal</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>SonicGammaModal</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronSonicModal</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>DenityGammaModal</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>NeuTronRtModal</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>DensitySonicModal</v>
       </c>
       <c r="B49" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>DensityRtModal</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>SonicDensityModal</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>SonicRtModal</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>RtRx0Modal</v>
       </c>
       <c r="B53" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>PickettModal</v>
       </c>
       <c r="B54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>HistogramModal</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>BlankHistogramModal</v>
       </c>
       <c r="B56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>PHI_TOTALModal</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>GammaRayModal</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>NeutronModal</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>DensityModal</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>HistogramMoreModal</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>SonicModal</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>SallowResistivityModal</v>
       </c>
       <c r="B63" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>DeepResistivityModal</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>MSFLHistogramModal</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A93" si="2">SUBSTITUTE(CONCATENATE(B67,"Modal")," ","")</f>
         <v>AddCurveModal</v>
       </c>
       <c r="B67" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveEditModal</v>
       </c>
       <c r="B68" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveBaselineShiftModal</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurveModal</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>SplitCurvesModal</v>
       </c>
       <c r="B71" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>InteractiveCurveSplitModal</v>
       </c>
       <c r="B72" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>MergeCurvesModal</v>
       </c>
       <c r="B73" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>CurvesHeaderModal</v>
       </c>
       <c r="B74" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>FillDataGapsModal</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>CurveFilterModal</v>
       </c>
       <c r="B76" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>CurveConvolutionModal</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>CurveDeconvolutionModal</v>
       </c>
       <c r="B78" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>CurveDerivativeModal</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>CurveRescaleModal</v>
       </c>
       <c r="B80" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>CurveComrarisonModal</v>
       </c>
       <c r="B81" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>CurveAverageModal</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>FormationResistivityModal</v>
       </c>
       <c r="B83" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>Badhole/Coal/SaltModal</v>
       </c>
       <c r="B84" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
       </c>
       <c r="B85" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>UserFormulaModal</v>
       </c>
       <c r="B86" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>UserProgramModal</v>
       </c>
       <c r="B87" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>PythonProgramModal</v>
       </c>
       <c r="B88" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>CalculationModal</v>
       </c>
       <c r="B89" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>TVDConversionModal</v>
       </c>
       <c r="B90" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>PCAAnalysisModal</v>
       </c>
       <c r="B91" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>Multi-LinearRegressionModal</v>
       </c>
       <c r="B92" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>NeuralNetworkModal</v>
       </c>
       <c r="B93" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="str">
         <f t="shared" ref="A95:A116" si="3">SUBSTITUTE(CONCATENATE(B95,"Modal")," ","")</f>
         <v>EditZonesModal</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
         <v>InputCurvesModal</v>
       </c>
       <c r="B96" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
         <v>InputFuidModal</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
         <v>BuildMineralParametersModal</v>
       </c>
       <c r="B98" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
         <v>InputMineralZonesModal</v>
       </c>
       <c r="B99" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
         <v>Multi-MineralSolverModal</v>
       </c>
       <c r="B100" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
         <v>ClayMineralsVolumeModal</v>
       </c>
       <c r="B101" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
         <v>Fracture-VugPorosityModal</v>
       </c>
       <c r="B102" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
         <v>OpenPorosityModal</v>
       </c>
       <c r="B103" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
         <v>SecondaryPorosityModal</v>
       </c>
       <c r="B104" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
         <v>FracturePorosityModal</v>
       </c>
       <c r="B105" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
         <v>FilteringFractureModal</v>
       </c>
       <c r="B106" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
         <v>Micro&amp;MacroPorosityModal</v>
       </c>
       <c r="B107" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
         <v>WaterSaturationModal</v>
       </c>
       <c r="B108" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
         <v>PermeabilityModal</v>
       </c>
       <c r="B109" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
       </c>
       <c r="B110" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
         <v>FilteringModal</v>
       </c>
       <c r="B111" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
         <v>ClasticModal</v>
       </c>
       <c r="B112" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
         <v>BasicAnalysisModal</v>
       </c>
       <c r="B113" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
         <v>ClayVolumeModal</v>
       </c>
       <c r="B114" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
         <v>Porosity&amp;WaterSaturationModal</v>
       </c>
       <c r="B115" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>CutoffandSummationModal</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="str">
         <f>SUBSTITUTE(CONCATENATE(B118,"Modal")," ","")</f>
         <v>AboutModal</v>
       </c>
       <c r="B118" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="str">
         <f>SUBSTITUTE(CONCATENATE(B119,"Modal")," ","")</f>
         <v>UnlockModal</v>
       </c>
       <c r="B119" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3275,13 +3242,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="18.59765625" customWidth="1"/>
+    <col min="2" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3295,7 +3262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3307,8 +3274,8 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3318,8 +3285,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="19">
         <v>1.2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3329,8 +3296,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="19">
         <v>1.3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3340,8 +3307,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="19">
         <v>1.4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3351,8 +3318,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="19">
         <v>1.5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3362,8 +3329,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="19">
         <v>1.6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3389,24 +3356,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="88" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125"/>
-    <col min="3" max="3" width="15.5703125"/>
-    <col min="4" max="4" width="8.7109375"/>
-    <col min="5" max="6" width="31.5703125"/>
-    <col min="7" max="7" width="15.28515625"/>
-    <col min="8" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="19.06640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.3984375"/>
+    <col min="3" max="3" width="15.59765625"/>
+    <col min="4" max="4" width="8.73046875"/>
+    <col min="5" max="6" width="31.59765625"/>
+    <col min="7" max="7" width="15.265625"/>
+    <col min="8" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3444,19 +3411,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f t="shared" ref="B2:B17" si="0">SUBSTITUTE(CONCATENATE(G2,D2)," ","")</f>
+        <f t="shared" ref="B2:B14" si="0">SUBSTITUTE(CONCATENATE(G2,D2)," ","")</f>
         <v>DatabasesToolbar</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D20" si="1">REPLACE(C2, 1, 2, "")</f>
+        <f t="shared" ref="D2:D17" si="1">REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
       <c r="E2" s="2"/>
@@ -3473,8 +3440,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="20">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -3492,14 +3459,14 @@
         <v>34</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F19" si="2">SUBSTITUTE(E3,"_","-")</f>
+        <f t="shared" ref="F3:F16" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>project-new-32x32</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H19" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
+        <f t="shared" ref="H3:H16" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
         <v/>
       </c>
       <c r="J3" t="s">
@@ -3513,8 +3480,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="20">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -3553,8 +3520,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="20">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -3593,8 +3560,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="20">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -3633,8 +3600,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="9" t="str">
@@ -3674,8 +3641,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="3" t="str">
@@ -3697,7 +3664,7 @@
         <v>save-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -3713,8 +3680,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="3" t="str">
@@ -3752,8 +3719,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="3" t="str">
@@ -3792,8 +3759,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="3" t="str">
@@ -3832,47 +3799,52 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>Dropdown</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="2"/>
-        <v>file-export-32x32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ViewToolbar</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Toolbar</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L12" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E12)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>417</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="20">
+        <v>2.1</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ProjectButton</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -3882,150 +3854,152 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
-        <v>las-export-16x16</v>
+        <v>project-normal-32x32</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E13)),"fix-button-sm", "height65")</f>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>WorkflowsDropdown</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>Dropdown</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>workflow-32x32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E14)),"fix-button-sm", "height65")</f>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>workflow-16x16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E14" t="s">
-        <v>415</v>
-      </c>
-      <c r="F14" t="s">
-        <v>416</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>workflow-16x16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>icon-left</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>ViewToolbar</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Toolbar</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E15)),"fix-button-sm", "height65")</f>
-        <v>height65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>2.1</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ProjectButton</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="2"/>
-        <v>project-normal-32x32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E16)),"fix-button-sm", "height65")</f>
-        <v>height65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>WorkflowsDropdown</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -4035,18 +4009,13 @@
         <v>Dropdown</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="2"/>
-        <v>workflow-32x32</v>
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
         <v>31</v>
@@ -4059,33 +4028,30 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>64</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
+      <c r="D18" t="s">
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="2"/>
-        <v>workflow-16x16</v>
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="3"/>
-        <v>icon-left</v>
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
@@ -4097,33 +4063,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>68</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>Button</v>
+      <c r="D19" t="s">
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="2"/>
-        <v>workflow-16x16</v>
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="3"/>
-        <v>icon-left</v>
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
@@ -4135,28 +4098,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>71</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>Dropdown</v>
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s">
-        <v>74</v>
+        <v>88</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
@@ -4169,30 +4131,34 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G21,D21)," ","")</f>
+        <v>PropertyGridButton</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
-        <v>78</v>
+      <c r="D21" t="str">
+        <f>REPLACE(C21, 1, 2, "")</f>
+        <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
+        <v>92</v>
+      </c>
+      <c r="F21" t="str">
+        <f>SUBSTITUTE(E21,"_","-")</f>
+        <v>property-grid-32x32</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E21)), "icon-left","")</f>
+        <v/>
       </c>
       <c r="J21" t="s">
         <v>31</v>
@@ -4200,52 +4166,54 @@
       <c r="K21" t="s">
         <v>32</v>
       </c>
-      <c r="L21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>86</v>
+      <c r="L21" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E21)),"fix-button-sm", "height65")</f>
+        <v>height65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <v>3</v>
+      </c>
+      <c r="B22" s="14" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G22,D22)," ","")</f>
+        <v>ExitToolbar</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="15" t="str">
+        <f>REPLACE(C22, 1, 2, "")</f>
+        <v>Toolbar</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="str">
+        <f>SUBSTITUTE(E22,"_","-")</f>
+        <v/>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="15" t="str">
+        <f>IF(ISNUMBER(SEARCH("16x16",E22)), "icon-left","")</f>
+        <v/>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="20">
+        <v>3.1</v>
       </c>
       <c r="B23" s="3" t="str">
         <f>SUBSTITUTE(CONCATENATE(G23,D23)," ","")</f>
-        <v>PropertyGridButton</v>
+        <v>ExitButton</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -4255,14 +4223,14 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F23" t="str">
         <f>SUBSTITUTE(E23,"_","-")</f>
-        <v>property-grid-32x32</v>
+        <v>exit-32x32</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H23" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E23)), "icon-left","")</f>
@@ -4272,86 +4240,10 @@
         <v>31</v>
       </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L23" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E23)),"fix-button-sm", "height65")</f>
-        <v>height65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>3</v>
-      </c>
-      <c r="B24" s="13" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G24,D24)," ","")</f>
-        <v>ExitToolbar</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="14" t="str">
-        <f>REPLACE(C24, 1, 2, "")</f>
-        <v>Toolbar</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="str">
-        <f>SUBSTITUTE(E24,"_","-")</f>
-        <v/>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="14" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E24)), "icon-left","")</f>
-        <v/>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <v>3.1</v>
-      </c>
-      <c r="B25" s="3" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G25,D25)," ","")</f>
-        <v>ExitButton</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="str">
-        <f>REPLACE(C25, 1, 2, "")</f>
-        <v>Button</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" t="str">
-        <f>SUBSTITUTE(E25,"_","-")</f>
-        <v>exit-32x32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E25)), "icon-left","")</f>
-        <v/>
-      </c>
-      <c r="J25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" t="str">
-        <f>IF(ISNUMBER(SEARCH("16x16",E25)),"fix-button-sm", "height65")</f>
         <v>height65</v>
       </c>
     </row>
@@ -4369,13 +4261,13 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="2" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4413,7 +4305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -4431,7 +4323,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -4442,8 +4334,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -4458,14 +4350,14 @@
         <v>Button</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F26" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>well-new-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H26" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -4482,8 +4374,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="19">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -4498,14 +4390,14 @@
         <v>Button</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -4522,8 +4414,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="19">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -4538,14 +4430,14 @@
         <v>Button</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v>well-depth-convertion-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
@@ -4562,8 +4454,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="19">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -4578,14 +4470,14 @@
         <v>Button</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>curve-alias-32x32</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -4602,8 +4494,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="19">
         <v>1.5</v>
       </c>
       <c r="B7" s="3" t="str">
@@ -4618,14 +4510,14 @@
         <v>Button</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
         <v>family-edit-32x32</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
@@ -4642,9 +4534,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4663,7 +4555,7 @@
         <v/>
       </c>
       <c r="G8" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H8" s="8" t="str">
         <f t="shared" si="3"/>
@@ -4677,8 +4569,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="24">
         <v>2.1</v>
       </c>
       <c r="B9" s="9" t="str">
@@ -4693,7 +4585,7 @@
         <v>Dropdown</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F9" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4718,11 +4610,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="15" t="str">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportASCIIButton</v>
       </c>
@@ -4734,14 +4626,14 @@
         <v>Button</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>ascii-import-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -4757,11 +4649,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="15" t="str">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiASCIIButton</v>
       </c>
@@ -4773,14 +4665,14 @@
         <v>Button</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>ascii-import-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -4796,11 +4688,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="15" t="str">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportLASButton</v>
       </c>
@@ -4812,14 +4704,14 @@
         <v>Button</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -4835,11 +4727,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="15" t="str">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportMultiLASButton</v>
       </c>
@@ -4851,14 +4743,14 @@
         <v>Button</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>las-import-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
@@ -4874,11 +4766,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="15" t="str">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Interval/CoreLoaderButton</v>
       </c>
@@ -4890,14 +4782,14 @@
         <v>Button</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>curve-listing-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -4913,11 +4805,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="15" t="str">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderButton</v>
       </c>
@@ -4929,14 +4821,14 @@
         <v>Button</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>load-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -4952,11 +4844,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="15" t="str">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellHeaderButton</v>
       </c>
@@ -4968,14 +4860,14 @@
         <v>Button</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -4991,11 +4883,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="15" t="str">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ImportWellTopButton</v>
       </c>
@@ -5007,14 +4899,14 @@
         <v>Button</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -5030,9 +4922,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>127</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="B18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5046,14 +4938,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F18" s="11" t="str">
         <f t="shared" si="2"/>
         <v>file-export-32x32</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H18" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5071,11 +4963,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportASCIIButton</v>
       </c>
@@ -5087,14 +4979,14 @@
         <v>Button</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>ascii-export-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -5110,11 +5002,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiASCIIButton</v>
       </c>
@@ -5126,14 +5018,14 @@
         <v>Button</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>ascii-export-16x16</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -5149,11 +5041,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="15" t="str">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportLASButton</v>
       </c>
@@ -5165,14 +5057,14 @@
         <v>Button</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>las-export-16x16</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -5188,11 +5080,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="15" t="str">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportMultiLASButton</v>
       </c>
@@ -5204,14 +5096,14 @@
         <v>Button</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>las-export-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -5227,11 +5119,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="15" t="str">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportCoreDataButton</v>
       </c>
@@ -5243,14 +5135,14 @@
         <v>Button</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>curve-listing-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -5266,11 +5158,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="15" t="str">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Multi-wellCoreLoaderButton</v>
       </c>
@@ -5282,14 +5174,14 @@
         <v>Button</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
@@ -5305,11 +5197,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="15" t="str">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellHeaderButton</v>
       </c>
@@ -5321,14 +5213,14 @@
         <v>Button</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>well-header-edit-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -5344,11 +5236,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="15" t="str">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ExportWellTopButton</v>
       </c>
@@ -5360,14 +5252,14 @@
         <v>Button</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>export-well-top-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -5397,18 +5289,18 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" customWidth="1"/>
-    <col min="7" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="18.53125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875"/>
+    <col min="4" max="4" width="19.1328125" customWidth="1"/>
+    <col min="5" max="5" width="22.46484375" customWidth="1"/>
+    <col min="6" max="6" width="38.19921875" customWidth="1"/>
+    <col min="7" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5446,7 +5338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5464,7 +5356,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -5475,8 +5367,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="20">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -5491,14 +5383,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F38" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>logplot-blank-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H31" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -5515,8 +5407,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="20">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -5531,14 +5423,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>logplot-triple-combo-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -5555,8 +5447,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="20">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -5571,14 +5463,14 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v>logplot-predefine-RHOB-NPHI-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
@@ -5595,8 +5487,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="20">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -5611,14 +5503,14 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>logplot-predefine-RDT-32x32</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -5635,8 +5527,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
         <v>1.5</v>
       </c>
       <c r="B7" s="9" t="str">
@@ -5651,14 +5543,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F7" s="11" t="str">
         <f t="shared" si="2"/>
         <v>logplot-more-32x32</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H7" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5676,11 +5568,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>3TracksBlankButton</v>
       </c>
@@ -5692,14 +5584,14 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>tri-tracks-blank-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -5715,11 +5607,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>InputCurveButton</v>
       </c>
@@ -5731,14 +5623,14 @@
         <v>Button</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
         <v>curve-input-16x16</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="3"/>
@@ -5754,11 +5646,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="15" t="str">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Litho+Syn.CurveButton</v>
       </c>
@@ -5770,14 +5662,14 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>logplot-lythosyn-curve-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -5793,11 +5685,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="15" t="str">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Syn.CurveButton</v>
       </c>
@@ -5809,14 +5701,14 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>logplot-syn-curve-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -5832,11 +5724,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="15" t="str">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ResultButton</v>
       </c>
@@ -5848,14 +5740,14 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v>logplot-result-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -5871,7 +5763,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -5892,7 +5784,7 @@
         <v/>
       </c>
       <c r="G13" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H13" s="8" t="str">
         <f t="shared" si="3"/>
@@ -5906,11 +5798,11 @@
         <v>32</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="20">
         <v>2.1</v>
       </c>
       <c r="B14" s="3" t="str">
@@ -5925,14 +5817,14 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-new-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -5949,8 +5841,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="20">
         <v>2.2000000000000002</v>
       </c>
       <c r="B15" s="3" t="str">
@@ -5965,14 +5857,14 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-result-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -5989,8 +5881,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="20">
         <v>2.2999999999999998</v>
       </c>
       <c r="B16" s="3" t="str">
@@ -6005,14 +5897,14 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-ND-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -6029,8 +5921,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="20">
         <v>2.4</v>
       </c>
       <c r="B17" s="3" t="str">
@@ -6045,14 +5937,14 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -6069,8 +5961,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="20">
         <v>2.5</v>
       </c>
       <c r="B18" s="3" t="str">
@@ -6085,14 +5977,14 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -6109,8 +6001,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="21">
         <v>2.6</v>
       </c>
       <c r="B19" s="9" t="str">
@@ -6125,14 +6017,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F19" s="11" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-result-16x16</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H19" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6150,11 +6042,11 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" s="15" t="str">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>NeuTronSonicButton</v>
       </c>
@@ -6166,14 +6058,14 @@
         <v>Button</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NS-16x16</v>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -6189,11 +6081,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="15" t="str">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DenityGammaButton</v>
       </c>
@@ -6205,14 +6097,14 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-NG-16x16</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -6228,11 +6120,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="15" t="str">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>NeuTronRtButton</v>
       </c>
@@ -6244,14 +6136,14 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-Rt-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -6267,11 +6159,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="15" t="str">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DensitySonicButton</v>
       </c>
@@ -6283,14 +6175,14 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-DS-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -6306,11 +6198,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="15" t="str">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DensityRtButton</v>
       </c>
@@ -6322,14 +6214,14 @@
         <v>Button</v>
       </c>
       <c r="E24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-DRt-16x16</v>
       </c>
       <c r="G24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
@@ -6345,11 +6237,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="15" t="str">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SonicDensityButton</v>
       </c>
@@ -6361,14 +6253,14 @@
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-SD-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -6384,11 +6276,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="15" t="str">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SonicRtButton</v>
       </c>
@@ -6400,14 +6292,14 @@
         <v>Button</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-SRt-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -6423,11 +6315,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B27" s="15" t="str">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>RtRx0Button</v>
       </c>
@@ -6439,14 +6331,14 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-predefine-RtRxo-16x16</v>
       </c>
       <c r="G27" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
@@ -6462,11 +6354,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B28" s="15" t="str">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PickettButton</v>
       </c>
@@ -6478,14 +6370,14 @@
         <v>Button</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="2"/>
         <v>crossplot-blank-16x16</v>
       </c>
       <c r="G28" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="3"/>
@@ -6501,7 +6393,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -6522,7 +6414,7 @@
         <v/>
       </c>
       <c r="G29" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H29" s="8" t="str">
         <f t="shared" si="3"/>
@@ -6536,9 +6428,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>209</v>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6552,14 +6444,14 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="2"/>
         <v>histogram-new-32x32</v>
       </c>
       <c r="G30" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
@@ -6576,9 +6468,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>212</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="20" t="s">
+        <v>216</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6592,14 +6484,14 @@
         <v>Button</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-GR-32x32</v>
       </c>
       <c r="G31" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
@@ -6616,11 +6508,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B32" s="15" t="str">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SonicButton</v>
       </c>
@@ -6632,14 +6524,14 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-DT-32x32</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J32" t="s">
         <v>31</v>
@@ -6652,9 +6544,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>218</v>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6668,14 +6560,14 @@
         <v>Button</v>
       </c>
       <c r="E33" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-NPHI-32x32</v>
       </c>
       <c r="G33" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" ref="H33:H38" si="6">IF(ISNUMBER(SEARCH("16x16",E33)), "icon-left","")</f>
@@ -6692,9 +6584,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>221</v>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6708,14 +6600,14 @@
         <v>Button</v>
       </c>
       <c r="E34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-RHOB-32x32</v>
       </c>
       <c r="G34" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="6"/>
@@ -6732,8 +6624,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" s="21">
         <v>3.6</v>
       </c>
       <c r="B35" s="9" t="str">
@@ -6748,14 +6640,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F35" s="11" t="str">
         <f t="shared" si="2"/>
         <v>histogram-result-32x32</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H35" s="11" t="str">
         <f t="shared" si="6"/>
@@ -6773,9 +6665,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>226</v>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="23" t="s">
+        <v>230</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6789,14 +6681,14 @@
         <v>Button</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="2"/>
         <v>histogram-result-16x16</v>
       </c>
       <c r="G36" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="6"/>
@@ -6812,11 +6704,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" s="15" t="str">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="16" t="str">
         <f t="shared" si="0"/>
         <v>DeepResistivityButton</v>
       </c>
@@ -6828,14 +6720,14 @@
         <v>Button</v>
       </c>
       <c r="E37" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-LLD-16x16</v>
       </c>
       <c r="G37" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="6"/>
@@ -6851,11 +6743,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="B38" s="15" t="str">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" s="16" t="str">
         <f t="shared" si="0"/>
         <v>MSFLHistogramButton</v>
       </c>
@@ -6867,14 +6759,14 @@
         <v>Button</v>
       </c>
       <c r="E38" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="2"/>
         <v>histogram-predefine-MSFL-16x16</v>
       </c>
       <c r="G38" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="6"/>
@@ -6890,229 +6782,229 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C54" s="12"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C60" s="12"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C70" s="12"/>
       <c r="G70" s="12"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C76" s="12"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D119" t="str">
         <f t="shared" ref="D119:D152" si="7">REPLACE(C119, 1, 2, "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D120" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D121" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D123" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D124" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D127" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D129" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D131" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D132" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D133" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D134" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D135" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D136" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D137" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D138" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D139" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D140" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D141" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D142" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D143" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D144" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D145" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D146" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D147" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D148" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D149" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D152" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7132,15 +7024,15 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="5" customWidth="1"/>
-    <col min="2" max="11" width="8.7109375"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="28.73046875" style="5" customWidth="1"/>
+    <col min="2" max="11" width="8.73046875"/>
+    <col min="12" max="12" width="12.73046875" customWidth="1"/>
+    <col min="13" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7178,7 +7070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -7196,7 +7088,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -7207,12 +7099,12 @@
         <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>236</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7226,14 +7118,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F32" si="2">SUBSTITUTE(E3,"_","-")</f>
         <v>curve-new-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H32" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -7250,9 +7142,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>239</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7266,14 +7158,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>edit-curve-text-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -7290,9 +7182,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>242</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="B5" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7306,14 +7198,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F5" s="10" t="str">
         <f t="shared" si="2"/>
         <v>curve-edit-32x32</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H5" s="11" t="str">
         <f t="shared" si="3"/>
@@ -7331,11 +7223,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="15" t="str">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CurveListing/EditButton</v>
       </c>
@@ -7347,14 +7239,14 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>curve-listing-16x16</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -7370,11 +7262,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="15" t="str">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>InteractiveCurveEditButton</v>
       </c>
@@ -7386,14 +7278,14 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
         <v>curve-interactive-edit-16x16</v>
       </c>
       <c r="G7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
@@ -7409,11 +7301,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="15" t="str">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>InteractiveBaselineShiftButton</v>
       </c>
@@ -7425,14 +7317,14 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>curve-interactive-baseline-edit-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -7448,9 +7340,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>253</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="B9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7464,14 +7356,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>curve-splice-32x32</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H9" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7489,11 +7381,11 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" s="15" t="str">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>SplitCurvesButton</v>
       </c>
@@ -7505,14 +7397,14 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>cureve-splice-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -7528,11 +7420,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="15" t="str">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>InteractiveCurveSplitButton</v>
       </c>
@@ -7544,14 +7436,14 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>curve-splice-interactive-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -7567,8 +7459,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="str">
@@ -7590,7 +7482,7 @@
         <v>caculation-multilinerregression-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -7607,8 +7499,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="3" t="str">
@@ -7623,14 +7515,14 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>curve-header-edit-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
@@ -7647,8 +7539,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="3" t="str">
@@ -7663,14 +7555,14 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>curve-fill-data-gaps-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -7687,9 +7579,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>267</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7703,14 +7595,14 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>curve-filter-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -7727,9 +7619,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>270</v>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
+        <v>274</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7743,14 +7635,14 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>curve-convolution-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -7767,9 +7659,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>273</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7783,14 +7675,14 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>curve-deconvolution-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -7807,9 +7699,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>276</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="20" t="s">
+        <v>280</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7823,14 +7715,14 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>curve-edit-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -7847,9 +7739,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>279</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7863,14 +7755,14 @@
         <v>Button</v>
       </c>
       <c r="E19" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>curve-rescale-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -7887,9 +7779,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>282</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7903,14 +7795,14 @@
         <v>Button</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>curve-compare-16x16</v>
       </c>
       <c r="G20" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -7927,9 +7819,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>285</v>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7943,14 +7835,14 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>curve-average-16x16</v>
       </c>
       <c r="G21" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -7967,9 +7859,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>288</v>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7983,14 +7875,14 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>formation-resistivity-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -8007,9 +7899,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>291</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8023,14 +7915,14 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>badhole-coal-salt-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -8047,45 +7939,45 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="14" t="str">
+    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>UserFormulaToolbar</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="14" t="str">
+      <c r="D24" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="F24" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="H24" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>295</v>
+      <c r="F24" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="H24" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="20" t="s">
+        <v>299</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8099,14 +7991,14 @@
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>user-formula-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -8123,9 +8015,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>127</v>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8139,14 +8031,14 @@
         <v>Button</v>
       </c>
       <c r="E26" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>user-formula-multiline-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -8163,8 +8055,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="3" t="str">
@@ -8179,14 +8071,14 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v>python-program-16x16</v>
       </c>
       <c r="G27" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
@@ -8203,45 +8095,45 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="B28" s="13" t="str">
+    <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>CalculationToolbar</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="14" t="str">
+      <c r="D28" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="F28" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="H28" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>209</v>
+      <c r="F28" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H28" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8255,14 +8147,14 @@
         <v>Button</v>
       </c>
       <c r="E29" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="2"/>
         <v>true-vertical-depth-32x32</v>
       </c>
       <c r="G29" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="3"/>
@@ -8279,9 +8171,9 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>212</v>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="20" t="s">
+        <v>216</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8295,14 +8187,14 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="2"/>
         <v>pca-analysis-16x16</v>
       </c>
       <c r="G30" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
@@ -8319,9 +8211,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>215</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8342,7 +8234,7 @@
         <v>caculation-multilinerregression-16x16</v>
       </c>
       <c r="G31" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
@@ -8359,9 +8251,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>218</v>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8375,14 +8267,14 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
         <v>Neural-Network-16x16</v>
       </c>
       <c r="G32" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
@@ -8409,25 +8301,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="11" width="8.7109375"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="13.06640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.86328125" customWidth="1"/>
+    <col min="3" max="3" width="21.73046875" customWidth="1"/>
+    <col min="4" max="4" width="8.73046875"/>
+    <col min="5" max="5" width="26.86328125" customWidth="1"/>
+    <col min="6" max="6" width="29.53125" customWidth="1"/>
+    <col min="7" max="7" width="35.3984375" customWidth="1"/>
+    <col min="8" max="11" width="8.73046875"/>
+    <col min="12" max="12" width="11.265625" customWidth="1"/>
+    <col min="13" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8465,40 +8357,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+    <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="str">
+      <c r="B2" s="15" t="str">
         <f t="shared" ref="B2:B50" si="0">SUBSTITUTE(CONCATENATE(G2,D2)," ","")</f>
         <v>Basement/TightSandstoneToolbar</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="15" t="str">
         <f t="shared" ref="D2:D50" si="1">REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="15" t="str">
         <f t="shared" ref="F2:F50" si="2">SUBSTITUTE(E2,"_","-")</f>
         <v/>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="G2" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="18">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -8513,14 +8405,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-edit-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H50" si="3">IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -8537,8 +8429,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="18">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -8553,14 +8445,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v>curve-input-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
@@ -8577,8 +8469,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="18">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -8593,14 +8485,14 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v>fluid-input-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
@@ -8617,8 +8509,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="18">
         <v>1.4</v>
       </c>
       <c r="B6" s="3" t="str">
@@ -8633,14 +8525,14 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-parameter-build-16x16</v>
       </c>
       <c r="G6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
@@ -8657,8 +8549,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="18">
         <v>1.5</v>
       </c>
       <c r="B7" s="3" t="str">
@@ -8673,14 +8565,14 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
         <v>mineral-zone-edit-16x16</v>
       </c>
       <c r="G7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
@@ -8697,8 +8589,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="18">
         <v>1.6</v>
       </c>
       <c r="B8" s="3" t="str">
@@ -8713,14 +8605,14 @@
         <v>Button</v>
       </c>
       <c r="E8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>multi-mineral-solver-16x16</v>
       </c>
       <c r="G8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
@@ -8737,8 +8629,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="18">
         <v>1.7</v>
       </c>
       <c r="B9" s="3" t="str">
@@ -8753,14 +8645,14 @@
         <v>Button</v>
       </c>
       <c r="E9" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
         <v>Vclay-16x16</v>
       </c>
       <c r="G9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="3"/>
@@ -8777,8 +8669,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="18">
         <v>1.8</v>
       </c>
       <c r="B10" s="3" t="str">
@@ -8793,14 +8685,14 @@
         <v>Button</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>secondary-porosity-16x16</v>
       </c>
       <c r="G10" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
@@ -8817,8 +8709,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="18">
         <v>1.9</v>
       </c>
       <c r="B11" s="3" t="str">
@@ -8833,14 +8725,14 @@
         <v>Button</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
@@ -8857,9 +8749,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>273</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8873,14 +8765,14 @@
         <v>Button</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v>secondary-porosity-16x16</v>
       </c>
       <c r="G12" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
@@ -8897,9 +8789,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>276</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8913,14 +8805,14 @@
         <v>Button</v>
       </c>
       <c r="E13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>fracture-porosity-permeability-16x16</v>
       </c>
       <c r="G13" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
@@ -8937,9 +8829,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>279</v>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8953,14 +8845,14 @@
         <v>Button</v>
       </c>
       <c r="E14" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>phi2fil-phio-16x16</v>
       </c>
       <c r="G14" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
@@ -8977,9 +8869,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>282</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8993,14 +8885,14 @@
         <v>Button</v>
       </c>
       <c r="E15" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>mineral-volume-16x16</v>
       </c>
       <c r="G15" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -9017,9 +8909,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>285</v>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9033,14 +8925,14 @@
         <v>Button</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G16" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -9057,9 +8949,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>288</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9073,14 +8965,14 @@
         <v>Button</v>
       </c>
       <c r="E17" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>calculate-permeability-16x16</v>
       </c>
       <c r="G17" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -9097,9 +8989,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>291</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9113,14 +9005,14 @@
         <v>Button</v>
       </c>
       <c r="E18" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>summation-16x16</v>
       </c>
       <c r="G18" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -9137,9 +9029,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>342</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
+        <v>346</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9153,14 +9045,14 @@
         <v>Button</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>curve-filter-16x16</v>
       </c>
       <c r="G19" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -9177,45 +9069,45 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="17">
         <v>2</v>
       </c>
-      <c r="B20" s="14" t="str">
+      <c r="B20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ClasticToolbar</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="14" t="str">
+      <c r="D20" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Toolbar</v>
       </c>
-      <c r="F20" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="H20" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>295</v>
+      <c r="F20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="H20" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
+        <v>299</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9229,14 +9121,14 @@
         <v>Button</v>
       </c>
       <c r="E21" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>sand-32x32</v>
       </c>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -9253,8 +9145,8 @@
         <v>height65</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="18">
         <v>2.2000000000000002</v>
       </c>
       <c r="B22" s="3" t="str">
@@ -9269,14 +9161,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E22" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G22" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H22" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E22)), "icon-left","")</f>
@@ -9293,13 +9185,13 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>GammaRayButton</v>
+        <f>SUBSTITUTE(CONCATENATE($G$22,G23,D23)," ","")</f>
+        <v>ClayVolumeGammaRayButton</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -9309,14 +9201,14 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G23" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -9332,13 +9224,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Neutron-DensityButton</v>
+        <f t="shared" ref="B24:B32" si="5">SUBSTITUTE(CONCATENATE($G$22,G24,D24)," ","")</f>
+        <v>ClayVolumeNeutron-DensityButton</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -9348,14 +9240,14 @@
         <v>Button</v>
       </c>
       <c r="E24" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G24" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
@@ -9371,13 +9263,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>133</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Neutron-SonicButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeNeutron-SonicButton</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
@@ -9387,14 +9279,14 @@
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G25" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -9410,13 +9302,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>136</v>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Density-SonicButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeDensity-SonicButton</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -9426,14 +9318,14 @@
         <v>Button</v>
       </c>
       <c r="E26" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G26" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -9449,13 +9341,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>138</v>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="26" t="s">
+        <v>142</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ResistivityButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeResistivityButton</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
@@ -9465,14 +9357,14 @@
         <v>Button</v>
       </c>
       <c r="E27" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G27" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
@@ -9488,13 +9380,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>140</v>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>SpontaneouspotentialButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeSpontaneouspotentialButton</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -9504,14 +9396,14 @@
         <v>Button</v>
       </c>
       <c r="E28" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G28" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="3"/>
@@ -9527,13 +9419,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>141</v>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ThermalNeutronButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeThermalNeutronButton</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -9543,14 +9435,14 @@
         <v>Button</v>
       </c>
       <c r="E29" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G29" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="3"/>
@@ -9566,13 +9458,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>143</v>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PotassiumButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumePotassiumButton</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -9582,14 +9474,14 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G30" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
@@ -9605,13 +9497,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>377</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="26" t="s">
+        <v>381</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ThoriumButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeThoriumButton</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -9621,14 +9513,14 @@
         <v>Button</v>
       </c>
       <c r="E31" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G31" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
@@ -9644,13 +9536,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>378</v>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="26" t="s">
+        <v>382</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>FinalClayVolumeButton</v>
+        <f t="shared" si="5"/>
+        <v>ClayVolumeFinalButton</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -9660,14 +9552,14 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
         <v>clay-volume-16x16</v>
       </c>
       <c r="G32" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
@@ -9683,8 +9575,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="18">
         <v>2.2999999999999998</v>
       </c>
       <c r="B33" s="3" t="str">
@@ -9699,14 +9591,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E33" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G33" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="3"/>
@@ -9723,8 +9615,8 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="3" t="str">
@@ -9739,14 +9631,14 @@
         <v>Button</v>
       </c>
       <c r="E34" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G34" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="3"/>
@@ -9762,30 +9654,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" s="26" t="s">
         <v>83</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" ref="B35:B39" si="5">SUBSTITUTE(CONCATENATE($G$33,G35,D35)," ","")</f>
+        <f t="shared" ref="B35:B39" si="6">SUBSTITUTE(CONCATENATE($G$33,G35,D35)," ","")</f>
         <v>PorosityNeutronButton</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35:D39" si="6">REPLACE(C35, 1, 2, "")</f>
+        <f t="shared" ref="D35:D39" si="7">REPLACE(C35, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E35" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G35" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
@@ -9801,30 +9693,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>389</v>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="26" t="s">
+        <v>393</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PorositySonicButton</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="E36" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
@@ -9840,30 +9732,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>390</v>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="26" t="s">
+        <v>394</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PorosityNeutron-DensityButton</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="E37" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G37" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
@@ -9879,30 +9771,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>391</v>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" s="26" t="s">
+        <v>395</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PorosityNeutron-SonicButton</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Button</v>
       </c>
       <c r="E38" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G38" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="3"/>
@@ -9918,30 +9810,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>PorosityFinalButton</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="7"/>
+        <v>Button</v>
+      </c>
+      <c r="E39" t="s">
         <v>392</v>
       </c>
-      <c r="B39" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>PorosityFinalButton</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="6"/>
-        <v>Button</v>
-      </c>
-      <c r="E39" t="s">
-        <v>388</v>
-      </c>
       <c r="F39" t="str">
         <f t="shared" si="2"/>
         <v>calculate-open-porosity-16x16</v>
       </c>
       <c r="G39" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
@@ -9957,8 +9849,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="3" t="str">
@@ -9973,14 +9865,14 @@
         <v>Dropdown</v>
       </c>
       <c r="E40" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G40" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
@@ -9997,9 +9889,9 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>393</v>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" s="26" t="s">
+        <v>397</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10013,14 +9905,14 @@
         <v>Button</v>
       </c>
       <c r="E41" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G41" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
@@ -10036,9 +9928,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>394</v>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" s="26" t="s">
+        <v>398</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10048,18 +9940,18 @@
         <v>33</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" ref="D42:D49" si="7">REPLACE(C42, 1, 2, "")</f>
+        <f t="shared" ref="D42:D49" si="8">REPLACE(C42, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E42" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G42" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
@@ -10075,9 +9967,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>395</v>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" s="26" t="s">
+        <v>399</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10087,18 +9979,18 @@
         <v>33</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E43" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G43" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="3"/>
@@ -10114,9 +10006,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>396</v>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" s="26" t="s">
+        <v>400</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10126,18 +10018,18 @@
         <v>33</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E44" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G44" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="3"/>
@@ -10153,9 +10045,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>397</v>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" s="26" t="s">
+        <v>401</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10165,18 +10057,18 @@
         <v>33</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E45" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G45" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
@@ -10192,9 +10084,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>398</v>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46" s="26" t="s">
+        <v>402</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10204,18 +10096,18 @@
         <v>33</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E46" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G46" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
@@ -10231,9 +10123,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>399</v>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47" s="26" t="s">
+        <v>403</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10243,18 +10135,18 @@
         <v>33</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E47" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G47" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="3"/>
@@ -10270,9 +10162,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>400</v>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" s="26" t="s">
+        <v>404</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10282,18 +10174,18 @@
         <v>33</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E48" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G48" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="3"/>
@@ -10309,9 +10201,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>401</v>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" s="26" t="s">
+        <v>405</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10321,18 +10213,18 @@
         <v>33</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Button</v>
       </c>
       <c r="E49" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="2"/>
         <v>water-saturation-16x16</v>
       </c>
       <c r="G49" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
@@ -10348,9 +10240,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>87</v>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A50" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -10364,14 +10256,14 @@
         <v>Button</v>
       </c>
       <c r="E50" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="2"/>
         <v>summation-16x16</v>
       </c>
       <c r="G50" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
@@ -10388,105 +10280,105 @@
         <v>fix-btn-sm</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52"/>
       <c r="H52" t="str">
-        <f t="shared" ref="H52:H63" si="8">IF(ISNUMBER(SEARCH("16x16",E51)), "icon-left","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H52:H63" si="9">IF(ISNUMBER(SEARCH("16x16",E51)), "icon-left","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H53" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="D55" s="3"/>
       <c r="H55" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="D56" s="3"/>
       <c r="H56" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="D57" s="3"/>
       <c r="H57" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
       <c r="H58" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="D59" s="3"/>
       <c r="H59" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B60" s="3"/>
       <c r="D60" s="3"/>
       <c r="H60" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B61" s="3"/>
       <c r="D61" s="3"/>
       <c r="H61" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B62" s="3"/>
       <c r="D62" s="3"/>
       <c r="H62" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10504,13 +10396,13 @@
       <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15" style="5" customWidth="1"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="14.9296875" style="5" customWidth="1"/>
+    <col min="2" max="1025" width="8.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10548,7 +10440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -10566,7 +10458,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -10577,9 +10469,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>236</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>SUBSTITUTE(CONCATENATE(G3,D3)," ","")</f>
@@ -10593,14 +10485,14 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
         <v>help-32x32</v>
       </c>
       <c r="G3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H3" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E3)), "icon-left","")</f>
@@ -10613,11 +10505,11 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="20">
         <v>1.2</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -10632,14 +10524,14 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F4" t="str">
         <f>SUBSTITUTE(E4,"_","-")</f>
         <v>info-frp-32x32</v>
       </c>
       <c r="G4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H4" t="str">
         <f>IF(ISNUMBER(SEARCH("16x16",E4)), "icon-left","")</f>
@@ -10652,11 +10544,11 @@
         <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="20">
         <v>1.3</v>
       </c>
       <c r="B5" s="3" t="str">
@@ -10671,14 +10563,14 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F5" t="str">
         <f>SUBSTITUTE(E5,"_","-")</f>
         <v>unlock1-32x32</v>
       </c>
       <c r="G5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H5" t="str">
         <f>IF(ISNUMBER(SEARCH